--- a/source/excel/Score.xlsx
+++ b/source/excel/Score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813D5889-ECB5-7445-B44D-09C795132AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F17CD7C-B1BD-294B-BC09-3272AD376A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16280" activeTab="12" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="155" r:id="rId14"/>
+    <pivotCache cacheId="13" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="144">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,14 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总体日程完成度57.37%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,6 +615,44 @@
     <t>明日日程安排记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>没按指定时间开始，扣除10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改《小狗钱钱》电子书目录</t>
+  </si>
+  <si>
+    <t>日报模版</t>
+  </si>
+  <si>
+    <t>还不够完善，慢慢丰富</t>
+  </si>
+  <si>
+    <t>Exercise.md添加延迟、可原谅中断情况的处理规则</t>
+  </si>
+  <si>
+    <t>未确定中断事件的被迫程度</t>
+  </si>
+  <si>
+    <t>计划中断情况的处理规则</t>
+  </si>
+  <si>
+    <t>Score.xlsx的records中把时间列改成开始时间和结束时间列</t>
+  </si>
+  <si>
+    <t>制作明日日程安排打卡Excel</t>
+  </si>
+  <si>
+    <t>制作阅读打卡Excel</t>
+  </si>
+  <si>
+    <t>总体日程完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12时</t>
+  </si>
 </sst>
 </file>
 
@@ -633,7 +663,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,6 +785,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
@@ -830,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,6 +930,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,13 +999,7 @@
       <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
@@ -975,13 +1017,19 @@
       <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
@@ -20708,8 +20756,8 @@
       <xdr:rowOff>9531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -20786,8 +20834,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>193669</xdr:rowOff>
     </xdr:to>
@@ -40087,7 +40135,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gzhennaxia@163.com" refreshedDate="43889.508082754626" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="54" xr:uid="{9C136832-FF93-3F47-9AFE-E34173B60C69}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gzhennaxia@163.com" refreshedDate="43889.97066875" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="70" xr:uid="{9C136832-FF93-3F47-9AFE-E34173B60C69}">
   <cacheSource type="worksheet">
     <worksheetSource name="records"/>
   </cacheSource>
@@ -40114,16 +40162,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-23T00:00:00" maxDate="2020-02-28T00:00:00" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-23T00:00:00" maxDate="2020-02-29T00:00:00" count="6">
         <d v="2020-02-23T00:00:00"/>
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
         <d v="2020-02-27T00:00:00"/>
+        <d v="2020-02-28T00:00:00"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="开始时刻" numFmtId="20">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:59:00" count="13">
+    <cacheField name="开始时刻" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:59:00" count="15">
         <d v="1899-12-30T06:00:00"/>
         <d v="1899-12-30T06:05:00"/>
         <d v="1899-12-30T07:15:00"/>
@@ -40137,6 +40186,8 @@
         <d v="1899-12-30T10:30:00"/>
         <d v="1899-12-30T18:30:00"/>
         <d v="1899-12-30T23:59:00"/>
+        <d v="1899-12-30T08:30:00"/>
+        <d v="1899-12-30T12:30:00"/>
       </sharedItems>
       <fieldGroup par="11" base="5">
         <rangePr groupBy="minutes" startDate="1899-12-30T00:00:00" endDate="1899-12-30T23:59:00"/>
@@ -40206,8 +40257,8 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="结束时刻" numFmtId="20">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T06:00:00" maxDate="1899-12-30T23:59:00" count="13">
+    <cacheField name="结束时刻" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T06:00:00" maxDate="1899-12-30T23:59:00" count="17">
         <d v="1899-12-30T06:00:00"/>
         <d v="1899-12-30T06:05:00"/>
         <d v="1899-12-30T07:08:00"/>
@@ -40221,6 +40272,10 @@
         <d v="1899-12-30T09:00:00"/>
         <d v="1899-12-30T10:30:00"/>
         <d v="1899-12-30T18:30:00"/>
+        <d v="1899-12-30T07:20:00"/>
+        <d v="1899-12-30T12:30:00"/>
+        <d v="1899-12-30T12:33:00"/>
+        <d v="1899-12-30T12:45:00"/>
       </sharedItems>
       <fieldGroup par="12" base="6">
         <rangePr groupBy="minutes" startDate="1899-12-30T06:00:00" endDate="1899-12-30T23:59:00"/>
@@ -40291,7 +40346,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="持续时间" numFmtId="20">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00" count="7">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00" count="9">
         <d v="1899-12-30T00:00:00"/>
         <d v="1899-12-30T00:05:00"/>
         <d v="1899-12-30T01:03:00"/>
@@ -40299,10 +40354,12 @@
         <d v="1899-12-30T01:00:00"/>
         <d v="1899-12-30T00:15:00"/>
         <d v="1899-12-30T23:59:00"/>
+        <d v="1899-12-30T04:00:00"/>
+        <d v="1899-12-30T00:03:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="名称" numFmtId="0">
-      <sharedItems count="22">
+      <sharedItems count="30">
         <s v="早起"/>
         <s v="刷牙洗脸"/>
         <s v="阅读"/>
@@ -40310,7 +40367,7 @@
         <s v="锻炼"/>
         <s v="洗澡"/>
         <s v="日报"/>
-        <s v="明日计划"/>
+        <s v="明日日程安排"/>
         <s v="联系父母"/>
         <s v="明日买菜菜单"/>
         <s v="制作锻炼打卡Excel"/>
@@ -40319,19 +40376,27 @@
         <s v="买菜"/>
         <s v="晾衣服、收拾衣服"/>
         <s v="将19/20年账本分出来并汇总"/>
-        <s v="制定明日计划"/>
         <s v="其他"/>
         <s v="计划中断情况的处理规则"/>
-        <s v="整体情况"/>
+        <s v="总体日程完成度"/>
         <s v="制作洗澡打卡Excel"/>
         <s v="制作早起打卡Excel"/>
+        <s v="修改《小狗钱钱》电子书目录"/>
+        <s v="日报模版"/>
+        <s v="Exercise.md添加延迟、可原谅中断情况的处理规则"/>
+        <s v="Score.xlsx的records中把时间列改成开始时间和结束时间列"/>
+        <s v="制作阅读打卡Excel"/>
+        <s v="制作明日日程安排打卡Excel"/>
+        <s v="制定明日计划" u="1"/>
+        <s v="整体情况" u="1"/>
+        <s v="明日计划" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="得分" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.43" maxValue="0.9"/>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.57369999999999999" maxValue="0.85880000000000001" count="15">
         <m/>
         <s v="爸妈主动联系我了，没能主动联系父母，得一半的分数+0.05"/>
         <s v="列出了清单，但没能将价格信息标明白。完成度40%"/>
@@ -40340,8 +40405,13 @@
         <s v="(90%)将Kindle上的书导入iBook"/>
         <s v="(80%)制作得分Excel"/>
         <s v="有了大概构思，根据被迫程度扣除相应罚金"/>
-        <s v="总体日程完成度57.37%"/>
+        <n v="0.57369999999999999"/>
         <s v="缺少图表汇总 -10%"/>
+        <s v="还不够完善，慢慢丰富"/>
+        <s v="未确定中断事件的被迫程度"/>
+        <n v="0.85880000000000001"/>
+        <s v="没按指定时间开始，扣除10%"/>
+        <s v="总体日程完成度57.37%" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="小时" numFmtId="0" databaseField="0">
@@ -40420,7 +40490,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="54">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="70">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -40809,7 +40879,7 @@
     <x v="3"/>
     <x v="5"/>
     <n v="0.2"/>
-    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -40820,9 +40890,9 @@
     <x v="5"/>
     <x v="6"/>
     <x v="5"/>
-    <x v="16"/>
+    <x v="7"/>
     <n v="0.2"/>
-    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -40835,7 +40905,7 @@
     <x v="5"/>
     <x v="6"/>
     <n v="0.2"/>
-    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -40846,7 +40916,7 @@
     <x v="7"/>
     <x v="8"/>
     <x v="6"/>
-    <x v="17"/>
+    <x v="16"/>
     <n v="0.9"/>
     <x v="5"/>
   </r>
@@ -40911,7 +40981,7 @@
     <x v="8"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="17"/>
+    <x v="16"/>
     <n v="0.8"/>
     <x v="6"/>
   </r>
@@ -40950,7 +41020,7 @@
     <x v="5"/>
     <x v="6"/>
     <x v="5"/>
-    <x v="16"/>
+    <x v="7"/>
     <n v="0.2"/>
     <x v="0"/>
   </r>
@@ -40976,7 +41046,7 @@
     <x v="7"/>
     <x v="8"/>
     <x v="6"/>
-    <x v="18"/>
+    <x v="17"/>
     <n v="0.01"/>
     <x v="7"/>
   </r>
@@ -40989,7 +41059,7 @@
     <x v="7"/>
     <x v="8"/>
     <x v="6"/>
-    <x v="19"/>
+    <x v="18"/>
     <n v="-0.43"/>
     <x v="8"/>
   </r>
@@ -41080,7 +41150,7 @@
     <x v="5"/>
     <x v="6"/>
     <x v="5"/>
-    <x v="16"/>
+    <x v="7"/>
     <n v="0.2"/>
     <x v="0"/>
   </r>
@@ -41106,7 +41176,7 @@
     <x v="12"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="20"/>
+    <x v="19"/>
     <n v="0.09"/>
     <x v="9"/>
   </r>
@@ -41119,16 +41189,224 @@
     <x v="12"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="21"/>
+    <x v="20"/>
     <n v="0.09"/>
     <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="21"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="22"/>
+    <n v="0.4"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="23"/>
+    <n v="0.6"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="17"/>
+    <n v="0.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="18"/>
+    <n v="-0.14000000000000001"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.18"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="7"/>
+    <x v="24"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="25"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="14"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="26"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="0.3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="0.3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="0.3"/>
+    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAF7BE93-F9E8-8947-87E2-E18A326332D6}" name="数据透视表1" cacheId="155" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A28:L38" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAF7BE93-F9E8-8947-87E2-E18A326332D6}" name="数据透视表1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A28:M39" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0">
       <items count="2">
@@ -41156,12 +41434,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -41300,56 +41579,71 @@
       </items>
     </pivotField>
     <pivotField compact="0" numFmtId="20" outline="0" showAll="0">
-      <items count="8">
+      <items count="10">
         <item x="0"/>
+        <item x="8"/>
         <item x="1"/>
         <item x="5"/>
         <item x="3"/>
         <item x="4"/>
         <item x="2"/>
+        <item x="7"/>
         <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0">
-      <items count="23">
+      <items count="31">
+        <item x="23"/>
+        <item x="24"/>
         <item x="12"/>
         <item x="4"/>
-        <item x="18"/>
+        <item x="17"/>
         <item x="15"/>
         <item x="8"/>
         <item x="14"/>
         <item x="13"/>
+        <item m="1" x="29"/>
+        <item x="9"/>
         <item x="7"/>
-        <item x="9"/>
-        <item x="17"/>
+        <item x="16"/>
         <item x="6"/>
+        <item x="22"/>
         <item x="1"/>
         <item x="5"/>
+        <item x="21"/>
         <item x="2"/>
         <item x="0"/>
         <item x="11"/>
+        <item m="1" x="28"/>
+        <item m="1" x="27"/>
+        <item x="10"/>
+        <item x="26"/>
         <item x="19"/>
-        <item x="16"/>
-        <item x="10"/>
+        <item x="25"/>
         <item x="20"/>
-        <item x="21"/>
+        <item x="18"/>
         <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0">
-      <items count="11">
+      <items count="16">
+        <item x="8"/>
+        <item x="12"/>
         <item x="6"/>
         <item x="5"/>
         <item x="1"/>
         <item x="3"/>
+        <item x="10"/>
         <item x="2"/>
+        <item x="13"/>
         <item x="9"/>
+        <item x="11"/>
         <item x="4"/>
         <item x="7"/>
-        <item x="8"/>
+        <item m="1" x="14"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -41420,7 +41714,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -41436,6 +41730,9 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -41446,7 +41743,7 @@
     <field x="12"/>
     <field x="6"/>
   </colFields>
-  <colItems count="11">
+  <colItems count="12">
     <i>
       <x v="1"/>
     </i>
@@ -41464,6 +41761,9 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i>
       <x v="19"/>
@@ -41503,13 +41803,15 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="7">
+      <items count="9">
         <i x="0" s="1"/>
+        <i x="8" s="1"/>
         <i x="1" s="1"/>
         <i x="5" s="1"/>
         <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="2" s="1"/>
+        <i x="7" s="1"/>
         <i x="6" s="1"/>
       </items>
     </tabular>
@@ -41526,6 +41828,7 @@
     <tabular pivotCacheId="624362989">
       <items count="26">
         <i x="11" s="1"/>
+        <i x="13" s="1"/>
         <i x="19" s="1"/>
         <i x="23" s="1"/>
         <i x="24" s="1"/>
@@ -41537,7 +41840,6 @@
         <i x="25" s="1" nd="1"/>
         <i x="1" s="1" nd="1"/>
         <i x="12" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
         <i x="14" s="1" nd="1"/>
         <i x="15" s="1" nd="1"/>
         <i x="16" s="1" nd="1"/>
@@ -41569,17 +41871,22 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="10">
+      <items count="15">
+        <i x="8" s="1"/>
+        <i x="12" s="1"/>
         <i x="6" s="1"/>
         <i x="5" s="1"/>
         <i x="1" s="1"/>
         <i x="3" s="1"/>
+        <i x="10" s="1"/>
         <i x="2" s="1"/>
+        <i x="13" s="1"/>
         <i x="9" s="1"/>
+        <i x="11" s="1"/>
         <i x="4" s="1"/>
         <i x="7" s="1"/>
-        <i x="8" s="1"/>
         <i x="0" s="1"/>
+        <i x="14" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -41654,12 +41961,13 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="5">
+      <items count="6">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
         <i x="4" s="1"/>
+        <i x="5" s="1"/>
       </items>
     </tabular>
   </data>
@@ -41751,7 +42059,9 @@
     <tabular pivotCacheId="624362989" showMissing="0">
       <items count="62">
         <i x="1" s="1"/>
+        <i x="21" s="1"/>
         <i x="31" s="1"/>
+        <i x="34" s="1"/>
         <i x="46" s="1"/>
         <i x="60" s="1"/>
         <i x="6" s="1"/>
@@ -41769,7 +42079,6 @@
         <i x="19" s="1" nd="1"/>
         <i x="20" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
-        <i x="21" s="1" nd="1"/>
         <i x="22" s="1" nd="1"/>
         <i x="23" s="1" nd="1"/>
         <i x="24" s="1" nd="1"/>
@@ -41782,7 +42091,6 @@
         <i x="3" s="1" nd="1"/>
         <i x="32" s="1" nd="1"/>
         <i x="33" s="1" nd="1"/>
-        <i x="34" s="1" nd="1"/>
         <i x="35" s="1" nd="1"/>
         <i x="36" s="1" nd="1"/>
         <i x="37" s="1" nd="1"/>
@@ -41830,29 +42138,37 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="22">
+      <items count="30">
+        <i x="23" s="1"/>
+        <i x="24" s="1"/>
         <i x="12" s="1"/>
         <i x="4" s="1"/>
-        <i x="18" s="1"/>
+        <i x="17" s="1"/>
         <i x="15" s="1"/>
         <i x="8" s="1"/>
         <i x="14" s="1"/>
         <i x="13" s="1"/>
+        <i x="9" s="1"/>
         <i x="7" s="1"/>
-        <i x="9" s="1"/>
-        <i x="17" s="1"/>
+        <i x="16" s="1"/>
         <i x="6" s="1"/>
+        <i x="22" s="1"/>
         <i x="1" s="1"/>
         <i x="5" s="1"/>
+        <i x="21" s="1"/>
         <i x="2" s="1"/>
         <i x="0" s="1"/>
         <i x="11" s="1"/>
+        <i x="10" s="1"/>
+        <i x="26" s="1"/>
         <i x="19" s="1"/>
-        <i x="16" s="1"/>
-        <i x="10" s="1"/>
+        <i x="25" s="1"/>
         <i x="20" s="1"/>
-        <i x="21" s="1"/>
+        <i x="18" s="1"/>
         <i x="3" s="1"/>
+        <i x="29" s="1" nd="1"/>
+        <i x="28" s="1" nd="1"/>
+        <i x="27" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -41869,6 +42185,7 @@
       <items count="26">
         <i x="1" s="1"/>
         <i x="11" s="1"/>
+        <i x="13" s="1"/>
         <i x="19" s="1"/>
         <i x="22" s="1"/>
         <i x="23" s="1"/>
@@ -41880,7 +42197,6 @@
         <i x="0" s="1" nd="1"/>
         <i x="25" s="1" nd="1"/>
         <i x="12" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
         <i x="14" s="1" nd="1"/>
         <i x="15" s="1" nd="1"/>
         <i x="16" s="1" nd="1"/>
@@ -41922,9 +42238,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:K58" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
-  <autoFilter ref="A4:K58" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:K58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:K74" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
+  <autoFilter ref="A4:K74" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K74">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
     <sortCondition ref="G5:G58"/>
@@ -42520,10 +42836,10 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4E7CE900-22DD-714B-B734-45A4D027E774}" name="日期" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{7A3991ED-B9BD-9843-8E68-4D51B39BE365}" name="开始时刻" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{2C2C1B2B-89D6-D44B-A509-EE45B2D14642}" name="结束时刻" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{2C2C1B2B-89D6-D44B-A509-EE45B2D14642}" name="结束时刻" dataDxfId="17">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2B17046A-E61E-F24D-828A-9679FCBE2963}" name="持续时间" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{2B17046A-E61E-F24D-828A-9679FCBE2963}" name="持续时间" dataDxfId="16">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{75058C96-0182-D244-80D9-0BA9B15DBE1A}" name="得分">
@@ -42543,14 +42859,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5E103895-A410-B44F-A0FD-679C7AE85807}" name="表31_24" displayName="表31_24" ref="A2:H10" totalsRowShown="0">
   <autoFilter ref="A2:H10" xr:uid="{6223C41C-E09C-5647-9085-4FB0A0D87DF6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{08DDE9E8-C3CA-564D-96B2-42423AC6ECAD}" name="日期" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{0E12D098-272F-A34E-81B5-FD12721FBCCC}" name="开始时刻" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{08DDE9E8-C3CA-564D-96B2-42423AC6ECAD}" name="日期" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{0E12D098-272F-A34E-81B5-FD12721FBCCC}" name="开始时刻" dataDxfId="14">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3097AD64-9998-934C-B24E-1B3BFD76821C}" name="结束时刻" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{3097AD64-9998-934C-B24E-1B3BFD76821C}" name="结束时刻" dataDxfId="13">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02D01728-6FAF-1040-A7AC-D8FC877EC5FF}" name="持续时间" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{02D01728-6FAF-1040-A7AC-D8FC877EC5FF}" name="持续时间" dataDxfId="12">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6BE882FF-E7A6-7146-B199-C5B245C99458}" name="得分">
@@ -42570,14 +42886,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{2F627844-7667-424A-BDED-6098ED2EAAA1}" name="表31_33" displayName="表31_33" ref="A2:H13" totalsRowShown="0">
   <autoFilter ref="A2:H13" xr:uid="{02CB6C5F-CAC1-D347-893E-438E30C15643}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{093C3A35-27EC-0247-8DB2-BE3564B083B5}" name="日期" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{66D3BBCE-C0C5-154D-96FE-244EA2FEF793}" name="开始时刻" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{093C3A35-27EC-0247-8DB2-BE3564B083B5}" name="日期" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{66D3BBCE-C0C5-154D-96FE-244EA2FEF793}" name="开始时刻" dataDxfId="10">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{55504D32-5D8C-B04A-ABF4-053B16221586}" name="结束时刻" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{55504D32-5D8C-B04A-ABF4-053B16221586}" name="结束时刻" dataDxfId="9">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1B8E44D3-7FC2-5F40-98AF-D90112745CFB}" name="持续时间" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{1B8E44D3-7FC2-5F40-98AF-D90112745CFB}" name="持续时间" dataDxfId="8">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{D7F2474D-3322-2945-A8A3-0ACCEDE596A4}" name="得分">
@@ -42597,8 +42913,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{B8DB747F-8DCB-B248-93AD-368C58B147FF}" name="表31_34" displayName="表31_34" ref="A2:H13" totalsRowShown="0">
   <autoFilter ref="A2:H13" xr:uid="{640EBBDD-4252-F44C-87AC-0086FBD145B5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8CD79330-2DA6-7C44-9E1C-DEABB7DCD8F0}" name="日期" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{3183B1FE-B760-774A-960B-211746DC187A}" name="开始时刻" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{8CD79330-2DA6-7C44-9E1C-DEABB7DCD8F0}" name="日期" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3183B1FE-B760-774A-960B-211746DC187A}" name="开始时刻" dataDxfId="6">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{52009FEB-D423-284E-878D-7363AA2407EB}" name="结束时刻" dataDxfId="5">
@@ -43079,10 +43395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43098,55 +43414,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="23" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="23" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="18">
       <c r="A4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>63</v>
@@ -43155,13 +43471,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>4</v>
@@ -44355,7 +44671,9 @@
       <c r="J34" s="2">
         <v>0.2</v>
       </c>
-      <c r="K34" s="10"/>
+      <c r="K34" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="str">
@@ -44393,7 +44711,9 @@
       <c r="J35" s="2">
         <v>0.2</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="str">
@@ -44431,7 +44751,9 @@
       <c r="J36" s="2">
         <v>0.2</v>
       </c>
-      <c r="K36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="str">
@@ -44887,14 +45209,14 @@
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
         <v>0.99930555555555556</v>
       </c>
-      <c r="I48" s="14" t="s">
-        <v>104</v>
+      <c r="I48" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="J48" s="2">
         <v>-0.43</v>
       </c>
-      <c r="K48" s="10" t="s">
-        <v>103</v>
+      <c r="K48" s="24">
+        <v>0.57369999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -45288,6 +45610,643 @@
       <c r="K58" s="10" t="s">
         <v>99</v>
       </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B59" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C59" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D59" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E59" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="H59" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11" ht="18">
+      <c r="A60" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B60" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C60" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D60" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E60" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="H60" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="18">
+      <c r="A61" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B61" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C61" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D61" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E61" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="H61" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B62" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C62" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D62" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E62" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F62" s="9">
+        <v>0</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="H62" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B63" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C63" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D63" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E63" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="H63" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J63" s="2">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K63" s="24">
+        <v>0.85880000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B64" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C64" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D64" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E64" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H64" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B65" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C65" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D65" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E65" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="H65" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B66" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C66" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D66" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E66" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H66" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B67" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C67" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D67" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E67" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H67" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B68" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C68" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D68" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E68" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F68" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G68" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H68" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B69" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C69" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D69" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E69" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F69" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="H69" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B70" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C70" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D70" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E70" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F70" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G70" s="22">
+        <v>0.53125</v>
+      </c>
+      <c r="H70" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B71" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C71" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D71" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E71" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F71" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H71" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B72" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C72" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D72" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E72" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F72" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="H72" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B73" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C73" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D73" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E73" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="H73" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B74" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C74" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D74" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E74" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H74" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="10"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -45307,7 +46266,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -45321,29 +46280,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -45525,25 +46484,33 @@
       <c r="A8" s="6">
         <v>43889</v>
       </c>
-      <c r="B8" s="18" t="str">
+      <c r="B8" s="18">
         <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="18" t="str">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C8" s="18">
         <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="18" t="str">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D8" s="18">
         <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E8">
         <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.2</v>
       </c>
       <c r="F8" t="str">
         <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
         <v/>
+      </c>
+      <c r="G8">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G7+1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H7+1,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -45570,6 +46537,14 @@
         <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
         <v/>
       </c>
+      <c r="G9" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G8+1,0))</f>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H8+1,0))</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6">
@@ -45593,6 +46568,14 @@
       </c>
       <c r="F10" t="str">
         <f t="array" ref="F10">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G9+1,0))</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H9+1,0))</f>
         <v/>
       </c>
     </row>
@@ -45613,7 +46596,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -45627,29 +46610,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -45831,33 +46814,33 @@
       <c r="A8" s="6">
         <v>43889</v>
       </c>
-      <c r="B8" s="18" t="str">
+      <c r="B8" s="18">
         <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="18" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="C8" s="18">
         <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="18" t="str">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D8" s="18">
         <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E8">
         <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="F8" t="str">
         <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G8" t="str">
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G8">
         <f>IF(表31_33[[#This Row],[得分]]="","",IF(表31_33[[#This Row],[得分]]&gt;0,G7+1,0))</f>
-        <v/>
-      </c>
-      <c r="H8" t="str">
+        <v>6</v>
+      </c>
+      <c r="H8">
         <f>IF(表31_33[[#This Row],[得分]]="","",IF(表31_33[[#This Row],[得分]]&lt;0,H7+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -46056,29 +47039,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -46177,7 +47160,7 @@
       </c>
       <c r="F5" t="str">
         <f t="array" ref="F5">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
+        <v>已连续3天，增加0.1</v>
       </c>
       <c r="G5">
         <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G4+1,0))</f>
@@ -46258,33 +47241,33 @@
       <c r="A8" s="6">
         <v>43889</v>
       </c>
-      <c r="B8" s="18" t="str">
+      <c r="B8" s="18">
         <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="18" t="str">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C8" s="18">
         <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="18" t="str">
+        <v>0.9375</v>
+      </c>
+      <c r="D8" s="18">
         <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E8">
         <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="F8" t="str">
         <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G8" t="str">
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G8">
         <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G7+1,0))</f>
-        <v/>
-      </c>
-      <c r="H8" t="str">
+        <v>4</v>
+      </c>
+      <c r="H8">
         <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H7+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -46468,36 +47451,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A0388C-D189-614E-8D10-ABABCA3EBD3F}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -46598,7 +47581,7 @@
       </c>
       <c r="F5" t="str">
         <f t="array" ref="F5">IFERROR(INDEX(records[备注],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
+        <v>已连续3天，增加0.1</v>
       </c>
       <c r="G5">
         <f>IF(表31_3435[[#This Row],[得分]]="","",IF(表31_3435[[#This Row],[得分]]&gt;0,G4+1,0))</f>
@@ -46679,33 +47662,33 @@
       <c r="A8" s="6">
         <v>43889</v>
       </c>
-      <c r="B8" s="18" t="str">
+      <c r="B8" s="18">
         <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="18" t="str">
+        <v>0.9375</v>
+      </c>
+      <c r="C8" s="18">
         <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="18" t="str">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D8" s="18">
         <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E8">
         <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="F8" t="str">
         <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G8" t="str">
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G8">
         <f>IF(表31_3435[[#This Row],[得分]]="","",IF(表31_3435[[#This Row],[得分]]&gt;0,G7+1,0))</f>
-        <v/>
-      </c>
-      <c r="H8" t="str">
+        <v>6</v>
+      </c>
+      <c r="H8">
         <f>IF(表31_3435[[#This Row],[得分]]="","",IF(表31_3435[[#This Row],[得分]]&lt;0,H7+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -46887,18 +47870,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B2F5E1-8034-CB43-9A05-FB941B83E585}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.6640625" bestFit="1" customWidth="1"/>
@@ -46938,103 +47921,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="A1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="E28" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>112</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>113</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" t="s">
         <v>114</v>
       </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>115</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>116</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>117</v>
       </c>
-      <c r="J29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" t="s">
-        <v>109</v>
+      <c r="M29" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="6">
         <v>43884</v>
       </c>
@@ -47049,18 +48035,19 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="19">
+      <c r="I33" s="19"/>
+      <c r="J33" s="19">
         <v>0.1</v>
       </c>
-      <c r="J33" s="19">
+      <c r="K33" s="19">
         <v>0.08</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19">
+      <c r="L33" s="19"/>
+      <c r="M33" s="19">
         <v>-0.22000000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="6">
         <v>43885</v>
       </c>
@@ -47077,18 +48064,19 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="19">
+      <c r="I34" s="19"/>
+      <c r="J34" s="19">
         <v>0.1</v>
       </c>
-      <c r="J34" s="19">
-        <v>0</v>
-      </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19">
+      <c r="K34" s="19">
+        <v>0</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19">
         <v>-0.42000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="6">
         <v>43886</v>
       </c>
@@ -47108,21 +48096,22 @@
       <c r="G35" s="19">
         <v>0.1</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="19"/>
+      <c r="I35" s="19">
         <v>0.1</v>
       </c>
-      <c r="I35" s="19">
+      <c r="J35" s="19">
         <v>0.2</v>
       </c>
-      <c r="J35" s="19">
+      <c r="K35" s="19">
         <v>0.60000000000000009</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19">
         <v>1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="6">
         <v>43887</v>
       </c>
@@ -47141,18 +48130,19 @@
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="19">
+      <c r="I36" s="19"/>
+      <c r="J36" s="19">
         <v>0.2</v>
       </c>
-      <c r="J36" s="19">
+      <c r="K36" s="19">
         <v>0.60000000000000009</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19">
+      <c r="L36" s="19"/>
+      <c r="M36" s="19">
         <v>2.9000000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="6">
         <v>43888</v>
       </c>
@@ -47169,55 +48159,92 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="19">
+      <c r="I37" s="19"/>
+      <c r="J37" s="19">
         <v>0.2</v>
       </c>
-      <c r="J37" s="19">
+      <c r="K37" s="19">
         <v>0.60000000000000009</v>
       </c>
-      <c r="K37" s="19">
+      <c r="L37" s="19">
         <v>0.18</v>
       </c>
-      <c r="L37" s="19">
+      <c r="M37" s="19">
         <v>1.36</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="6" t="s">
-        <v>109</v>
+    <row r="38" spans="1:13">
+      <c r="A38" s="6">
+        <v>43889</v>
       </c>
       <c r="B38" s="19">
-        <v>0.66000000000000014</v>
+        <v>1.56</v>
       </c>
       <c r="C38" s="19">
-        <v>0.40000000000000013</v>
+        <v>0.4</v>
       </c>
       <c r="D38" s="19">
-        <v>9.9999999999999978E-2</v>
+        <v>0.38</v>
       </c>
       <c r="E38" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="F38" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19">
         <v>0.2</v>
       </c>
-      <c r="G38" s="19">
+      <c r="I38" s="19"/>
+      <c r="J38" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="E39" s="19">
+        <v>1</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G39" s="19">
         <v>0.1</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H39" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="19">
         <v>0.1</v>
       </c>
-      <c r="I38" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="J38" s="19">
-        <v>1.8800000000000003</v>
-      </c>
-      <c r="K38" s="19">
+      <c r="J39" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K39" s="19">
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="L39" s="19">
         <v>0.18</v>
       </c>
-      <c r="L38" s="19">
-        <v>5.3200000000000012</v>
+      <c r="M39" s="19">
+        <v>9.16</v>
       </c>
     </row>
   </sheetData>
@@ -47256,48 +48283,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AE1" s="23" t="s">
+      <c r="D1" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AE1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
     </row>
     <row r="2" spans="1:37" ht="18">
       <c r="A2" s="1" t="s">
@@ -47419,130 +48446,130 @@
         <v>43884</v>
       </c>
       <c r="E3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!E2,'records'!F5:F58, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!F2,'records'!F5:F58, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!G2,'records'!F5:F58, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!H2,'records'!F5:F58, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!I2,'records'!F5:F58, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!J2,'records'!F5:F58, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!K2,'records'!F5:F58, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="L3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!L2,'records'!F5:F58, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
         <v>-0.1</v>
       </c>
       <c r="M3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!M2,'records'!F5:F58, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!N2,'records'!F5:F58, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!O2,'records'!F5:F58, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!P2,'records'!F5:F58, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!Q2,'records'!F5:F58, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!R2,'records'!F5:F58, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!S2,'records'!F5:F58, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!T2,'records'!F5:F58, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!U2,'records'!F5:F58, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!V2,'records'!F5:F58, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!W2,'records'!F5:F58, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!X2,'records'!F5:F58, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!Y2,'records'!F5:F58, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!Z2,'records'!F5:F58, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
         <v>0.1</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!AA2,'records'!F5:F58, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
         <v>0.08</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58, "&gt;=" &amp; day!AB2,'records'!F5:F58, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D3, 'records'!F5:F58,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
         <v>43884</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A3, 'records'!I5:I58, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AF2)</f>
         <v>-0.1</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A3, 'records'!I5:I58, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AG2)</f>
         <v>-0.1</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A3, 'records'!I5:I58, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A3, 'records'!I5:I58, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AI2)</f>
         <v>0.1</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A3, 'records'!I5:I58, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AJ2)</f>
         <v>0.1</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A3, 'records'!I5:I58, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AK2)</f>
         <v>0.08</v>
       </c>
     </row>
@@ -47559,130 +48586,130 @@
         <v>43885</v>
       </c>
       <c r="E4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!E2,'records'!F5:F58, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
         <v>0.18</v>
       </c>
       <c r="F4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!F2,'records'!F5:F58, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!G2,'records'!F5:F58, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!H2,'records'!F5:F58, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!I2,'records'!F5:F58, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!J2,'records'!F5:F58, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!K2,'records'!F5:F58, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
         <v>-0.5</v>
       </c>
       <c r="L4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!L2,'records'!F5:F58, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
         <v>-0.2</v>
       </c>
       <c r="M4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!M2,'records'!F5:F58, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!N2,'records'!F5:F58, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!O2,'records'!F5:F58, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!P2,'records'!F5:F58, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!Q2,'records'!F5:F58, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!R2,'records'!F5:F58, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!S2,'records'!F5:F58, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!T2,'records'!F5:F58, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!U2,'records'!F5:F58, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!V2,'records'!F5:F58, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!W2,'records'!F5:F58, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!X2,'records'!F5:F58, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!Y2,'records'!F5:F58, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!Z2,'records'!F5:F58, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
         <v>0.1</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!AA2,'records'!F5:F58, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58, "&gt;=" &amp; day!AB2,'records'!F5:F58, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D4, 'records'!F5:F58,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="6">
         <v>43885</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A4, 'records'!I5:I58, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AF2)</f>
         <v>-0.2</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A4, 'records'!I5:I58, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AG2)</f>
         <v>-0.2</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A4, 'records'!I5:I58, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A4, 'records'!I5:I58, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AI2)</f>
         <v>0.1</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A4, 'records'!I5:I58, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AJ2)</f>
         <v>0.1</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A4, 'records'!I5:I58, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AK2)</f>
         <v>0.1</v>
       </c>
     </row>
@@ -47699,130 +48726,130 @@
         <v>43886</v>
       </c>
       <c r="E5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!E2,'records'!F5:F58, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!F2,'records'!F5:F58, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!G2,'records'!F5:F58, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!H2,'records'!F5:F58, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!I2,'records'!F5:F58, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!J2,'records'!F5:F58, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!K2,'records'!F5:F58, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="L5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!L2,'records'!F5:F58, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
         <v>0.1</v>
       </c>
       <c r="M5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!M2,'records'!F5:F58, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
         <v>0.1</v>
       </c>
       <c r="N5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!N2,'records'!F5:F58, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
         <v>0.2</v>
       </c>
       <c r="O5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!O2,'records'!F5:F58, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
         <v>0.1</v>
       </c>
       <c r="P5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!P2,'records'!F5:F58, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!Q2,'records'!F5:F58, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!R2,'records'!F5:F58, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!S2,'records'!F5:F58, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!T2,'records'!F5:F58, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!U2,'records'!F5:F58, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!V2,'records'!F5:F58, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!W2,'records'!F5:F58, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
         <v>0.1</v>
       </c>
       <c r="X5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!X2,'records'!F5:F58, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!Y2,'records'!F5:F58, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!Z2,'records'!F5:F58, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!AA2,'records'!F5:F58, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58, "&gt;=" &amp; day!AB2,'records'!F5:F58, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D5, 'records'!F5:F58,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="6">
         <v>43886</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A5, 'records'!I5:I58, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AF2)</f>
         <v>0.1</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A5, 'records'!I5:I58, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AG2)</f>
         <v>0.1</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A5, 'records'!I5:I58, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A5, 'records'!I5:I58, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A5, 'records'!I5:I58, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A5, 'records'!I5:I58, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -47839,130 +48866,130 @@
         <v>43887</v>
       </c>
       <c r="E6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!E2,'records'!F5:F58, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
         <v>0.9</v>
       </c>
       <c r="F6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!F2,'records'!F5:F58, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!G2,'records'!F5:F58, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!H2,'records'!F5:F58, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!I2,'records'!F5:F58, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!J2,'records'!F5:F58, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!K2,'records'!F5:F58, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="L6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!L2,'records'!F5:F58, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
         <v>0.1</v>
       </c>
       <c r="M6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!M2,'records'!F5:F58, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
         <v>0.8</v>
       </c>
       <c r="N6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!N2,'records'!F5:F58, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!O2,'records'!F5:F58, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!P2,'records'!F5:F58, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!Q2,'records'!F5:F58, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!R2,'records'!F5:F58, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!S2,'records'!F5:F58, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!T2,'records'!F5:F58, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!U2,'records'!F5:F58, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!V2,'records'!F5:F58, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!W2,'records'!F5:F58, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!X2,'records'!F5:F58, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!Y2,'records'!F5:F58, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!Z2,'records'!F5:F58, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!AA2,'records'!F5:F58, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58, "&gt;=" &amp; day!AB2,'records'!F5:F58, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D6, 'records'!F5:F58,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="6">
         <v>43887</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A6, 'records'!I5:I58, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AF2)</f>
         <v>0.1</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A6, 'records'!I5:I58, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AG2)</f>
         <v>0.1</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A6, 'records'!I5:I58, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A6, 'records'!I5:I58, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A6, 'records'!I5:I58, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A6, 'records'!I5:I58, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -47979,130 +49006,130 @@
         <v>43888</v>
       </c>
       <c r="E7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!E2,'records'!F5:F58, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
         <v>-0.42</v>
       </c>
       <c r="F7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!F2,'records'!F5:F58, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!G2,'records'!F5:F58, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!H2,'records'!F5:F58, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!I2,'records'!F5:F58, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!J2,'records'!F5:F58, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!K2,'records'!F5:F58, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="L7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!L2,'records'!F5:F58, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
         <v>0.2</v>
       </c>
       <c r="M7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!M2,'records'!F5:F58, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!N2,'records'!F5:F58, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!O2,'records'!F5:F58, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!P2,'records'!F5:F58, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!Q2,'records'!F5:F58, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!R2,'records'!F5:F58, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!S2,'records'!F5:F58, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!T2,'records'!F5:F58, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!U2,'records'!F5:F58, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!V2,'records'!F5:F58, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!W2,'records'!F5:F58, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!X2,'records'!F5:F58, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!Y2,'records'!F5:F58, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!Z2,'records'!F5:F58, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!AA2,'records'!F5:F58, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58, "&gt;=" &amp; day!AB2,'records'!F5:F58, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D7, 'records'!F5:F58,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74,day!AC2)</f>
         <v>0.18</v>
       </c>
       <c r="AE7" s="6">
         <v>43888</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A7, 'records'!I5:I58, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AF2)</f>
         <v>0.2</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A7, 'records'!I5:I58, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AG2)</f>
         <v>0.2</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A7, 'records'!I5:I58, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A7, 'records'!I5:I58, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A7, 'records'!I5:I58, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A7, 'records'!I5:I58, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -48112,138 +49139,138 @@
       </c>
       <c r="B8">
         <f>SUMIF(records[日期],表6_11[[#This Row],[日期]],records[得分])</f>
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>43889</v>
       </c>
       <c r="E8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!E2,'records'!F5:F58, "&lt;" &amp; day!F2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
+        <v>1.56</v>
       </c>
       <c r="F8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!F2,'records'!F5:F58, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!G2,'records'!F5:F58, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!H2,'records'!F5:F58, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!I2,'records'!F5:F58, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!J2,'records'!F5:F58, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!K2,'records'!F5:F58, "&lt;" &amp; day!L2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
+        <v>0.4</v>
       </c>
       <c r="L8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!L2,'records'!F5:F58, "&lt;" &amp; day!M2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
+        <v>0.38</v>
       </c>
       <c r="M8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!M2,'records'!F5:F58, "&lt;" &amp; day!N2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
+        <v>0.1</v>
       </c>
       <c r="N8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!N2,'records'!F5:F58, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!O2,'records'!F5:F58, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!P2,'records'!F5:F58, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!Q2,'records'!F5:F58, "&lt;" &amp; day!R2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
+        <v>0.2</v>
       </c>
       <c r="R8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!R2,'records'!F5:F58, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!S2,'records'!F5:F58, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!T2,'records'!F5:F58, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!U2,'records'!F5:F58, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!V2,'records'!F5:F58, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!W2,'records'!F5:F58, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!X2,'records'!F5:F58, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!Y2,'records'!F5:F58, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!Z2,'records'!F5:F58, "&lt;" &amp; day!AA2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
+        <v>0.3</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!AA2,'records'!F5:F58, "&lt;" &amp; day!AB2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58, "&gt;=" &amp; day!AB2,'records'!F5:F58, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D8, 'records'!F5:F58,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="6">
         <v>43889</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A8, 'records'!I5:I58, day!AF2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AF2)</f>
+        <v>0.2</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A8, 'records'!I5:I58, day!AG2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AG2)</f>
+        <v>0.2</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A8, 'records'!I5:I58, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A8, 'records'!I5:I58, day!AI2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AI2)</f>
+        <v>0.3</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A8, 'records'!I5:I58, day!AJ2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AJ2)</f>
+        <v>0.3</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A8, 'records'!I5:I58, day!AK2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AK2)</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -48259,130 +49286,130 @@
         <v>43890</v>
       </c>
       <c r="E9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!E2,'records'!F5:F58, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!F2,'records'!F5:F58, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!G2,'records'!F5:F58, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!H2,'records'!F5:F58, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!I2,'records'!F5:F58, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!J2,'records'!F5:F58, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!K2,'records'!F5:F58, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!L2,'records'!F5:F58, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!M2,'records'!F5:F58, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!N2,'records'!F5:F58, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!O2,'records'!F5:F58, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!P2,'records'!F5:F58, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!Q2,'records'!F5:F58, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!R2,'records'!F5:F58, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!S2,'records'!F5:F58, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!T2,'records'!F5:F58, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!U2,'records'!F5:F58, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!V2,'records'!F5:F58, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!W2,'records'!F5:F58, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!X2,'records'!F5:F58, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!Y2,'records'!F5:F58, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!Z2,'records'!F5:F58, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
         <v>0</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!AA2,'records'!F5:F58, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
         <v>0</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58, "&gt;=" &amp; day!AB2,'records'!F5:F58, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!D9, 'records'!F5:F58,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="6">
         <v>43890</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A9, 'records'!I5:I58, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AF2)</f>
         <v>0</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A9, 'records'!I5:I58, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AG2)</f>
         <v>0</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A9, 'records'!I5:I58, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A9, 'records'!I5:I58, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AI2)</f>
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A9, 'records'!I5:I58, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AJ2)</f>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS('records'!J5:J58,'records'!E5:E58,day!A9, 'records'!I5:I58, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AK2)</f>
         <v>0</v>
       </c>
     </row>
@@ -48522,47 +49549,47 @@
       <c r="AE36" s="6"/>
     </row>
     <row r="38" spans="1:37" ht="21">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="D38" s="24" t="s">
+      <c r="B38" s="29"/>
+      <c r="D38" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AE38" s="23" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AE38" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="23"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="23"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="27"/>
     </row>
     <row r="39" spans="1:37" ht="18">
       <c r="A39" s="1" t="s">
@@ -49461,53 +50488,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AI1" s="23" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AI1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="18">
       <c r="A2" s="11" t="s">
@@ -50156,53 +51183,53 @@
       <c r="AK9" s="6"/>
     </row>
     <row r="33" spans="1:43" ht="21">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="F33" s="24" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="F33" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AI33" s="23" t="s">
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AI33" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23"/>
-      <c r="AN33" s="23"/>
-      <c r="AO33" s="23"/>
-      <c r="AP33" s="23"/>
-      <c r="AQ33" s="23"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
     </row>
     <row r="34" spans="1:43" ht="18">
       <c r="A34" s="11" t="s">
@@ -50804,53 +51831,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AI1" s="23" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AI1" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="18">
       <c r="A2" s="11" t="s">
@@ -51470,53 +52497,53 @@
       </c>
     </row>
     <row r="33" spans="1:43" ht="21">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="F33" s="24" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="F33" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AI33" s="23" t="s">
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AI33" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23"/>
-      <c r="AN33" s="23"/>
-      <c r="AO33" s="23"/>
-      <c r="AP33" s="23"/>
-      <c r="AQ33" s="23"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
     </row>
     <row r="34" spans="1:43" ht="18">
       <c r="A34" s="11" t="s">
@@ -52102,53 +53129,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="21">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AI1" s="23" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AI1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="18">
       <c r="A2" s="11" t="s">
@@ -52525,53 +53552,53 @@
       <c r="AQ5" s="7"/>
     </row>
     <row r="31" spans="1:43" ht="21">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="F31" s="24" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="F31" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AI31" s="23" t="s">
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="28"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="28"/>
+      <c r="AI31" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AJ31" s="23"/>
-      <c r="AK31" s="23"/>
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="23"/>
-      <c r="AN31" s="23"/>
-      <c r="AO31" s="23"/>
-      <c r="AP31" s="23"/>
-      <c r="AQ31" s="23"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
     </row>
     <row r="32" spans="1:43" ht="18">
       <c r="A32" s="11" t="s">
@@ -52862,10 +53889,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="16" t="s">
@@ -52885,11 +53912,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="18">
       <c r="A6" s="1" t="s">
@@ -52915,11 +53942,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="18">
       <c r="A10" s="1" t="s">
@@ -52945,12 +53972,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" ht="18">
       <c r="A14" s="1" t="s">
@@ -53024,7 +54051,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -53038,29 +54065,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26">
-      <c r="A1" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -53272,22 +54299,33 @@
       <c r="A8" s="6">
         <v>43889</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18" t="str">
+      <c r="B8" s="18">
+        <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="18">
         <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="18" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="18">
         <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.2</v>
       </c>
       <c r="F8" t="str">
         <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0))&amp;"","")</f>
         <v/>
+      </c>
+      <c r="G8">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&gt;0,G7+1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&lt;0,H7+1,0))</f>
+        <v>0</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
@@ -53299,7 +54337,10 @@
       <c r="A9" s="6">
         <v>43890</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="18" t="str">
+        <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
       <c r="C9" s="18" t="str">
         <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
         <v/>
@@ -53314,6 +54355,14 @@
       </c>
       <c r="F9" t="str">
         <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&gt;0,G8+1,0))</f>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&lt;0,H8+1,0))</f>
         <v/>
       </c>
       <c r="O9" s="8"/>
@@ -53326,7 +54375,10 @@
       <c r="A10" s="6">
         <v>43891</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="18" t="str">
+        <f t="array" ref="B10">IFERROR(INDEX(records[开始时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
       <c r="C10" s="18" t="str">
         <f t="array" ref="C10">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
         <v/>
@@ -53341,6 +54393,14 @@
       </c>
       <c r="F10" t="str">
         <f t="array" ref="F10">IFERROR(INDEX(records[备注],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&gt;0,G9+1,0))</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&lt;0,H9+1,0))</f>
         <v/>
       </c>
       <c r="O10" s="8"/>

--- a/source/excel/Score.xlsx
+++ b/source/excel/Score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F17CD7C-B1BD-294B-BC09-3272AD376A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3034DA31-C53B-1447-9FE2-EAF194255A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <sheet name="search" sheetId="5" r:id="rId7"/>
     <sheet name="charts" sheetId="13" r:id="rId8"/>
     <sheet name="getupearly" sheetId="14" r:id="rId9"/>
-    <sheet name="reading" sheetId="19" r:id="rId10"/>
-    <sheet name="exercise" sheetId="15" r:id="rId11"/>
-    <sheet name="bath" sheetId="16" r:id="rId12"/>
-    <sheet name="schedule" sheetId="20" r:id="rId13"/>
+    <sheet name="breakfast" sheetId="21" r:id="rId10"/>
+    <sheet name="reading" sheetId="19" r:id="rId11"/>
+    <sheet name="exercise" sheetId="15" r:id="rId12"/>
+    <sheet name="bath" sheetId="16" r:id="rId13"/>
+    <sheet name="schedule" sheetId="20" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="切片器_备注">#N/A</definedName>
@@ -43,12 +44,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId14"/>
+    <pivotCache cacheId="25" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId15"/>
         <x14:slicerCache r:id="rId16"/>
         <x14:slicerCache r:id="rId17"/>
         <x14:slicerCache r:id="rId18"/>
@@ -60,6 +60,7 @@
         <x14:slicerCache r:id="rId24"/>
         <x14:slicerCache r:id="rId25"/>
         <x14:slicerCache r:id="rId26"/>
+        <x14:slicerCache r:id="rId27"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="156">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,6 +654,54 @@
   <si>
     <t>12时</t>
   </si>
+  <si>
+    <t>早餐记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度：100%，效率：70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经拖了两天了，扣0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加【早餐】打卡表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客主页隐藏指定博文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总2019年收支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日日程安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上才洗的，没洗午休枕，完成度：60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -976,7 +1025,31 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="216">
+  <dxfs count="224">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
@@ -20757,7 +20830,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -20835,7 +20908,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>193669</xdr:rowOff>
     </xdr:to>
@@ -40135,7 +40208,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gzhennaxia@163.com" refreshedDate="43889.97066875" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="70" xr:uid="{9C136832-FF93-3F47-9AFE-E34173B60C69}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gzhennaxia@163.com" refreshedDate="43891.007362962962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="90" xr:uid="{9C136832-FF93-3F47-9AFE-E34173B60C69}">
   <cacheSource type="worksheet">
     <worksheetSource name="records"/>
   </cacheSource>
@@ -40162,20 +40235,22 @@
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-23T00:00:00" maxDate="2020-02-29T00:00:00" count="6">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-23T00:00:00" maxDate="2020-03-01T00:00:00" count="7">
         <d v="2020-02-23T00:00:00"/>
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
         <d v="2020-02-27T00:00:00"/>
         <d v="2020-02-28T00:00:00"/>
+        <d v="2020-02-29T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="开始时刻" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:59:00" count="15">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:59:00" count="17">
         <d v="1899-12-30T06:00:00"/>
         <d v="1899-12-30T06:05:00"/>
         <d v="1899-12-30T07:15:00"/>
+        <d v="1899-12-30T07:45:00"/>
         <d v="1899-12-30T21:00:00"/>
         <d v="1899-12-30T22:00:00"/>
         <d v="1899-12-30T22:30:00"/>
@@ -40188,6 +40263,7 @@
         <d v="1899-12-30T23:59:00"/>
         <d v="1899-12-30T08:30:00"/>
         <d v="1899-12-30T12:30:00"/>
+        <d v="1899-12-30T23:30:00"/>
       </sharedItems>
       <fieldGroup par="11" base="5">
         <rangePr groupBy="minutes" startDate="1899-12-30T00:00:00" endDate="1899-12-30T23:59:00"/>
@@ -40258,17 +40334,17 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="结束时刻" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T06:00:00" maxDate="1899-12-30T23:59:00" count="17">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T06:00:00" maxDate="1899-12-30T23:59:00" count="21">
         <d v="1899-12-30T06:00:00"/>
         <d v="1899-12-30T06:05:00"/>
         <d v="1899-12-30T07:08:00"/>
         <d v="1899-12-30T07:45:00"/>
+        <d v="1899-12-30T08:00:00"/>
         <d v="1899-12-30T22:00:00"/>
         <d v="1899-12-30T22:30:00"/>
         <d v="1899-12-30T22:45:00"/>
         <d v="1899-12-30T23:00:00"/>
         <d v="1899-12-30T23:59:00"/>
-        <d v="1899-12-30T08:00:00"/>
         <d v="1899-12-30T09:00:00"/>
         <d v="1899-12-30T10:30:00"/>
         <d v="1899-12-30T18:30:00"/>
@@ -40276,6 +40352,10 @@
         <d v="1899-12-30T12:30:00"/>
         <d v="1899-12-30T12:33:00"/>
         <d v="1899-12-30T12:45:00"/>
+        <d v="1899-12-30T20:00:00"/>
+        <d v="1899-12-30T22:05:00"/>
+        <d v="1899-12-30T22:50:00"/>
+        <d v="1899-12-30T23:50:00"/>
       </sharedItems>
       <fieldGroup par="12" base="6">
         <rangePr groupBy="minutes" startDate="1899-12-30T06:00:00" endDate="1899-12-30T23:59:00"/>
@@ -40346,24 +40426,27 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="持续时间" numFmtId="20">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00" count="9">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00" count="11">
         <d v="1899-12-30T00:00:00"/>
         <d v="1899-12-30T00:05:00"/>
         <d v="1899-12-30T01:03:00"/>
         <d v="1899-12-30T00:30:00"/>
+        <d v="1899-12-30T00:15:00"/>
         <d v="1899-12-30T01:00:00"/>
-        <d v="1899-12-30T00:15:00"/>
         <d v="1899-12-30T23:59:00"/>
         <d v="1899-12-30T04:00:00"/>
         <d v="1899-12-30T00:03:00"/>
+        <d v="1899-12-30T09:30:00"/>
+        <d v="1899-12-30T00:20:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="名称" numFmtId="0">
-      <sharedItems count="30">
+      <sharedItems count="35">
         <s v="早起"/>
         <s v="刷牙洗脸"/>
         <s v="阅读"/>
         <s v="做早餐"/>
+        <s v="吃早餐"/>
         <s v="锻炼"/>
         <s v="洗澡"/>
         <s v="日报"/>
@@ -40387,6 +40470,10 @@
         <s v="Score.xlsx的records中把时间列改成开始时间和结束时间列"/>
         <s v="制作阅读打卡Excel"/>
         <s v="制作明日日程安排打卡Excel"/>
+        <s v="汇总2019年收支"/>
+        <s v="博客主页隐藏指定博文"/>
+        <s v="洗衣服"/>
+        <s v="添加【早餐】打卡表"/>
         <s v="制定明日计划" u="1"/>
         <s v="整体情况" u="1"/>
         <s v="明日计划" u="1"/>
@@ -40396,7 +40483,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.43" maxValue="0.9"/>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.57369999999999999" maxValue="0.85880000000000001" count="15">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.57369999999999999" maxValue="0.85880000000000001" count="18">
         <m/>
         <s v="爸妈主动联系我了，没能主动联系父母，得一半的分数+0.05"/>
         <s v="列出了清单，但没能将价格信息标明白。完成度40%"/>
@@ -40411,7 +40498,10 @@
         <s v="未确定中断事件的被迫程度"/>
         <n v="0.85880000000000001"/>
         <s v="没按指定时间开始，扣除10%"/>
-        <s v="总体日程完成度57.37%" u="1"/>
+        <s v="已经拖了两天了，扣0.1"/>
+        <n v="0.66790000000000005"/>
+        <s v="完成度：100%，效率：70%"/>
+        <s v="晚上才洗的，没洗午休枕，完成度：60%"/>
       </sharedItems>
     </cacheField>
     <cacheField name="小时" numFmtId="0" databaseField="0">
@@ -40490,7 +40580,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="70">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="90">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -40553,7 +40643,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="0.1"/>
+    <n v="-0.1"/>
     <x v="0"/>
   </r>
   <r>
@@ -40564,9 +40654,9 @@
     <x v="0"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="3"/>
     <x v="5"/>
-    <n v="-0.1"/>
+    <x v="5"/>
+    <n v="0.1"/>
     <x v="0"/>
   </r>
   <r>
@@ -40577,9 +40667,9 @@
     <x v="0"/>
     <x v="5"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="6"/>
-    <n v="0.1"/>
+    <n v="-0.1"/>
     <x v="0"/>
   </r>
   <r>
@@ -40590,8 +40680,21 @@
     <x v="0"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="5"/>
+    <x v="4"/>
     <x v="7"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="8"/>
     <n v="0.08"/>
     <x v="0"/>
   </r>
@@ -40601,10 +40704,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="8"/>
+    <x v="9"/>
     <n v="0.05"/>
     <x v="1"/>
   </r>
@@ -40614,10 +40717,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="9"/>
+    <x v="10"/>
     <n v="0.04"/>
     <x v="2"/>
   </r>
@@ -40627,10 +40730,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="10"/>
+    <x v="11"/>
     <n v="0.09"/>
     <x v="3"/>
   </r>
@@ -40696,7 +40799,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="0.1"/>
+    <n v="-0.2"/>
     <x v="0"/>
   </r>
   <r>
@@ -40707,9 +40810,9 @@
     <x v="1"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="3"/>
     <x v="5"/>
-    <n v="-0.2"/>
+    <x v="5"/>
+    <n v="0.1"/>
     <x v="0"/>
   </r>
   <r>
@@ -40720,9 +40823,9 @@
     <x v="1"/>
     <x v="5"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="3"/>
     <x v="6"/>
-    <n v="0.1"/>
+    <n v="-0.2"/>
     <x v="0"/>
   </r>
   <r>
@@ -40733,8 +40836,21 @@
     <x v="1"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="5"/>
+    <x v="4"/>
     <x v="7"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="8"/>
     <n v="0.1"/>
     <x v="0"/>
   </r>
@@ -40796,10 +40912,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="11"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
     <n v="0.1"/>
     <x v="0"/>
   </r>
@@ -40810,7 +40926,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="9"/>
-    <x v="10"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="12"/>
     <n v="0.1"/>
@@ -40822,7 +40938,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="0"/>
     <x v="13"/>
@@ -40836,7 +40952,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="10"/>
-    <x v="11"/>
+    <x v="10"/>
     <x v="0"/>
     <x v="14"/>
     <n v="0.1"/>
@@ -40849,7 +40965,7 @@
     <x v="1"/>
     <x v="2"/>
     <x v="11"/>
-    <x v="12"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="15"/>
     <n v="0.1"/>
@@ -40861,12 +40977,12 @@
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="0.2"/>
-    <x v="4"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="0.1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -40876,7 +40992,7 @@
     <x v="2"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="3"/>
+    <x v="5"/>
     <x v="5"/>
     <n v="0.2"/>
     <x v="4"/>
@@ -40889,7 +41005,33 @@
     <x v="2"/>
     <x v="5"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="0.2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
     <x v="7"/>
     <n v="0.2"/>
     <x v="4"/>
@@ -40899,24 +41041,11 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="6"/>
-    <n v="0.2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="16"/>
+    <x v="17"/>
     <n v="0.9"/>
     <x v="5"/>
   </r>
@@ -40978,10 +41107,23 @@
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="8"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="9"/>
+    <x v="4"/>
     <x v="0"/>
-    <x v="16"/>
+    <x v="17"/>
     <n v="0.8"/>
     <x v="6"/>
   </r>
@@ -40991,22 +41133,9 @@
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="0.2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="3"/>
+    <x v="5"/>
     <x v="5"/>
     <n v="0.2"/>
     <x v="0"/>
@@ -41019,9 +41148,9 @@
     <x v="3"/>
     <x v="5"/>
     <x v="6"/>
-    <x v="5"/>
-    <x v="7"/>
-    <n v="0.2"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.1"/>
     <x v="0"/>
   </r>
   <r>
@@ -41032,8 +41161,21 @@
     <x v="3"/>
     <x v="6"/>
     <x v="7"/>
-    <x v="5"/>
-    <x v="6"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="7"/>
     <n v="0.2"/>
     <x v="0"/>
   </r>
@@ -41043,10 +41185,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="17"/>
+    <x v="18"/>
     <n v="0.01"/>
     <x v="7"/>
   </r>
@@ -41056,10 +41198,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="18"/>
+    <x v="19"/>
     <n v="-0.43"/>
     <x v="8"/>
   </r>
@@ -41126,7 +41268,7 @@
     <x v="4"/>
     <x v="4"/>
     <n v="0.2"/>
-    <x v="0"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -41136,7 +41278,7 @@
     <x v="4"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="3"/>
+    <x v="5"/>
     <x v="5"/>
     <n v="0.2"/>
     <x v="0"/>
@@ -41149,7 +41291,33 @@
     <x v="4"/>
     <x v="5"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
     <x v="7"/>
     <n v="0.2"/>
     <x v="0"/>
@@ -41160,34 +41328,8 @@
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="6"/>
-    <n v="0.2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="19"/>
-    <n v="0.09"/>
+    <x v="13"/>
     <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="8"/>
     <x v="0"/>
     <x v="20"/>
     <n v="0.09"/>
@@ -41198,11 +41340,24 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="0.09"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="5"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="21"/>
+    <x v="22"/>
     <n v="0.1"/>
     <x v="0"/>
   </r>
@@ -41212,10 +41367,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="22"/>
+    <x v="23"/>
     <n v="0.4"/>
     <x v="10"/>
   </r>
@@ -41225,10 +41380,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="23"/>
+    <x v="24"/>
     <n v="0.6"/>
     <x v="11"/>
   </r>
@@ -41238,10 +41393,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="17"/>
+    <x v="18"/>
     <n v="0.6"/>
     <x v="0"/>
   </r>
@@ -41251,10 +41406,10 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="7"/>
     <x v="8"/>
+    <x v="9"/>
     <x v="6"/>
-    <x v="18"/>
+    <x v="19"/>
     <n v="-0.14000000000000001"/>
     <x v="12"/>
   </r>
@@ -41316,11 +41471,11 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="13"/>
-    <x v="14"/>
-    <x v="7"/>
-    <x v="24"/>
-    <n v="0.1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.2"/>
     <x v="0"/>
   </r>
   <r>
@@ -41330,8 +41485,8 @@
     <x v="1"/>
     <x v="5"/>
     <x v="14"/>
-    <x v="15"/>
-    <x v="8"/>
+    <x v="14"/>
+    <x v="7"/>
     <x v="25"/>
     <n v="0.1"/>
     <x v="0"/>
@@ -41342,9 +41497,9 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="14"/>
-    <x v="16"/>
-    <x v="5"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="8"/>
     <x v="26"/>
     <n v="0.1"/>
     <x v="0"/>
@@ -41355,12 +41510,12 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="3"/>
+    <x v="15"/>
+    <x v="16"/>
     <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="0.3"/>
-    <x v="4"/>
+    <x v="27"/>
+    <n v="0.1"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -41370,7 +41525,7 @@
     <x v="5"/>
     <x v="4"/>
     <x v="5"/>
-    <x v="3"/>
+    <x v="5"/>
     <x v="5"/>
     <n v="0.3"/>
     <x v="4"/>
@@ -41383,7 +41538,33 @@
     <x v="5"/>
     <x v="5"/>
     <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="5"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="0.3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="4"/>
     <x v="7"/>
     <n v="0.3"/>
     <x v="4"/>
@@ -41393,20 +41574,189 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="28"/>
+    <n v="-0.1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="19"/>
+    <n v="0.33"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="17"/>
+    <x v="9"/>
+    <x v="29"/>
+    <n v="0.75"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="30"/>
+    <n v="0.6"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="5"/>
     <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="7"/>
-    <x v="5"/>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="0.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="31"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="10"/>
+    <x v="7"/>
     <n v="0.3"/>
-    <x v="4"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAF7BE93-F9E8-8947-87E2-E18A326332D6}" name="数据透视表1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A28:M39" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAF7BE93-F9E8-8947-87E2-E18A326332D6}" name="数据透视表1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A28:M40" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0">
       <items count="2">
@@ -41434,13 +41784,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -41579,58 +41930,66 @@
       </items>
     </pivotField>
     <pivotField compact="0" numFmtId="20" outline="0" showAll="0">
-      <items count="10">
+      <items count="12">
         <item x="0"/>
         <item x="8"/>
         <item x="1"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="3"/>
         <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
         <item x="2"/>
         <item x="7"/>
+        <item x="9"/>
         <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0">
-      <items count="31">
+      <items count="36">
+        <item x="24"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="28"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item m="1" x="34"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="7"/>
         <item x="23"/>
-        <item x="24"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="8"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item m="1" x="29"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="16"/>
+        <item x="1"/>
+        <item x="31"/>
+        <item x="30"/>
         <item x="6"/>
         <item x="22"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="21"/>
         <item x="2"/>
         <item x="0"/>
+        <item x="12"/>
+        <item m="1" x="33"/>
+        <item m="1" x="32"/>
         <item x="11"/>
-        <item m="1" x="28"/>
-        <item m="1" x="27"/>
-        <item x="10"/>
+        <item x="27"/>
+        <item x="20"/>
         <item x="26"/>
+        <item x="21"/>
         <item x="19"/>
-        <item x="25"/>
-        <item x="20"/>
-        <item x="18"/>
         <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0">
-      <items count="16">
+      <items count="19">
         <item x="8"/>
+        <item x="15"/>
         <item x="12"/>
         <item x="6"/>
         <item x="5"/>
@@ -41640,10 +41999,12 @@
         <item x="2"/>
         <item x="13"/>
         <item x="9"/>
+        <item x="16"/>
+        <item x="17"/>
         <item x="11"/>
+        <item x="14"/>
         <item x="4"/>
         <item x="7"/>
-        <item m="1" x="14"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -41714,7 +42075,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -41732,6 +42093,9 @@
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -41803,15 +42167,17 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="9">
+      <items count="11">
         <i x="0" s="1"/>
         <i x="8" s="1"/>
         <i x="1" s="1"/>
+        <i x="4" s="1"/>
+        <i x="10" s="1"/>
+        <i x="3" s="1"/>
         <i x="5" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
         <i x="2" s="1"/>
         <i x="7" s="1"/>
+        <i x="9" s="1"/>
         <i x="6" s="1"/>
       </items>
     </tabular>
@@ -41830,6 +42196,7 @@
         <i x="11" s="1"/>
         <i x="13" s="1"/>
         <i x="19" s="1"/>
+        <i x="21" s="1"/>
         <i x="23" s="1"/>
         <i x="24" s="1"/>
         <i x="7" s="1"/>
@@ -41847,7 +42214,6 @@
         <i x="18" s="1" nd="1"/>
         <i x="20" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
-        <i x="21" s="1" nd="1"/>
         <i x="22" s="1" nd="1"/>
         <i x="3" s="1" nd="1"/>
         <i x="4" s="1" nd="1"/>
@@ -41871,8 +42237,9 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="15">
+      <items count="18">
         <i x="8" s="1"/>
+        <i x="15" s="1"/>
         <i x="12" s="1"/>
         <i x="6" s="1"/>
         <i x="5" s="1"/>
@@ -41882,11 +42249,13 @@
         <i x="2" s="1"/>
         <i x="13" s="1"/>
         <i x="9" s="1"/>
+        <i x="16" s="1"/>
+        <i x="17" s="1"/>
         <i x="11" s="1"/>
+        <i x="14" s="1"/>
         <i x="4" s="1"/>
         <i x="7" s="1"/>
         <i x="0" s="1"/>
-        <i x="14" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -41961,13 +42330,14 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="6">
+      <items count="7">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
         <i x="3" s="1"/>
         <i x="4" s="1"/>
         <i x="5" s="1"/>
+        <i x="6" s="1"/>
       </items>
     </tabular>
   </data>
@@ -42063,6 +42433,7 @@
         <i x="31" s="1"/>
         <i x="34" s="1"/>
         <i x="46" s="1"/>
+        <i x="51" s="1"/>
         <i x="60" s="1"/>
         <i x="6" s="1"/>
         <i x="9" s="1"/>
@@ -42108,7 +42479,6 @@
         <i x="49" s="1" nd="1"/>
         <i x="50" s="1" nd="1"/>
         <i x="5" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
         <i x="52" s="1" nd="1"/>
         <i x="53" s="1" nd="1"/>
         <i x="54" s="1" nd="1"/>
@@ -42138,37 +42508,42 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="30">
+      <items count="35">
+        <i x="24" s="1"/>
+        <i x="25" s="1"/>
+        <i x="29" s="1"/>
+        <i x="4" s="1"/>
+        <i x="13" s="1"/>
+        <i x="5" s="1"/>
+        <i x="28" s="1"/>
+        <i x="18" s="1"/>
+        <i x="16" s="1"/>
+        <i x="9" s="1"/>
+        <i x="15" s="1"/>
+        <i x="14" s="1"/>
+        <i x="10" s="1"/>
+        <i x="8" s="1"/>
+        <i x="17" s="1"/>
+        <i x="7" s="1"/>
         <i x="23" s="1"/>
-        <i x="24" s="1"/>
-        <i x="12" s="1"/>
-        <i x="4" s="1"/>
-        <i x="17" s="1"/>
-        <i x="15" s="1"/>
-        <i x="8" s="1"/>
-        <i x="14" s="1"/>
-        <i x="13" s="1"/>
-        <i x="9" s="1"/>
-        <i x="7" s="1"/>
-        <i x="16" s="1"/>
+        <i x="1" s="1"/>
+        <i x="31" s="1"/>
+        <i x="30" s="1"/>
         <i x="6" s="1"/>
         <i x="22" s="1"/>
-        <i x="1" s="1"/>
-        <i x="5" s="1"/>
-        <i x="21" s="1"/>
         <i x="2" s="1"/>
         <i x="0" s="1"/>
+        <i x="12" s="1"/>
         <i x="11" s="1"/>
-        <i x="10" s="1"/>
+        <i x="27" s="1"/>
+        <i x="20" s="1"/>
         <i x="26" s="1"/>
+        <i x="21" s="1"/>
         <i x="19" s="1"/>
-        <i x="25" s="1"/>
-        <i x="20" s="1"/>
-        <i x="18" s="1"/>
         <i x="3" s="1"/>
-        <i x="29" s="1" nd="1"/>
-        <i x="28" s="1" nd="1"/>
-        <i x="27" s="1" nd="1"/>
+        <i x="34" s="1" nd="1"/>
+        <i x="33" s="1" nd="1"/>
+        <i x="32" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -42238,71 +42613,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:K74" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
-  <autoFilter ref="A4:K74" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:K94" totalsRowShown="0" headerRowDxfId="223" dataDxfId="222">
+  <autoFilter ref="A4:K94" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K93">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
     <sortCondition ref="G5:G58"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="13" xr3:uid="{99F8998D-9D71-A14B-A52B-70A0AD1936C5}" name="年份" dataDxfId="213">
+    <tableColumn id="13" xr3:uid="{99F8998D-9D71-A14B-A52B-70A0AD1936C5}" name="年份" dataDxfId="221">
       <calculatedColumnFormula>YEAR(records[[#This Row],[日期]])&amp;" 年"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{79048981-95B8-AE44-8023-F15E8B409D1D}" name="季度" dataDxfId="212">
+    <tableColumn id="12" xr3:uid="{79048981-95B8-AE44-8023-F15E8B409D1D}" name="季度" dataDxfId="220">
       <calculatedColumnFormula>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0991F159-92D8-3E4D-AC22-907FD5B3E742}" name="月份" dataDxfId="211">
+    <tableColumn id="11" xr3:uid="{0991F159-92D8-3E4D-AC22-907FD5B3E742}" name="月份" dataDxfId="219">
       <calculatedColumnFormula>MONTH(records[[#This Row],[日期]])&amp;" 月"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D75138FC-9BDD-634B-A857-E796C90F6C02}" name="周次" dataDxfId="210">
+    <tableColumn id="8" xr3:uid="{D75138FC-9BDD-634B-A857-E796C90F6C02}" name="周次" dataDxfId="218">
       <calculatedColumnFormula>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{C122F2B9-2C27-CC49-95C8-A7AF9ECBEB4B}" name="日期" dataDxfId="209"/>
-    <tableColumn id="5" xr3:uid="{C9D28CBA-D9EC-6743-A793-FFD0F93D5C41}" name="开始时刻" dataDxfId="208"/>
-    <tableColumn id="6" xr3:uid="{607D6D23-94C7-C441-9805-FA4B15B54167}" name="结束时刻" dataDxfId="207"/>
-    <tableColumn id="7" xr3:uid="{91709BBD-F72B-4441-AAD6-A9419A8B7AA7}" name="持续时间" dataDxfId="206">
+    <tableColumn id="1" xr3:uid="{C122F2B9-2C27-CC49-95C8-A7AF9ECBEB4B}" name="日期" dataDxfId="217"/>
+    <tableColumn id="5" xr3:uid="{C9D28CBA-D9EC-6743-A793-FFD0F93D5C41}" name="开始时刻" dataDxfId="216"/>
+    <tableColumn id="6" xr3:uid="{607D6D23-94C7-C441-9805-FA4B15B54167}" name="结束时刻" dataDxfId="215"/>
+    <tableColumn id="7" xr3:uid="{91709BBD-F72B-4441-AAD6-A9419A8B7AA7}" name="持续时间" dataDxfId="214">
       <calculatedColumnFormula>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="名称" dataDxfId="205"/>
-    <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="得分" dataDxfId="204"/>
-    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="备注" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="名称" dataDxfId="213"/>
+    <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="得分" dataDxfId="212"/>
+    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="备注" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{82A4B9F8-5A88-D742-90DC-F411EC0C0154}" name="表9_23" displayName="表9_23" ref="AI2:AQ5" totalsRowShown="0" headerRowDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{82A4B9F8-5A88-D742-90DC-F411EC0C0154}" name="表9_23" displayName="表9_23" ref="AI2:AQ5" totalsRowShown="0" headerRowDxfId="167">
   <autoFilter ref="AI2:AQ5" xr:uid="{8DD7BE02-7294-CA40-B85C-FF1E80721FF3}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{FE6241AE-B048-4240-8C18-DE57F7ADD637}" name="周次" dataDxfId="158">
+    <tableColumn id="9" xr3:uid="{FE6241AE-B048-4240-8C18-DE57F7ADD637}" name="周次" dataDxfId="166">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C8FC5F40-3670-AE46-AB5B-9092F51FC244}" name="开始日期" dataDxfId="157">
+    <tableColumn id="8" xr3:uid="{C8FC5F40-3670-AE46-AB5B-9092F51FC244}" name="开始日期" dataDxfId="165">
       <calculatedColumnFormula>B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{9DFB8416-3F04-A046-AF5E-CA4655DEE818}" name="结束日期" dataDxfId="156">
+    <tableColumn id="1" xr3:uid="{9DFB8416-3F04-A046-AF5E-CA4655DEE818}" name="结束日期" dataDxfId="164">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{714559D9-0473-A647-847D-0A2C22189331}" name="早起" dataDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{99B141E0-A0A9-B04C-9E28-C807DF343B9D}" name="阅读" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{A8598802-D79F-844C-A693-2D0113B05354}" name="早餐" dataDxfId="153"/>
-    <tableColumn id="5" xr3:uid="{DCB0EE9C-C3C4-4247-B045-EA42474B9871}" name="锻炼" dataDxfId="152"/>
-    <tableColumn id="6" xr3:uid="{7C1ECCF1-E4CA-9942-BCF5-D25DED6FB31E}" name="日报" dataDxfId="151"/>
-    <tableColumn id="7" xr3:uid="{B480D3F6-B4C9-424F-848D-A620136A9A18}" name="明日日程安排" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{714559D9-0473-A647-847D-0A2C22189331}" name="早起" dataDxfId="163"/>
+    <tableColumn id="3" xr3:uid="{99B141E0-A0A9-B04C-9E28-C807DF343B9D}" name="阅读" dataDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{A8598802-D79F-844C-A693-2D0113B05354}" name="早餐" dataDxfId="161"/>
+    <tableColumn id="5" xr3:uid="{DCB0EE9C-C3C4-4247-B045-EA42474B9871}" name="锻炼" dataDxfId="160"/>
+    <tableColumn id="6" xr3:uid="{7C1ECCF1-E4CA-9942-BCF5-D25DED6FB31E}" name="日报" dataDxfId="159"/>
+    <tableColumn id="7" xr3:uid="{B480D3F6-B4C9-424F-848D-A620136A9A18}" name="明日日程安排" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BAC903F1-92E2-D14B-864B-2E2C71632789}" name="表6_3" displayName="表6_3" ref="A34:D37" totalsRowShown="0" headerRowDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BAC903F1-92E2-D14B-864B-2E2C71632789}" name="表6_3" displayName="表6_3" ref="A34:D37" totalsRowShown="0" headerRowDxfId="157">
   <autoFilter ref="A34:D37" xr:uid="{E30CC314-9EDA-674C-8670-2C93823A3BB9}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{E4B8FDBE-63DF-734C-AD0A-5B85FA0038C3}" name="周次" dataDxfId="148"/>
-    <tableColumn id="3" xr3:uid="{02819495-7F74-864A-94DF-949ED94C5958}" name="开始日期" dataDxfId="147"/>
-    <tableColumn id="1" xr3:uid="{695FD645-E011-E143-86EA-4380DB16A8C1}" name="结束日期" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{E4B8FDBE-63DF-734C-AD0A-5B85FA0038C3}" name="周次" dataDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{02819495-7F74-864A-94DF-949ED94C5958}" name="开始日期" dataDxfId="155"/>
+    <tableColumn id="1" xr3:uid="{695FD645-E011-E143-86EA-4380DB16A8C1}" name="结束日期" dataDxfId="154"/>
     <tableColumn id="2" xr3:uid="{2E5286EA-0FD9-DF47-8727-06669F3A8F01}" name="总分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -42310,12 +42685,12 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1C0441B-E522-F748-B69A-1E76D227F9BF}" name="表8_4" displayName="表8_4" ref="F34:AG37" totalsRowShown="0" headerRowDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1C0441B-E522-F748-B69A-1E76D227F9BF}" name="表8_4" displayName="表8_4" ref="F34:AG37" totalsRowShown="0" headerRowDxfId="153">
   <autoFilter ref="F34:AG37" xr:uid="{67744F99-0916-3944-925B-4E4F2F26C049}"/>
   <tableColumns count="28">
-    <tableColumn id="28" xr3:uid="{83154229-4E8E-1940-83A0-E8F3B7189F4F}" name="周次" dataDxfId="144"/>
-    <tableColumn id="27" xr3:uid="{1FF54441-0E71-4D42-8F04-A0C570DC414D}" name="开始日期" dataDxfId="143"/>
-    <tableColumn id="1" xr3:uid="{E131BD07-27AC-6C4C-8128-EC18C5A2BB2A}" name="结束日期" dataDxfId="142"/>
+    <tableColumn id="28" xr3:uid="{83154229-4E8E-1940-83A0-E8F3B7189F4F}" name="周次" dataDxfId="152"/>
+    <tableColumn id="27" xr3:uid="{1FF54441-0E71-4D42-8F04-A0C570DC414D}" name="开始日期" dataDxfId="151"/>
+    <tableColumn id="1" xr3:uid="{E131BD07-27AC-6C4C-8128-EC18C5A2BB2A}" name="结束日期" dataDxfId="150"/>
     <tableColumn id="2" xr3:uid="{7D249F9B-E92A-094C-82B4-B75448F9051E}" name="0:00"/>
     <tableColumn id="3" xr3:uid="{F572B743-1176-5449-9686-A43A382860D3}" name="1:00"/>
     <tableColumn id="4" xr3:uid="{7AAB4545-C1A7-ED4D-B651-BD5220A15B67}" name="2:00"/>
@@ -42347,12 +42722,12 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{85867865-1903-5749-87BA-1ABB7606DB92}" name="表9_5" displayName="表9_5" ref="AI34:AQ37" totalsRowShown="0" headerRowDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{85867865-1903-5749-87BA-1ABB7606DB92}" name="表9_5" displayName="表9_5" ref="AI34:AQ37" totalsRowShown="0" headerRowDxfId="149">
   <autoFilter ref="AI34:AQ37" xr:uid="{E23A190F-74F2-9640-851D-0B0C26270E85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{BA5CF983-F8C7-7441-A189-F84DD40896A0}" name="周次" dataDxfId="140"/>
-    <tableColumn id="8" xr3:uid="{9E033781-0ECB-CD49-92A8-1047C6DB5F7D}" name="开始日期" dataDxfId="139"/>
-    <tableColumn id="1" xr3:uid="{80089117-FD64-1D48-BFDB-15C05C18BF76}" name="结束日期" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{BA5CF983-F8C7-7441-A189-F84DD40896A0}" name="周次" dataDxfId="148"/>
+    <tableColumn id="8" xr3:uid="{9E033781-0ECB-CD49-92A8-1047C6DB5F7D}" name="开始日期" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{80089117-FD64-1D48-BFDB-15C05C18BF76}" name="结束日期" dataDxfId="146"/>
     <tableColumn id="2" xr3:uid="{D7D86E26-824B-DB43-82B2-605046C8F537}" name="早起"/>
     <tableColumn id="3" xr3:uid="{6557ACFF-BF17-F44D-B6EE-0D6FB5AE755F}" name="阅读"/>
     <tableColumn id="4" xr3:uid="{2C59F66A-42F0-1349-B0E7-125D5FBE2A38}" name="早餐"/>
@@ -42365,22 +42740,22 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C0194B4-D51D-ED41-8A2E-B33C636CDF25}" name="表6_1117206" displayName="表6_1117206" ref="A2:D5" totalsRowShown="0" headerRowDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C0194B4-D51D-ED41-8A2E-B33C636CDF25}" name="表6_1117206" displayName="表6_1117206" ref="A2:D5" totalsRowShown="0" headerRowDxfId="145">
   <autoFilter ref="A2:D5" xr:uid="{EFB21F1B-A9BB-AE4B-BE11-E3B1AF6AC445}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{46657481-5D86-6943-8913-77B719BD4331}" name="月次" dataDxfId="136"/>
-    <tableColumn id="1" xr3:uid="{90318115-0AF9-9F44-AEEC-5B7685555A06}" name="开始日期" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{2B001BA7-68CA-224D-B80C-4282589B44F9}" name="结束日期" dataDxfId="134">
+    <tableColumn id="4" xr3:uid="{46657481-5D86-6943-8913-77B719BD4331}" name="月次" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{90318115-0AF9-9F44-AEEC-5B7685555A06}" name="开始日期" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{2B001BA7-68CA-224D-B80C-4282589B44F9}" name="结束日期" dataDxfId="142">
       <calculatedColumnFormula>SUMIF(records[日期],表6_1117206[[#This Row],[开始日期]],records[得分])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{91B667EE-3416-9745-B2BA-7BED78B3D30E}" name="总分" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{91B667EE-3416-9745-B2BA-7BED78B3D30E}" name="总分" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87A1626C-DE9F-7D40-AF08-EEAFACAF8C35}" name="表21_8" displayName="表21_8" ref="F2:AG5" totalsRowShown="0" headerRowDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87A1626C-DE9F-7D40-AF08-EEAFACAF8C35}" name="表21_8" displayName="表21_8" ref="F2:AG5" totalsRowShown="0" headerRowDxfId="140">
   <autoFilter ref="F2:AG5" xr:uid="{14523FD4-A300-7340-BCF5-FECC8293A929}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{090F7C31-5612-7F4C-82ED-9046B9207A3A}" name="月次">
@@ -42392,67 +42767,67 @@
     <tableColumn id="3" xr3:uid="{ED067585-515F-4C43-9313-02AF90211C61}" name="结束日期">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{405FDA27-998E-9B4A-AACA-5D69A8866E7D}" name="0:00" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{762D32D6-D532-F84D-AE0F-C5533FCB7D7B}" name="1:00" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{C8E30361-2484-CA44-91DC-7D6B43C47B8B}" name="2:00" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{7A2D307A-B93A-0A49-99CC-9182FA34D9BF}" name="3:00" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{747EB82B-5BB5-124E-9972-49FB7177D7CC}" name="4:00" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{0A04D06F-0382-4342-9424-A4766BBA81AA}" name="5:00" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{FB395D22-0961-D045-8FEB-BB1AD2A81807}" name="6:00" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{ED1DB384-BBB8-FC4E-AECD-E5CC57D36B01}" name="7:00" dataDxfId="124"/>
-    <tableColumn id="12" xr3:uid="{C0EB7835-71FE-174D-8B48-4A61D112A80D}" name="8:00" dataDxfId="123"/>
-    <tableColumn id="13" xr3:uid="{0A90C27E-BB9B-D448-914A-23239C5BB1F1}" name="9:00" dataDxfId="122"/>
-    <tableColumn id="14" xr3:uid="{5C459079-F1CC-8649-A457-47A9BADC2181}" name="10:00" dataDxfId="121"/>
-    <tableColumn id="15" xr3:uid="{37CA6891-FBFD-C343-9E84-A8FDED704763}" name="11:00" dataDxfId="120"/>
-    <tableColumn id="16" xr3:uid="{6EBEA70B-3D46-6D41-A52A-D5D830F362E7}" name="12:00" dataDxfId="119"/>
-    <tableColumn id="17" xr3:uid="{58539415-0FAF-DA45-8792-433CE5B53E30}" name="13:00" dataDxfId="118"/>
-    <tableColumn id="18" xr3:uid="{DBD53A72-3ECA-A149-BAF4-B66D0222AE7E}" name="14:00" dataDxfId="117"/>
-    <tableColumn id="19" xr3:uid="{154BD74A-25B6-8047-A61C-98EA9730F86D}" name="15:00" dataDxfId="116"/>
-    <tableColumn id="20" xr3:uid="{38071110-4F9A-6F4E-9037-5DC0DB7DAD3F}" name="16:00" dataDxfId="115"/>
-    <tableColumn id="21" xr3:uid="{A32B1682-FB6F-B14A-BA4C-71C664AACEA9}" name="17:00" dataDxfId="114"/>
-    <tableColumn id="22" xr3:uid="{B4E7D504-231C-C74B-AA28-CD09715B61AD}" name="18:00" dataDxfId="113"/>
-    <tableColumn id="23" xr3:uid="{06A127B5-9301-AF43-940B-DE4F0B6762D9}" name="19:00" dataDxfId="112"/>
-    <tableColumn id="24" xr3:uid="{E9BDC65B-B9FE-3B4D-A900-344B63F65EEA}" name="20:00" dataDxfId="111"/>
-    <tableColumn id="25" xr3:uid="{E93B1CD4-688E-E94F-AABD-BB49B3284BD6}" name="21:00" dataDxfId="110"/>
-    <tableColumn id="26" xr3:uid="{95D8270A-1D70-8543-BB32-04A35207BB6F}" name="22:00" dataDxfId="109"/>
-    <tableColumn id="27" xr3:uid="{F620EAED-6880-D74B-8193-D5DEC771D3AB}" name="23:00" dataDxfId="108"/>
-    <tableColumn id="28" xr3:uid="{5E84164D-0BD8-034D-8608-D17EC6F40652}" name="23:59" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{405FDA27-998E-9B4A-AACA-5D69A8866E7D}" name="0:00" dataDxfId="139"/>
+    <tableColumn id="5" xr3:uid="{762D32D6-D532-F84D-AE0F-C5533FCB7D7B}" name="1:00" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{C8E30361-2484-CA44-91DC-7D6B43C47B8B}" name="2:00" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{7A2D307A-B93A-0A49-99CC-9182FA34D9BF}" name="3:00" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{747EB82B-5BB5-124E-9972-49FB7177D7CC}" name="4:00" dataDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{0A04D06F-0382-4342-9424-A4766BBA81AA}" name="5:00" dataDxfId="134"/>
+    <tableColumn id="10" xr3:uid="{FB395D22-0961-D045-8FEB-BB1AD2A81807}" name="6:00" dataDxfId="133"/>
+    <tableColumn id="11" xr3:uid="{ED1DB384-BBB8-FC4E-AECD-E5CC57D36B01}" name="7:00" dataDxfId="132"/>
+    <tableColumn id="12" xr3:uid="{C0EB7835-71FE-174D-8B48-4A61D112A80D}" name="8:00" dataDxfId="131"/>
+    <tableColumn id="13" xr3:uid="{0A90C27E-BB9B-D448-914A-23239C5BB1F1}" name="9:00" dataDxfId="130"/>
+    <tableColumn id="14" xr3:uid="{5C459079-F1CC-8649-A457-47A9BADC2181}" name="10:00" dataDxfId="129"/>
+    <tableColumn id="15" xr3:uid="{37CA6891-FBFD-C343-9E84-A8FDED704763}" name="11:00" dataDxfId="128"/>
+    <tableColumn id="16" xr3:uid="{6EBEA70B-3D46-6D41-A52A-D5D830F362E7}" name="12:00" dataDxfId="127"/>
+    <tableColumn id="17" xr3:uid="{58539415-0FAF-DA45-8792-433CE5B53E30}" name="13:00" dataDxfId="126"/>
+    <tableColumn id="18" xr3:uid="{DBD53A72-3ECA-A149-BAF4-B66D0222AE7E}" name="14:00" dataDxfId="125"/>
+    <tableColumn id="19" xr3:uid="{154BD74A-25B6-8047-A61C-98EA9730F86D}" name="15:00" dataDxfId="124"/>
+    <tableColumn id="20" xr3:uid="{38071110-4F9A-6F4E-9037-5DC0DB7DAD3F}" name="16:00" dataDxfId="123"/>
+    <tableColumn id="21" xr3:uid="{A32B1682-FB6F-B14A-BA4C-71C664AACEA9}" name="17:00" dataDxfId="122"/>
+    <tableColumn id="22" xr3:uid="{B4E7D504-231C-C74B-AA28-CD09715B61AD}" name="18:00" dataDxfId="121"/>
+    <tableColumn id="23" xr3:uid="{06A127B5-9301-AF43-940B-DE4F0B6762D9}" name="19:00" dataDxfId="120"/>
+    <tableColumn id="24" xr3:uid="{E9BDC65B-B9FE-3B4D-A900-344B63F65EEA}" name="20:00" dataDxfId="119"/>
+    <tableColumn id="25" xr3:uid="{E93B1CD4-688E-E94F-AABD-BB49B3284BD6}" name="21:00" dataDxfId="118"/>
+    <tableColumn id="26" xr3:uid="{95D8270A-1D70-8543-BB32-04A35207BB6F}" name="22:00" dataDxfId="117"/>
+    <tableColumn id="27" xr3:uid="{F620EAED-6880-D74B-8193-D5DEC771D3AB}" name="23:00" dataDxfId="116"/>
+    <tableColumn id="28" xr3:uid="{5E84164D-0BD8-034D-8608-D17EC6F40652}" name="23:59" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B11EB9A5-998D-5A47-BBD7-937DE2CB505A}" name="表9_2314" displayName="表9_2314" ref="AI2:AQ5" totalsRowShown="0" headerRowDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B11EB9A5-998D-5A47-BBD7-937DE2CB505A}" name="表9_2314" displayName="表9_2314" ref="AI2:AQ5" totalsRowShown="0" headerRowDxfId="114">
   <autoFilter ref="AI2:AQ5" xr:uid="{87C2B797-2C24-D14B-89E9-63D46DFF8C4B}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{600E17F0-6552-D24D-BCEF-CF8F3C24D0EA}" name="月次" dataDxfId="105">
+    <tableColumn id="9" xr3:uid="{600E17F0-6552-D24D-BCEF-CF8F3C24D0EA}" name="月次" dataDxfId="113">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{33199E61-30F7-6F4B-B0FC-23523D44645B}" name="开始日期" dataDxfId="104">
+    <tableColumn id="8" xr3:uid="{33199E61-30F7-6F4B-B0FC-23523D44645B}" name="开始日期" dataDxfId="112">
       <calculatedColumnFormula>B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{793EEC46-8D6A-7144-9557-DB8E08E9E1D5}" name="结束日期" dataDxfId="103">
+    <tableColumn id="1" xr3:uid="{793EEC46-8D6A-7144-9557-DB8E08E9E1D5}" name="结束日期" dataDxfId="111">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EF578DF-8841-DB40-A1C4-37C1EA7968A3}" name="早起" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{584A0028-60D9-AE45-9D61-2F91440769CF}" name="阅读" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{C1A28D49-923F-9C42-BFBD-2E031300240B}" name="早餐" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{2DEF26E8-6C8B-444B-BCC9-320F199BDA2F}" name="锻炼" dataDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{6768D313-D3C2-434D-A4E4-CF4732F684C0}" name="日报" dataDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{3C619649-3A4F-EB4D-AA44-5C5076ACDC1A}" name="明日日程安排" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{7EF578DF-8841-DB40-A1C4-37C1EA7968A3}" name="早起" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{584A0028-60D9-AE45-9D61-2F91440769CF}" name="阅读" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{C1A28D49-923F-9C42-BFBD-2E031300240B}" name="早餐" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{2DEF26E8-6C8B-444B-BCC9-320F199BDA2F}" name="锻炼" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{6768D313-D3C2-434D-A4E4-CF4732F684C0}" name="日报" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{3C619649-3A4F-EB4D-AA44-5C5076ACDC1A}" name="明日日程安排" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E51A8FB8-6215-4A45-A310-7DE962F577EF}" name="表6_315" displayName="表6_315" ref="A34:D37" totalsRowShown="0" headerRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E51A8FB8-6215-4A45-A310-7DE962F577EF}" name="表6_315" displayName="表6_315" ref="A34:D37" totalsRowShown="0" headerRowDxfId="104">
   <autoFilter ref="A34:D37" xr:uid="{5020670E-0A6E-A044-8955-09C1EF220D9D}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{81573F1C-44D5-F84D-B86B-899104AA6221}" name="月次" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{9F080DDD-4C8D-E24B-AE51-5733D40A7A78}" name="开始日期" dataDxfId="94"/>
-    <tableColumn id="1" xr3:uid="{9F44C087-1E3E-CD46-8369-14F4503120D3}" name="结束日期" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{81573F1C-44D5-F84D-B86B-899104AA6221}" name="月次" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{9F080DDD-4C8D-E24B-AE51-5733D40A7A78}" name="开始日期" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{9F44C087-1E3E-CD46-8369-14F4503120D3}" name="结束日期" dataDxfId="101"/>
     <tableColumn id="2" xr3:uid="{4F0F6EE6-C1F7-514D-B84A-BB9718B80B22}" name="总分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -42460,12 +42835,12 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{72FA8AE5-2B05-8842-B212-3B8DC51DAEE9}" name="表8_416" displayName="表8_416" ref="F34:AG37" totalsRowShown="0" headerRowDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{72FA8AE5-2B05-8842-B212-3B8DC51DAEE9}" name="表8_416" displayName="表8_416" ref="F34:AG37" totalsRowShown="0" headerRowDxfId="100">
   <autoFilter ref="F34:AG37" xr:uid="{A3F921EE-F2E4-1841-BC12-D5F6AC8F0CB1}"/>
   <tableColumns count="28">
-    <tableColumn id="28" xr3:uid="{F9E5BE51-0136-EC40-B802-673E70BE413A}" name="月次" dataDxfId="91"/>
-    <tableColumn id="27" xr3:uid="{19C6B62B-6F98-0A4F-988F-0DDE37F5E9C5}" name="开始日期" dataDxfId="90"/>
-    <tableColumn id="1" xr3:uid="{79ED134B-4CED-3749-A669-4F4DED386E99}" name="结束日期" dataDxfId="89"/>
+    <tableColumn id="28" xr3:uid="{F9E5BE51-0136-EC40-B802-673E70BE413A}" name="月次" dataDxfId="99"/>
+    <tableColumn id="27" xr3:uid="{19C6B62B-6F98-0A4F-988F-0DDE37F5E9C5}" name="开始日期" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{79ED134B-4CED-3749-A669-4F4DED386E99}" name="结束日期" dataDxfId="97"/>
     <tableColumn id="2" xr3:uid="{60A3AEE8-25A0-B547-9D80-BE8F8ECFFE94}" name="0:00"/>
     <tableColumn id="3" xr3:uid="{6FF5FFA7-DA0A-2343-8CCB-532EA18249EE}" name="1:00"/>
     <tableColumn id="4" xr3:uid="{0D6CCDE3-DCB9-C948-A9AB-97A057F319B2}" name="2:00"/>
@@ -42497,12 +42872,12 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{339BD55F-D075-2B44-B021-5CD8C04ACEF1}" name="表9_517" displayName="表9_517" ref="AI34:AQ37" totalsRowShown="0" headerRowDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{339BD55F-D075-2B44-B021-5CD8C04ACEF1}" name="表9_517" displayName="表9_517" ref="AI34:AQ37" totalsRowShown="0" headerRowDxfId="96">
   <autoFilter ref="AI34:AQ37" xr:uid="{D0BD7879-7081-0944-9C0F-835D18C873CB}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{77F8825B-6AEB-3B4E-B9FE-2EEC1D386CF1}" name="月次" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{3C278DDB-5531-4946-A068-28787D4502A2}" name="开始日期" dataDxfId="86"/>
-    <tableColumn id="1" xr3:uid="{B80DD24E-AE1F-8740-8196-940F65D004DF}" name="结束日期" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{77F8825B-6AEB-3B4E-B9FE-2EEC1D386CF1}" name="月次" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{3C278DDB-5531-4946-A068-28787D4502A2}" name="开始日期" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{B80DD24E-AE1F-8740-8196-940F65D004DF}" name="结束日期" dataDxfId="93"/>
     <tableColumn id="2" xr3:uid="{47EED8BC-BE76-6046-BB14-94A80BE6B0A8}" name="早起"/>
     <tableColumn id="3" xr3:uid="{D9303E20-6898-B040-8497-9DECA2022AE7}" name="阅读"/>
     <tableColumn id="4" xr3:uid="{4E494E69-C524-1548-AF28-7B330EE49257}" name="早餐"/>
@@ -42515,10 +42890,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C3BB0E91-848E-964A-9181-1A3D9710DE53}" name="表6" displayName="表6" ref="A39:B46" totalsRowShown="0" headerRowDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C3BB0E91-848E-964A-9181-1A3D9710DE53}" name="表6" displayName="表6" ref="A39:B46" totalsRowShown="0" headerRowDxfId="210">
   <autoFilter ref="A39:B46" xr:uid="{9DB4F5BB-7EEE-5C42-B898-F87F2AB355F2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{185C662B-51F4-1A4C-BF62-6B1DF39A5D32}" name="日期" dataDxfId="201"/>
+    <tableColumn id="1" xr3:uid="{185C662B-51F4-1A4C-BF62-6B1DF39A5D32}" name="日期" dataDxfId="209"/>
     <tableColumn id="2" xr3:uid="{D562D177-508F-A649-8BC2-3823E4B38B38}" name="总分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -42526,15 +42901,15 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5E1621F9-44E1-FB47-8780-E70FA311D489}" name="表6_111720618" displayName="表6_111720618" ref="A2:D3" totalsRowShown="0" headerRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5E1621F9-44E1-FB47-8780-E70FA311D489}" name="表6_111720618" displayName="表6_111720618" ref="A2:D3" totalsRowShown="0" headerRowDxfId="92">
   <autoFilter ref="A2:D3" xr:uid="{43C1B49E-0DA0-D841-8E55-276A96035E33}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{86BFD2FD-999A-B54C-8B1D-CA7F721B0C3B}" name="年" dataDxfId="83"/>
-    <tableColumn id="1" xr3:uid="{2A9F4283-C7DB-7140-B028-D526782E5C2A}" name="开始日期" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{C8405551-9194-4C4F-B1FE-2E522CF2FCB8}" name="结束日期" dataDxfId="81">
+    <tableColumn id="4" xr3:uid="{86BFD2FD-999A-B54C-8B1D-CA7F721B0C3B}" name="年" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{2A9F4283-C7DB-7140-B028-D526782E5C2A}" name="开始日期" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{C8405551-9194-4C4F-B1FE-2E522CF2FCB8}" name="结束日期" dataDxfId="89">
       <calculatedColumnFormula>EOMONTH(表6_111720618[[#This Row],[开始日期]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FFE693FA-7D5D-E944-BEA3-0818DF9C3FCB}" name="总分" dataDxfId="80">
+    <tableColumn id="5" xr3:uid="{FFE693FA-7D5D-E944-BEA3-0818DF9C3FCB}" name="总分" dataDxfId="88">
       <calculatedColumnFormula>SUMIFS(day!B40:B46,day!A40:A46,"&gt;="&amp;year!B3,day!A40:A46,"&lt;="&amp;year!C3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -42543,7 +42918,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{99106DF0-0F4A-1347-861B-685CFE863AC2}" name="表21_819" displayName="表21_819" ref="F2:AG3" totalsRowShown="0" headerRowDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{99106DF0-0F4A-1347-861B-685CFE863AC2}" name="表21_819" displayName="表21_819" ref="F2:AG3" totalsRowShown="0" headerRowDxfId="87">
   <autoFilter ref="F2:AG3" xr:uid="{D5B7652F-A481-AB4A-9F25-EE385E17EAF7}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{CA36F017-46C7-AA4B-9E3C-6535BF1E496A}" name="月次">
@@ -42555,79 +42930,79 @@
     <tableColumn id="3" xr3:uid="{2802CE8D-1137-5C47-B164-E24390AF1F77}" name="结束日期">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1EE0E8B3-8309-0148-B15F-77ED3708EA61}" name="0:00" dataDxfId="78">
+    <tableColumn id="4" xr3:uid="{1EE0E8B3-8309-0148-B15F-77ED3708EA61}" name="0:00" dataDxfId="86">
       <calculatedColumnFormula>SUMIFS(day!E40:E46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{004A2608-F441-C74C-8D63-C6EEFD5062A1}" name="1:00" dataDxfId="77">
+    <tableColumn id="5" xr3:uid="{004A2608-F441-C74C-8D63-C6EEFD5062A1}" name="1:00" dataDxfId="85">
       <calculatedColumnFormula>SUMIFS(day!F40:F46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{920CED35-CFF4-4E4F-B03C-2FE8F079F412}" name="2:00" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{920CED35-CFF4-4E4F-B03C-2FE8F079F412}" name="2:00" dataDxfId="84">
       <calculatedColumnFormula>SUMIFS(day!G40:G46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C623AFEE-3786-D743-9731-A06749124202}" name="3:00" dataDxfId="75">
+    <tableColumn id="7" xr3:uid="{C623AFEE-3786-D743-9731-A06749124202}" name="3:00" dataDxfId="83">
       <calculatedColumnFormula>SUMIFS(day!H40:H46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{546DDDC7-56D5-B944-B5E5-D2BC085BA51A}" name="4:00" dataDxfId="74">
+    <tableColumn id="8" xr3:uid="{546DDDC7-56D5-B944-B5E5-D2BC085BA51A}" name="4:00" dataDxfId="82">
       <calculatedColumnFormula>SUMIFS(day!I40:I46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0F2F2C41-9A34-3946-B9DC-9F2CC5E6FEBE}" name="5:00" dataDxfId="73">
+    <tableColumn id="9" xr3:uid="{0F2F2C41-9A34-3946-B9DC-9F2CC5E6FEBE}" name="5:00" dataDxfId="81">
       <calculatedColumnFormula>SUMIFS(day!J40:J46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E26E2FF0-A643-3442-9DA4-6AB1FBFD421E}" name="6:00" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{E26E2FF0-A643-3442-9DA4-6AB1FBFD421E}" name="6:00" dataDxfId="80">
       <calculatedColumnFormula>SUMIFS(day!K40:K46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{B7A9F1E8-0B21-B341-9814-28BBB207AFD3}" name="7:00" dataDxfId="71">
+    <tableColumn id="11" xr3:uid="{B7A9F1E8-0B21-B341-9814-28BBB207AFD3}" name="7:00" dataDxfId="79">
       <calculatedColumnFormula>SUMIFS(day!L40:L46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0B3A5293-BECB-4746-B4DD-F2C6941E46F1}" name="8:00" dataDxfId="70">
+    <tableColumn id="12" xr3:uid="{0B3A5293-BECB-4746-B4DD-F2C6941E46F1}" name="8:00" dataDxfId="78">
       <calculatedColumnFormula>SUMIFS(day!M40:M46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BA84FAE7-D868-9D47-A4D0-1DAA6DC0C242}" name="9:00" dataDxfId="69">
+    <tableColumn id="13" xr3:uid="{BA84FAE7-D868-9D47-A4D0-1DAA6DC0C242}" name="9:00" dataDxfId="77">
       <calculatedColumnFormula>SUMIFS(day!N40:N46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{75762DBF-95DD-D743-B349-69E88FD3880E}" name="10:00" dataDxfId="68">
+    <tableColumn id="14" xr3:uid="{75762DBF-95DD-D743-B349-69E88FD3880E}" name="10:00" dataDxfId="76">
       <calculatedColumnFormula>SUMIFS(day!O40:O46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{79BA31DD-64EA-7E42-9DEE-A6BDA046F678}" name="11:00" dataDxfId="67">
+    <tableColumn id="15" xr3:uid="{79BA31DD-64EA-7E42-9DEE-A6BDA046F678}" name="11:00" dataDxfId="75">
       <calculatedColumnFormula>SUMIFS(day!P40:P46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{91C7E3B0-C80B-CC49-BBDD-FD6467E6D7F9}" name="12:00" dataDxfId="66">
+    <tableColumn id="16" xr3:uid="{91C7E3B0-C80B-CC49-BBDD-FD6467E6D7F9}" name="12:00" dataDxfId="74">
       <calculatedColumnFormula>SUMIFS(day!Q40:Q46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{858FCEAD-7224-574B-AC80-D8C675E48365}" name="13:00" dataDxfId="65">
+    <tableColumn id="17" xr3:uid="{858FCEAD-7224-574B-AC80-D8C675E48365}" name="13:00" dataDxfId="73">
       <calculatedColumnFormula>SUMIFS(day!R40:R46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{982A826C-E2CA-F14A-B762-8C6160E2346E}" name="14:00" dataDxfId="64">
+    <tableColumn id="18" xr3:uid="{982A826C-E2CA-F14A-B762-8C6160E2346E}" name="14:00" dataDxfId="72">
       <calculatedColumnFormula>SUMIFS(day!S40:S46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1F01865B-2143-0341-8A3E-53FFBA389CC1}" name="15:00" dataDxfId="63">
+    <tableColumn id="19" xr3:uid="{1F01865B-2143-0341-8A3E-53FFBA389CC1}" name="15:00" dataDxfId="71">
       <calculatedColumnFormula>SUMIFS(day!T40:T46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{B10C887D-FB58-2B4B-8A51-4ADF8D5D6B83}" name="16:00" dataDxfId="62">
+    <tableColumn id="20" xr3:uid="{B10C887D-FB58-2B4B-8A51-4ADF8D5D6B83}" name="16:00" dataDxfId="70">
       <calculatedColumnFormula>SUMIFS(day!U40:U46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{90DFA2E3-8A31-AB42-BE1F-632D9F650273}" name="17:00" dataDxfId="61">
+    <tableColumn id="21" xr3:uid="{90DFA2E3-8A31-AB42-BE1F-632D9F650273}" name="17:00" dataDxfId="69">
       <calculatedColumnFormula>SUMIFS(day!V40:V46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{647E6212-69E4-2F4C-8518-5272C2C9D652}" name="18:00" dataDxfId="60">
+    <tableColumn id="22" xr3:uid="{647E6212-69E4-2F4C-8518-5272C2C9D652}" name="18:00" dataDxfId="68">
       <calculatedColumnFormula>SUMIFS(day!W40:W46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{87DAB4A5-7F45-0D4B-B584-96357D2BB9EF}" name="19:00" dataDxfId="59">
+    <tableColumn id="23" xr3:uid="{87DAB4A5-7F45-0D4B-B584-96357D2BB9EF}" name="19:00" dataDxfId="67">
       <calculatedColumnFormula>SUMIFS(day!X40:X46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{E2051823-E39E-FF46-B019-2D6558FF87F8}" name="20:00" dataDxfId="58">
+    <tableColumn id="24" xr3:uid="{E2051823-E39E-FF46-B019-2D6558FF87F8}" name="20:00" dataDxfId="66">
       <calculatedColumnFormula>SUMIFS(day!Y40:Y46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{4F8EEDF9-F8AA-B64E-96AE-4E2AE2E6EDFD}" name="21:00" dataDxfId="57">
+    <tableColumn id="25" xr3:uid="{4F8EEDF9-F8AA-B64E-96AE-4E2AE2E6EDFD}" name="21:00" dataDxfId="65">
       <calculatedColumnFormula>SUMIFS(day!Z40:Z46,day!D40:D46,"&gt;=" &amp; month!B3,day!D40:D46,"&lt;=" &amp; month!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{56483C1C-A9BB-9F4C-88F7-3C902944A38B}" name="22:00" dataDxfId="56">
+    <tableColumn id="26" xr3:uid="{56483C1C-A9BB-9F4C-88F7-3C902944A38B}" name="22:00" dataDxfId="64">
       <calculatedColumnFormula>SUMIFS(day!AA40:AA46,day!D40:D46,"&gt;=" &amp; week!B3,day!D40:D46,"&lt;=" &amp; week!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{D6706B71-E45D-A144-840D-2F82900440CB}" name="23:00" dataDxfId="55">
+    <tableColumn id="27" xr3:uid="{D6706B71-E45D-A144-840D-2F82900440CB}" name="23:00" dataDxfId="63">
       <calculatedColumnFormula>SUMIFS(day!AB40:AB46,day!D40:D46,"&gt;=" &amp; week!B3,day!D40:D46,"&lt;=" &amp; week!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{0F6B6743-510A-7D4B-A108-156F535473A1}" name="23:59" dataDxfId="54">
+    <tableColumn id="28" xr3:uid="{0F6B6743-510A-7D4B-A108-156F535473A1}" name="23:59" dataDxfId="62">
       <calculatedColumnFormula>SUMIFS(day!AC40:AC46,day!D40:D46,"&gt;=" &amp; week!B3,day!D40:D46,"&lt;=" &amp; week!C3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -42636,34 +43011,34 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{05243496-D14C-AA4F-908F-D366EF3FA097}" name="表9_231421" displayName="表9_231421" ref="AI2:AQ3" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{05243496-D14C-AA4F-908F-D366EF3FA097}" name="表9_231421" displayName="表9_231421" ref="AI2:AQ3" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="AI2:AQ3" xr:uid="{E68A7614-2C4D-AA40-ACB9-68915A732768}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F90E13CC-DC34-E445-8533-E5261E8BD5CA}" name="年" dataDxfId="52">
+    <tableColumn id="9" xr3:uid="{F90E13CC-DC34-E445-8533-E5261E8BD5CA}" name="年" dataDxfId="60">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6350A6AE-2423-DC4D-A68A-9695D230FA35}" name="开始日期" dataDxfId="51">
+    <tableColumn id="8" xr3:uid="{6350A6AE-2423-DC4D-A68A-9695D230FA35}" name="开始日期" dataDxfId="59">
       <calculatedColumnFormula>B3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{9567EDBE-B8C8-DC4F-9C02-A0159FA877E4}" name="结束日期" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{9567EDBE-B8C8-DC4F-9C02-A0159FA877E4}" name="结束日期" dataDxfId="58">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4E4CF3CD-EBF0-504D-A47C-37843C1197A9}" name="早起" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{4E4CF3CD-EBF0-504D-A47C-37843C1197A9}" name="早起" dataDxfId="57">
       <calculatedColumnFormula>SUMIFS(day!AF40:AF46,day!D40:D46,"&gt;=" &amp; year!B3,day!D40:D46,"&lt;=" &amp; year!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BEB7084C-5E50-FD43-8020-45BC1678773D}" name="阅读" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{BEB7084C-5E50-FD43-8020-45BC1678773D}" name="阅读" dataDxfId="56">
       <calculatedColumnFormula>SUMIFS(day!AG40:AG46,day!D40:D46,"&gt;=" &amp; year!B3,day!D40:D46,"&lt;=" &amp; year!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD85B345-31CB-EA41-AE6F-5F68F48608BF}" name="早餐" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{BD85B345-31CB-EA41-AE6F-5F68F48608BF}" name="早餐" dataDxfId="55">
       <calculatedColumnFormula>SUMIFS(day!AH40:AH46,day!D40:D46,"&gt;=" &amp; year!B3,day!D40:D46,"&lt;=" &amp; year!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{63576101-1B6B-2341-AB5A-20C22492B4D4}" name="锻炼" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{63576101-1B6B-2341-AB5A-20C22492B4D4}" name="锻炼" dataDxfId="54">
       <calculatedColumnFormula>SUMIFS(day!AI40:AI46,day!D40:D46,"&gt;=" &amp; year!B3,day!D40:D46,"&lt;=" &amp; year!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CDC782FD-4478-6F40-9C54-B3EC18EC7885}" name="日报" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{CDC782FD-4478-6F40-9C54-B3EC18EC7885}" name="日报" dataDxfId="53">
       <calculatedColumnFormula>SUMIFS(day!AJ40:AJ46,day!D40:D46,"&gt;=" &amp; year!B3,day!D40:D46,"&lt;=" &amp; year!C3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CF637469-E0A3-514B-980A-D1A528BA4796}" name="明日日程安排" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{CF637469-E0A3-514B-980A-D1A528BA4796}" name="明日日程安排" dataDxfId="52">
       <calculatedColumnFormula>SUMIFS(day!AK40:AK46,day!D40:D46,"&gt;=" &amp; year!B3,day!D40:D46,"&lt;=" &amp; year!C3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -42672,12 +43047,12 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{DFCD32C4-97BA-404C-AFCE-DAEFB5FAFE5B}" name="表24" displayName="表24" ref="A32:D33" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{DFCD32C4-97BA-404C-AFCE-DAEFB5FAFE5B}" name="表24" displayName="表24" ref="A32:D33" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="A32:D33" xr:uid="{B9A54E26-6357-944F-BC30-EEDB9045E75D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{643E787A-C144-9542-B8CF-714F36F12C5D}" name="年" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{79DFBD75-77EA-AE45-AD7C-D90947F16501}" name="开始日期" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{8E35A570-EE31-1246-A1CF-CA8E75EA6276}" name="结束日期" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{643E787A-C144-9542-B8CF-714F36F12C5D}" name="年" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{79DFBD75-77EA-AE45-AD7C-D90947F16501}" name="开始日期" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{8E35A570-EE31-1246-A1CF-CA8E75EA6276}" name="结束日期" dataDxfId="48"/>
     <tableColumn id="4" xr3:uid="{C514C71C-00A9-184B-B63C-5B882FF99DCA}" name="总分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -42685,12 +43060,12 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{57428EFB-AC66-9444-B5B4-A2D109B526B9}" name="表25" displayName="表25" ref="F32:AG33" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{57428EFB-AC66-9444-B5B4-A2D109B526B9}" name="表25" displayName="表25" ref="F32:AG33" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="F32:AG33" xr:uid="{28A7C99D-0396-7A42-9799-CC9C3DFC3EF2}"/>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{9925AE6C-512F-2643-B613-5A2E0B90C04C}" name="月次" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{419E1E6D-5975-4A44-919C-C806B2B80DC3}" name="开始日期" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{625A68D3-2705-A641-AFEB-E8577C71F26F}" name="结束日期" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{9925AE6C-512F-2643-B613-5A2E0B90C04C}" name="月次" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{419E1E6D-5975-4A44-919C-C806B2B80DC3}" name="开始日期" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{625A68D3-2705-A641-AFEB-E8577C71F26F}" name="结束日期" dataDxfId="44"/>
     <tableColumn id="4" xr3:uid="{005C042B-68D9-3441-8CC2-97ABE7CF8F3D}" name="0:00"/>
     <tableColumn id="5" xr3:uid="{56D56882-9CCD-0141-A3A0-B70F1723D930}" name="1:00"/>
     <tableColumn id="6" xr3:uid="{7658DC9F-DB41-544E-B1DB-7F6184EE244B}" name="2:00"/>
@@ -42722,12 +43097,12 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{FFDFE08B-C197-A549-B87D-47F3F152A965}" name="表26" displayName="表26" ref="AI32:AQ33" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{FFDFE08B-C197-A549-B87D-47F3F152A965}" name="表26" displayName="表26" ref="AI32:AQ33" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="AI32:AQ33" xr:uid="{5EE71B0C-4DFD-CC41-954A-E991049C87E5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{20168868-D0F6-0749-A068-05616127312F}" name="年" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{9E88FBE9-AFC8-554B-B10F-0ABACAB12064}" name="开始日期" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{FBCFA564-4B2C-234F-B5D8-308A63F59BFD}" name="结束日期" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{20168868-D0F6-0749-A068-05616127312F}" name="年" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{9E88FBE9-AFC8-554B-B10F-0ABACAB12064}" name="开始日期" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{FBCFA564-4B2C-234F-B5D8-308A63F59BFD}" name="结束日期" dataDxfId="40"/>
     <tableColumn id="4" xr3:uid="{9E79C8BC-3F74-E545-B35B-97B623AD4794}" name="早起"/>
     <tableColumn id="5" xr3:uid="{0EF52E61-E5B4-C44F-A328-9A38A7D0BA80}" name="阅读"/>
     <tableColumn id="6" xr3:uid="{3BC0FCE3-EC8A-3B49-A516-2000BA90E546}" name="早餐"/>
@@ -42740,10 +43115,10 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{1528455F-43AE-8E46-A206-57791B0B92B0}" name="表27" displayName="表27" ref="A2:B3" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{1528455F-43AE-8E46-A206-57791B0B92B0}" name="表27" displayName="表27" ref="A2:B3" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A2:B3" xr:uid="{F2FF5C52-1F1E-6B4A-9E2E-658E7557B947}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{330555E6-67AD-484E-A13F-C9144171AA0A}" name="日期" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{330555E6-67AD-484E-A13F-C9144171AA0A}" name="日期" dataDxfId="38"/>
     <tableColumn id="2" xr3:uid="{614D4327-21DF-1F45-8BF0-D3AEE13D76A6}" name="分数">
       <calculatedColumnFormula>SUMIFS(records[得分],records[日期],search!A3)</calculatedColumnFormula>
     </tableColumn>
@@ -42753,11 +43128,11 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{EBAD5BD2-DC53-FF45-8815-EEBFBFBF8B0A}" name="表28" displayName="表28" ref="A6:C7" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{EBAD5BD2-DC53-FF45-8815-EEBFBFBF8B0A}" name="表28" displayName="表28" ref="A6:C7" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A6:C7" xr:uid="{DEA2AB48-79F6-9B4B-82C2-49CD93AB8880}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C126EB6B-DB9E-7942-860E-9290D2AE6483}" name="开始日期" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{006E4A71-49A3-B647-A9DB-5337AA4469A0}" name="结束日期" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{C126EB6B-DB9E-7942-860E-9290D2AE6483}" name="开始日期" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{006E4A71-49A3-B647-A9DB-5337AA4469A0}" name="结束日期" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{47D88D29-DB31-AB45-A5E2-0EC48478154A}" name="分数">
       <calculatedColumnFormula>SUMIFS(records[得分],records[日期],"&gt;="&amp;search!A7,records[日期],"&lt;="&amp;search!B7)</calculatedColumnFormula>
     </tableColumn>
@@ -42767,11 +43142,11 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{41E2A18B-79C8-4940-BAAF-D3F30E703569}" name="表29" displayName="表29" ref="A10:C11" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{41E2A18B-79C8-4940-BAAF-D3F30E703569}" name="表29" displayName="表29" ref="A10:C11" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A10:C11" xr:uid="{EA616C29-DC58-AD4B-ABD5-98C6AD2FC64C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{19552E0F-CFA1-3D42-ABE0-EE61CEECB21D}" name="开始时间" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{4265D80D-CE0E-2C43-8B45-A52E7F440A92}" name="结束时间" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{19552E0F-CFA1-3D42-ABE0-EE61CEECB21D}" name="开始时间" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{4265D80D-CE0E-2C43-8B45-A52E7F440A92}" name="结束时间" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{04CE9F0D-0D25-4344-8D4C-EB2F915219C4}" name="分数">
       <calculatedColumnFormula>SUMIFS(records[得分],records[开始时刻],"&gt;="&amp;search!A11,records[开始时刻],"&lt;="&amp;search!B11)</calculatedColumnFormula>
     </tableColumn>
@@ -42781,12 +43156,12 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{A3F528D5-9946-EF4C-86F9-9E2D1CCB8B02}" name="表30" displayName="表30" ref="A14:D15" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{A3F528D5-9946-EF4C-86F9-9E2D1CCB8B02}" name="表30" displayName="表30" ref="A14:D15" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A14:D15" xr:uid="{89F8C143-1F1B-E344-BDE8-F8A37A512A08}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F6BF0760-3023-BE4B-A5CA-DBE999A8E6F2}" name="日期" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{3D0DB2C9-7E7F-EB4D-AAEC-CA4C70A8F91D}" name="开始时间" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{CE0DC205-E114-194C-B601-D92C1D5A9787}" name="结束时间" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{F6BF0760-3023-BE4B-A5CA-DBE999A8E6F2}" name="日期" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{3D0DB2C9-7E7F-EB4D-AAEC-CA4C70A8F91D}" name="开始时间" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{CE0DC205-E114-194C-B601-D92C1D5A9787}" name="结束时间" dataDxfId="28"/>
     <tableColumn id="4" xr3:uid="{C202E1AE-F6EF-8C44-B908-3B7125272410}" name="分数">
       <calculatedColumnFormula>SUMIFS(records[得分],records[日期],search!A15,records[开始时刻],"&gt;="&amp;search!B15,records[开始时刻],"&lt;="&amp;search!C15)</calculatedColumnFormula>
     </tableColumn>
@@ -42796,10 +43171,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{771BBBEE-E494-DE4F-B989-5B8BAD55F4D5}" name="表8" displayName="表8" ref="D39:AC46" totalsRowShown="0" headerRowDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{771BBBEE-E494-DE4F-B989-5B8BAD55F4D5}" name="表8" displayName="表8" ref="D39:AC46" totalsRowShown="0" headerRowDxfId="208">
   <autoFilter ref="D39:AC46" xr:uid="{7FF2F75D-3036-CF41-9C64-435805437521}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{7CC3CC82-5118-D542-B8B3-2773A184C633}" name="日期" dataDxfId="199"/>
+    <tableColumn id="1" xr3:uid="{7CC3CC82-5118-D542-B8B3-2773A184C633}" name="日期" dataDxfId="207"/>
     <tableColumn id="2" xr3:uid="{1FB14F06-242B-5649-B5A1-E964F969DAEF}" name="0:00"/>
     <tableColumn id="3" xr3:uid="{856EE34E-1B34-E14F-AEDD-931D92BF941F}" name="1:00"/>
     <tableColumn id="4" xr3:uid="{E3A12EF0-9E27-B340-A463-914A4062DEF6}" name="2:00"/>
@@ -42834,12 +43209,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{5A954375-5C20-B54E-8F3A-0FFEE02FD940}" name="表31" displayName="表31" ref="A2:H10" totalsRowShown="0">
   <autoFilter ref="A2:H10" xr:uid="{1EFA4EEC-822A-7449-9A8A-23DC41ABE02C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4E7CE900-22DD-714B-B734-45A4D027E774}" name="日期" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7A3991ED-B9BD-9843-8E68-4D51B39BE365}" name="开始时刻" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{2C2C1B2B-89D6-D44B-A509-EE45B2D14642}" name="结束时刻" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{4E7CE900-22DD-714B-B734-45A4D027E774}" name="日期" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{7A3991ED-B9BD-9843-8E68-4D51B39BE365}" name="开始时刻" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{2C2C1B2B-89D6-D44B-A509-EE45B2D14642}" name="结束时刻" dataDxfId="25">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2B17046A-E61E-F24D-828A-9679FCBE2963}" name="持续时间" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{2B17046A-E61E-F24D-828A-9679FCBE2963}" name="持续时间" dataDxfId="24">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{75058C96-0182-D244-80D9-0BA9B15DBE1A}" name="得分">
@@ -42856,6 +43231,60 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{31D7E7A6-DC60-4140-8077-68B159687F28}" name="表31_36" displayName="表31_36" ref="A3:H11" totalsRowShown="0">
+  <autoFilter ref="A3:H11" xr:uid="{848BBEB5-DCCD-3F4F-91E3-D2E7646FEA92}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3F343841-4748-8D4D-A46F-B6C820F737BE}" name="日期" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{029A3E6A-7D34-7446-8082-76E9CEF6555A}" name="开始时刻" dataDxfId="22">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{9477B905-F312-5B40-84B9-D68CB70074CF}" name="结束时刻" dataDxfId="21">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0D806ACC-0B7B-C844-92EA-E5D9A2E20181}" name="持续时间" dataDxfId="20">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{28890857-70F5-2445-9F43-D6D84A3722BB}" name="得分">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{807E94FE-5A1F-0441-90B0-C1F6A098D355}" name="得分备注">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A857A74A-27F5-3541-AD47-DD708C28DB56}" name="正连续天数2"/>
+    <tableColumn id="6" xr3:uid="{906FA0F7-EB31-5C40-8DD2-2B288AFB2DD9}" name="负连续天数"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E6B38119-3623-6244-9EAF-E485055F1811}" name="表31_3637" displayName="表31_3637" ref="J3:Q11" totalsRowShown="0">
+  <autoFilter ref="J3:Q11" xr:uid="{EB3CB43A-2FEC-5A4C-8A58-585136EBE8C8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8F4FD686-4CFB-E94D-A26A-8911EC02B20B}" name="日期" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{48F65186-1E24-DB4E-86BF-56A24822844D}" name="开始时刻" dataDxfId="18">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{45F0A9DE-7326-A042-B3F8-EE6D252AC3D7}" name="结束时刻" dataDxfId="17">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{8521E60A-5547-1E44-88DA-B20BBC60E089}" name="持续时间" dataDxfId="16">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B8917C9C-1D30-8243-902F-74E256FFDCB4}" name="得分">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F30DECEC-5ACC-8C44-9C21-399302BFB0E1}" name="得分备注">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4BF5A52B-EE10-AC40-86F0-2AB79D9304AD}" name="正连续天数2"/>
+    <tableColumn id="6" xr3:uid="{0FB5252E-1FB9-4744-91F1-C3A5CCA43FA9}" name="负连续天数"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5E103895-A410-B44F-A0FD-679C7AE85807}" name="表31_24" displayName="表31_24" ref="A2:H10" totalsRowShown="0">
   <autoFilter ref="A2:H10" xr:uid="{6223C41C-E09C-5647-9085-4FB0A0D87DF6}"/>
   <tableColumns count="8">
@@ -42882,7 +43311,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{2F627844-7667-424A-BDED-6098ED2EAAA1}" name="表31_33" displayName="表31_33" ref="A2:H13" totalsRowShown="0">
   <autoFilter ref="A2:H13" xr:uid="{02CB6C5F-CAC1-D347-893E-438E30C15643}"/>
   <tableColumns count="8">
@@ -42909,7 +43338,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{B8DB747F-8DCB-B248-93AD-368C58B147FF}" name="表31_34" displayName="表31_34" ref="A2:H13" totalsRowShown="0">
   <autoFilter ref="A2:H13" xr:uid="{640EBBDD-4252-F44C-87AC-0086FBD145B5}"/>
   <tableColumns count="8">
@@ -42936,7 +43365,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{ADF757C6-755D-4640-B47D-4D975140C570}" name="表31_3435" displayName="表31_3435" ref="A2:H13" totalsRowShown="0">
   <autoFilter ref="A2:H13" xr:uid="{A31FA149-E606-664B-BEE7-36127220C4F1}"/>
   <tableColumns count="8">
@@ -42964,10 +43393,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CDCEE910-3E93-7142-A68E-D7FED83A4148}" name="表9" displayName="表9" ref="AE39:AK46" totalsRowShown="0" headerRowDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CDCEE910-3E93-7142-A68E-D7FED83A4148}" name="表9" displayName="表9" ref="AE39:AK46" totalsRowShown="0" headerRowDxfId="206">
   <autoFilter ref="AE39:AK46" xr:uid="{32721A3C-D43B-B44A-A532-224E35D93488}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A65BE20C-9509-C345-9026-2A84C31AD05B}" name="日期" dataDxfId="197"/>
+    <tableColumn id="1" xr3:uid="{A65BE20C-9509-C345-9026-2A84C31AD05B}" name="日期" dataDxfId="205"/>
     <tableColumn id="2" xr3:uid="{87D83B7E-7C03-4742-B564-D5FEFFC43FB8}" name="早起"/>
     <tableColumn id="3" xr3:uid="{D9D48BF1-1E42-0647-9CE5-F877259E2309}" name="阅读"/>
     <tableColumn id="4" xr3:uid="{463197DE-1FB3-384A-9B24-57A2AAE13ADF}" name="早餐"/>
@@ -42980,10 +43409,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D18A12F3-0A8D-FC4A-A738-D162C1AD8D43}" name="表6_11" displayName="表6_11" ref="A2:B9" totalsRowShown="0" headerRowDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D18A12F3-0A8D-FC4A-A738-D162C1AD8D43}" name="表6_11" displayName="表6_11" ref="A2:B9" totalsRowShown="0" headerRowDxfId="204">
   <autoFilter ref="A2:B9" xr:uid="{C2B3B872-635D-5245-974F-2BA0C18A3391}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F3E2ECB0-C6E4-6B45-9E91-EC20B25E2978}" name="日期" dataDxfId="195"/>
+    <tableColumn id="1" xr3:uid="{F3E2ECB0-C6E4-6B45-9E91-EC20B25E2978}" name="日期" dataDxfId="203"/>
     <tableColumn id="2" xr3:uid="{461DA2CA-6149-FF49-B9A8-48A101AE768E}" name="总分"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -42991,9 +43420,9 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AEA88512-8A0D-DB48-9C01-D75E46E7A368}" name="表8_12" displayName="表8_12" ref="D2:AC9" totalsRowShown="0" headerRowDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AEA88512-8A0D-DB48-9C01-D75E46E7A368}" name="表8_12" displayName="表8_12" ref="D2:AC9" totalsRowShown="0" headerRowDxfId="202">
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{690E91D5-AFA5-7E48-B86D-73C56CE28AF9}" name="日期" dataDxfId="193"/>
+    <tableColumn id="1" xr3:uid="{690E91D5-AFA5-7E48-B86D-73C56CE28AF9}" name="日期" dataDxfId="201"/>
     <tableColumn id="2" xr3:uid="{7351BF46-02E7-2F4A-BC99-8C057D9DA4AF}" name="0:00"/>
     <tableColumn id="3" xr3:uid="{5F504154-9925-D14B-8B8A-E0CE803995F9}" name="1:00"/>
     <tableColumn id="4" xr3:uid="{AE08154A-3AF0-A749-8B12-72076BA2276A}" name="2:00"/>
@@ -43025,10 +43454,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7FC42634-9AE0-EC46-8397-5A7BA2A40876}" name="表9_13" displayName="表9_13" ref="AE2:AK9" totalsRowShown="0" headerRowDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7FC42634-9AE0-EC46-8397-5A7BA2A40876}" name="表9_13" displayName="表9_13" ref="AE2:AK9" totalsRowShown="0" headerRowDxfId="200">
   <autoFilter ref="AE2:AK9" xr:uid="{B8D1569D-3F70-C84F-A099-E5A649E4005E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8723A9A0-EBFC-634A-9F67-3396A6EE73F5}" name="日期" dataDxfId="191"/>
+    <tableColumn id="1" xr3:uid="{8723A9A0-EBFC-634A-9F67-3396A6EE73F5}" name="日期" dataDxfId="199"/>
     <tableColumn id="2" xr3:uid="{C4035F4C-529D-E245-9881-F1A4BF201CE5}" name="早起"/>
     <tableColumn id="3" xr3:uid="{B55F1B2B-EB9D-664F-BF5A-DBC1CEF6632B}" name="阅读"/>
     <tableColumn id="4" xr3:uid="{DDB02D78-CAEC-5745-944E-FBF75CBAFC41}" name="早餐"/>
@@ -43041,22 +43470,22 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{38EC559A-B2AF-8E4E-B5FE-C1132A44822D}" name="表6_111720" displayName="表6_111720" ref="A2:D5" totalsRowShown="0" headerRowDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{38EC559A-B2AF-8E4E-B5FE-C1132A44822D}" name="表6_111720" displayName="表6_111720" ref="A2:D5" totalsRowShown="0" headerRowDxfId="198">
   <autoFilter ref="A2:D5" xr:uid="{73C8ED0E-89DB-9C48-BDC7-129B7DD3B516}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{E8F22F49-5255-7F45-9F64-BE13590E2197}" name="周次" dataDxfId="189"/>
-    <tableColumn id="1" xr3:uid="{34C510A8-E5B7-0244-B5C8-12177BE8D48A}" name="开始日期" dataDxfId="188"/>
-    <tableColumn id="2" xr3:uid="{AE448AF4-125B-334F-ADED-8C91C5932B41}" name="结束日期" dataDxfId="187">
+    <tableColumn id="4" xr3:uid="{E8F22F49-5255-7F45-9F64-BE13590E2197}" name="周次" dataDxfId="197"/>
+    <tableColumn id="1" xr3:uid="{34C510A8-E5B7-0244-B5C8-12177BE8D48A}" name="开始日期" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{AE448AF4-125B-334F-ADED-8C91C5932B41}" name="结束日期" dataDxfId="195">
       <calculatedColumnFormula>SUMIF(records[日期],表6_111720[[#This Row],[开始日期]],records[得分])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9107762F-F8CA-C546-9CBA-5ED57C2C1241}" name="总分" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{9107762F-F8CA-C546-9CBA-5ED57C2C1241}" name="总分" dataDxfId="194"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{CF602050-9A6C-4C4B-8F23-2D0DFC4E968E}" name="表21" displayName="表21" ref="F2:AG5" totalsRowShown="0" headerRowDxfId="185">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{CF602050-9A6C-4C4B-8F23-2D0DFC4E968E}" name="表21" displayName="表21" ref="F2:AG5" totalsRowShown="0" headerRowDxfId="193">
   <autoFilter ref="F2:AG5" xr:uid="{93E3DAB2-BD19-8E43-AD51-88491ECA9868}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{34779FC1-2A0B-F34C-8C39-66BBBB0F67FE}" name="周次">
@@ -43068,31 +43497,31 @@
     <tableColumn id="3" xr3:uid="{83701717-56EB-C247-92F9-42FA784B17E2}" name="结束日期">
       <calculatedColumnFormula>C3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7C4E4B36-2C5F-AE4E-8705-C0761819EA05}" name="0:00" dataDxfId="184"/>
-    <tableColumn id="5" xr3:uid="{7BAC07BB-C3E2-5E47-B336-0C2FA72578A8}" name="1:00" dataDxfId="183"/>
-    <tableColumn id="6" xr3:uid="{C9D9CDE5-4165-814C-850C-021F7B720492}" name="2:00" dataDxfId="182"/>
-    <tableColumn id="7" xr3:uid="{F521A9F1-FECB-A14C-86AB-E3C2C78448BE}" name="3:00" dataDxfId="181"/>
-    <tableColumn id="8" xr3:uid="{2DF4E8ED-7EFF-9944-A177-822AF04AACFF}" name="4:00" dataDxfId="180"/>
-    <tableColumn id="9" xr3:uid="{93E871DB-2F0E-FF4E-BCBF-116C9ECB4084}" name="5:00" dataDxfId="179"/>
-    <tableColumn id="10" xr3:uid="{A9AB3E00-79F4-D141-A6B7-507ACE2C4465}" name="6:00" dataDxfId="178"/>
-    <tableColumn id="11" xr3:uid="{F8D62F52-44B3-C143-86B6-80CFC3F0875F}" name="7:00" dataDxfId="177"/>
-    <tableColumn id="12" xr3:uid="{C1E0D108-CB17-0D47-BFB7-BB628FBF7506}" name="8:00" dataDxfId="176"/>
-    <tableColumn id="13" xr3:uid="{3572E0ED-A656-F743-A16B-45DA2A254A41}" name="9:00" dataDxfId="175"/>
-    <tableColumn id="14" xr3:uid="{92CB3AA2-1BEA-B448-864F-6429591D84CB}" name="10:00" dataDxfId="174"/>
-    <tableColumn id="15" xr3:uid="{FD913EA8-A20F-214D-9FC4-A52297C30824}" name="11:00" dataDxfId="173"/>
-    <tableColumn id="16" xr3:uid="{6DFB7B2F-8426-854E-B1D3-D348E3053963}" name="12:00" dataDxfId="172"/>
-    <tableColumn id="17" xr3:uid="{898CE44E-8451-2D4A-9C57-A6CB3594F535}" name="13:00" dataDxfId="171"/>
-    <tableColumn id="18" xr3:uid="{D90C7617-FDB1-084A-8455-45126BB50E25}" name="14:00" dataDxfId="170"/>
-    <tableColumn id="19" xr3:uid="{5308EEE5-A301-3742-8B50-875F70E10B90}" name="15:00" dataDxfId="169"/>
-    <tableColumn id="20" xr3:uid="{D1D06A27-319D-B64A-A510-5901A1F6DC05}" name="16:00" dataDxfId="168"/>
-    <tableColumn id="21" xr3:uid="{37A741B5-B95B-534B-A646-944675A25265}" name="17:00" dataDxfId="167"/>
-    <tableColumn id="22" xr3:uid="{E04B67FA-631F-C141-B688-75F89ECCFBC4}" name="18:00" dataDxfId="166"/>
-    <tableColumn id="23" xr3:uid="{2920D30B-BBE3-3947-BFA8-08EE5577B44B}" name="19:00" dataDxfId="165"/>
-    <tableColumn id="24" xr3:uid="{C36A7B9B-3400-3944-B0C7-7061A6638255}" name="20:00" dataDxfId="164"/>
-    <tableColumn id="25" xr3:uid="{F9C1834C-B4EE-9448-BD42-ABAC800EBB61}" name="21:00" dataDxfId="163"/>
-    <tableColumn id="26" xr3:uid="{43E37A04-7A1D-2542-B71B-74086D3D27E9}" name="22:00" dataDxfId="162"/>
-    <tableColumn id="27" xr3:uid="{14BAE480-B828-884C-94D1-B117BC2998A6}" name="23:00" dataDxfId="161"/>
-    <tableColumn id="28" xr3:uid="{48670C2B-C1F7-BD43-BD80-09240B4FCE74}" name="23:59" dataDxfId="160"/>
+    <tableColumn id="4" xr3:uid="{7C4E4B36-2C5F-AE4E-8705-C0761819EA05}" name="0:00" dataDxfId="192"/>
+    <tableColumn id="5" xr3:uid="{7BAC07BB-C3E2-5E47-B336-0C2FA72578A8}" name="1:00" dataDxfId="191"/>
+    <tableColumn id="6" xr3:uid="{C9D9CDE5-4165-814C-850C-021F7B720492}" name="2:00" dataDxfId="190"/>
+    <tableColumn id="7" xr3:uid="{F521A9F1-FECB-A14C-86AB-E3C2C78448BE}" name="3:00" dataDxfId="189"/>
+    <tableColumn id="8" xr3:uid="{2DF4E8ED-7EFF-9944-A177-822AF04AACFF}" name="4:00" dataDxfId="188"/>
+    <tableColumn id="9" xr3:uid="{93E871DB-2F0E-FF4E-BCBF-116C9ECB4084}" name="5:00" dataDxfId="187"/>
+    <tableColumn id="10" xr3:uid="{A9AB3E00-79F4-D141-A6B7-507ACE2C4465}" name="6:00" dataDxfId="186"/>
+    <tableColumn id="11" xr3:uid="{F8D62F52-44B3-C143-86B6-80CFC3F0875F}" name="7:00" dataDxfId="185"/>
+    <tableColumn id="12" xr3:uid="{C1E0D108-CB17-0D47-BFB7-BB628FBF7506}" name="8:00" dataDxfId="184"/>
+    <tableColumn id="13" xr3:uid="{3572E0ED-A656-F743-A16B-45DA2A254A41}" name="9:00" dataDxfId="183"/>
+    <tableColumn id="14" xr3:uid="{92CB3AA2-1BEA-B448-864F-6429591D84CB}" name="10:00" dataDxfId="182"/>
+    <tableColumn id="15" xr3:uid="{FD913EA8-A20F-214D-9FC4-A52297C30824}" name="11:00" dataDxfId="181"/>
+    <tableColumn id="16" xr3:uid="{6DFB7B2F-8426-854E-B1D3-D348E3053963}" name="12:00" dataDxfId="180"/>
+    <tableColumn id="17" xr3:uid="{898CE44E-8451-2D4A-9C57-A6CB3594F535}" name="13:00" dataDxfId="179"/>
+    <tableColumn id="18" xr3:uid="{D90C7617-FDB1-084A-8455-45126BB50E25}" name="14:00" dataDxfId="178"/>
+    <tableColumn id="19" xr3:uid="{5308EEE5-A301-3742-8B50-875F70E10B90}" name="15:00" dataDxfId="177"/>
+    <tableColumn id="20" xr3:uid="{D1D06A27-319D-B64A-A510-5901A1F6DC05}" name="16:00" dataDxfId="176"/>
+    <tableColumn id="21" xr3:uid="{37A741B5-B95B-534B-A646-944675A25265}" name="17:00" dataDxfId="175"/>
+    <tableColumn id="22" xr3:uid="{E04B67FA-631F-C141-B688-75F89ECCFBC4}" name="18:00" dataDxfId="174"/>
+    <tableColumn id="23" xr3:uid="{2920D30B-BBE3-3947-BFA8-08EE5577B44B}" name="19:00" dataDxfId="173"/>
+    <tableColumn id="24" xr3:uid="{C36A7B9B-3400-3944-B0C7-7061A6638255}" name="20:00" dataDxfId="172"/>
+    <tableColumn id="25" xr3:uid="{F9C1834C-B4EE-9448-BD42-ABAC800EBB61}" name="21:00" dataDxfId="171"/>
+    <tableColumn id="26" xr3:uid="{43E37A04-7A1D-2542-B71B-74086D3D27E9}" name="22:00" dataDxfId="170"/>
+    <tableColumn id="27" xr3:uid="{14BAE480-B828-884C-94D1-B117BC2998A6}" name="23:00" dataDxfId="169"/>
+    <tableColumn id="28" xr3:uid="{48670C2B-C1F7-BD43-BD80-09240B4FCE74}" name="23:59" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -43395,10 +43824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -43661,15 +44090,15 @@
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="8" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="8" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D9" s="10" t="str">
+      <c r="D9" s="8" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 8 周</v>
       </c>
@@ -43677,20 +44106,20 @@
         <v>43884</v>
       </c>
       <c r="F9" s="9">
-        <v>0.875</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="G9" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H9" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.166666666666663E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.1</v>
+        <v>147</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-0.1</v>
       </c>
       <c r="K9" s="10"/>
       <c r="M9" s="5"/>
@@ -43718,20 +44147,20 @@
         <v>43884</v>
       </c>
       <c r="F10" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="G10" s="9">
         <v>0.91666666666666663</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.9375</v>
       </c>
       <c r="H10" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="2">
-        <v>-0.1</v>
+        <v>12</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.1</v>
       </c>
       <c r="K10" s="10"/>
       <c r="M10" s="5"/>
@@ -43759,20 +44188,20 @@
         <v>43884</v>
       </c>
       <c r="F11" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G11" s="9">
         <v>0.9375</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.94791666666666663</v>
       </c>
       <c r="H11" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.041666666666663E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0.1</v>
+        <v>23</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-0.1</v>
       </c>
       <c r="K11" s="10"/>
       <c r="M11" s="5"/>
@@ -43800,20 +44229,20 @@
         <v>43884</v>
       </c>
       <c r="F12" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="G12" s="9">
         <v>0.94791666666666663</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.95833333333333337</v>
       </c>
       <c r="H12" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.0416666666666741E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J12" s="10">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="10"/>
       <c r="M12" s="5"/>
@@ -43835,30 +44264,28 @@
       </c>
       <c r="D13" s="10" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 9 周</v>
+        <v>第 8 周</v>
       </c>
       <c r="E13" s="8">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="G13" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="H13" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>14</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="K13" s="10"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -43894,13 +44321,13 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J14" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="3"/>
@@ -43937,13 +44364,13 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" s="10">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="3"/>
@@ -43970,22 +44397,24 @@
         <v>43885</v>
       </c>
       <c r="F16" s="9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G16" s="9">
-        <v>0.25</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="H16" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J16" s="10">
-        <v>-0.2</v>
-      </c>
-      <c r="K16" s="10"/>
+        <v>0.09</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="10" t="str">
@@ -44011,17 +44440,17 @@
         <v>0.25</v>
       </c>
       <c r="G17" s="9">
-        <v>0.25347222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="H17" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>3.4722222222222099E-3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="2">
-        <v>-0.1</v>
+        <v>6</v>
+      </c>
+      <c r="J17" s="10">
+        <v>-0.2</v>
       </c>
       <c r="K17" s="10"/>
     </row>
@@ -44046,20 +44475,20 @@
         <v>43885</v>
       </c>
       <c r="F18" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="9">
         <v>0.25347222222222221</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0.29722222222222222</v>
       </c>
       <c r="H18" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.3750000000000011E-2</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="10">
-        <v>-0.2</v>
+        <v>97</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-0.1</v>
       </c>
       <c r="K18" s="10"/>
     </row>
@@ -44084,17 +44513,17 @@
         <v>43885</v>
       </c>
       <c r="F19" s="9">
-        <v>0.30208333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="G19" s="9">
-        <v>0.32291666666666669</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H19" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
+        <v>4.3750000000000011E-2</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J19" s="10">
         <v>-0.2</v>
@@ -44122,20 +44551,20 @@
         <v>43885</v>
       </c>
       <c r="F20" s="9">
-        <v>0.875</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="G20" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="H20" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.166666666666663E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J20" s="10">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="K20" s="10"/>
     </row>
@@ -44144,15 +44573,15 @@
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="8" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C21" s="10" t="str">
+      <c r="C21" s="8" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D21" s="10" t="str">
+      <c r="D21" s="8" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
@@ -44160,17 +44589,17 @@
         <v>43885</v>
       </c>
       <c r="F21" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="G21" s="9">
-        <v>0.9375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H21" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="J21" s="2">
         <v>-0.2</v>
@@ -44198,17 +44627,17 @@
         <v>43885</v>
       </c>
       <c r="F22" s="9">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
       <c r="G22" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="H22" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.041666666666663E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="10">
         <v>0.1</v>
@@ -44236,20 +44665,20 @@
         <v>43885</v>
       </c>
       <c r="F23" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G23" s="9">
-        <v>0.95833333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="H23" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.0416666666666741E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="10">
-        <v>0.1</v>
+        <v>23</v>
+      </c>
+      <c r="J23" s="2">
+        <v>-0.2</v>
       </c>
       <c r="K23" s="10"/>
     </row>
@@ -44271,20 +44700,20 @@
         <v>第 9 周</v>
       </c>
       <c r="E24" s="8">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="F24" s="9">
-        <v>0.25</v>
+        <v>0.9375</v>
       </c>
       <c r="G24" s="9">
-        <v>0.25</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="H24" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J24" s="10">
         <v>0.1</v>
@@ -44309,22 +44738,22 @@
         <v>第 9 周</v>
       </c>
       <c r="E25" s="8">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="F25" s="9">
-        <v>0.25</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="G25" s="9">
-        <v>0.25347222222222221</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="H25" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>3.4722222222222099E-3</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="2">
+        <v>54</v>
+      </c>
+      <c r="J25" s="10">
         <v>0.1</v>
       </c>
       <c r="K25" s="10"/>
@@ -44350,17 +44779,17 @@
         <v>43886</v>
       </c>
       <c r="F26" s="9">
-        <v>0.25347222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="G26" s="9">
-        <v>0.29722222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="H26" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.3750000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J26" s="10">
         <v>0.1</v>
@@ -44388,17 +44817,17 @@
         <v>43886</v>
       </c>
       <c r="F27" s="9">
-        <v>0.30208333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="G27" s="9">
-        <v>0.32291666666666669</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="H27" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="J27" s="2">
         <v>0.1</v>
@@ -44426,19 +44855,19 @@
         <v>43886</v>
       </c>
       <c r="F28" s="9">
-        <v>0.33333333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="G28" s="9">
-        <v>0.33333333333333331</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H28" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>4.3750000000000011E-2</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="2">
+        <v>11</v>
+      </c>
+      <c r="J28" s="10">
         <v>0.1</v>
       </c>
       <c r="K28" s="10"/>
@@ -44464,17 +44893,17 @@
         <v>43886</v>
       </c>
       <c r="F29" s="9">
-        <v>0.375</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="G29" s="9">
-        <v>0.375</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="H29" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J29" s="2">
         <v>0.1</v>
@@ -44486,15 +44915,15 @@
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="8" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C30" s="10" t="str">
+      <c r="C30" s="8" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D30" s="10" t="str">
+      <c r="D30" s="8" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
@@ -44502,17 +44931,17 @@
         <v>43886</v>
       </c>
       <c r="F30" s="9">
-        <v>0.375</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="G30" s="9">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H30" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="J30" s="2">
         <v>0.1</v>
@@ -44540,17 +44969,17 @@
         <v>43886</v>
       </c>
       <c r="F31" s="9">
-        <v>0.4375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G31" s="9">
-        <v>0.4375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H31" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
         <v>0</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J31" s="2">
         <v>0.1</v>
@@ -44578,19 +45007,19 @@
         <v>43886</v>
       </c>
       <c r="F32" s="9">
-        <v>0.77083333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="G32" s="9">
-        <v>0.77083333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="H32" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
         <v>0</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="10">
+        <v>24</v>
+      </c>
+      <c r="J32" s="2">
         <v>0.1</v>
       </c>
       <c r="K32" s="10"/>
@@ -44616,24 +45045,22 @@
         <v>43886</v>
       </c>
       <c r="F33" s="9">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="G33" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="H33" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J33" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="str">
@@ -44656,24 +45083,22 @@
         <v>43886</v>
       </c>
       <c r="F34" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="G34" s="9">
-        <v>0.9375</v>
+        <v>0.4375</v>
       </c>
       <c r="H34" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J34" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="str">
@@ -44696,24 +45121,22 @@
         <v>43886</v>
       </c>
       <c r="F35" s="9">
-        <v>0.9375</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="G35" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="H35" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="str">
@@ -44736,17 +45159,17 @@
         <v>43886</v>
       </c>
       <c r="F36" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="G36" s="9">
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="H36" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.0416666666666741E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="2">
         <v>0.2</v>
@@ -44773,27 +45196,25 @@
         <v>第 9 周</v>
       </c>
       <c r="E37" s="8">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="F37" s="9">
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G37" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.9375</v>
       </c>
       <c r="H37" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>70</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="J37" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>73</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="str">
@@ -44813,25 +45234,27 @@
         <v>第 9 周</v>
       </c>
       <c r="E38" s="8">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="F38" s="9">
-        <v>0.25</v>
+        <v>0.9375</v>
       </c>
       <c r="G38" s="9">
-        <v>0.25</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="H38" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J38" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K38" s="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="str">
@@ -44851,25 +45274,27 @@
         <v>第 9 周</v>
       </c>
       <c r="E39" s="8">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="F39" s="9">
-        <v>0.25</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="G39" s="9">
-        <v>0.25347222222222221</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="H39" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>3.4722222222222099E-3</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="J39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K39" s="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="str">
@@ -44892,22 +45317,24 @@
         <v>43887</v>
       </c>
       <c r="F40" s="9">
-        <v>0.25347222222222221</v>
+        <v>0</v>
       </c>
       <c r="G40" s="9">
-        <v>0.29722222222222222</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="H40" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>11</v>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="J40" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K40" s="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="str">
@@ -44930,17 +45357,17 @@
         <v>43887</v>
       </c>
       <c r="F41" s="9">
-        <v>0.30208333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="G41" s="9">
-        <v>0.32291666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="H41" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J41" s="2">
         <v>0.1</v>
@@ -44968,24 +45395,22 @@
         <v>43887</v>
       </c>
       <c r="F42" s="9">
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="G42" s="9">
-        <v>0.33333333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="H42" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>70</v>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="J42" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>71</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="10" t="str">
@@ -45008,20 +45433,20 @@
         <v>43887</v>
       </c>
       <c r="F43" s="9">
-        <v>0.875</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="G43" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H43" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.166666666666663E-2</v>
+        <v>4.3750000000000011E-2</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J43" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K43" s="10"/>
     </row>
@@ -45046,20 +45471,20 @@
         <v>43887</v>
       </c>
       <c r="F44" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="G44" s="9">
-        <v>0.9375</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="H44" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J44" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K44" s="10"/>
     </row>
@@ -45068,15 +45493,15 @@
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="8" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C45" s="10" t="str">
+      <c r="C45" s="8" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D45" s="10" t="str">
+      <c r="D45" s="8" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
@@ -45084,20 +45509,20 @@
         <v>43887</v>
       </c>
       <c r="F45" s="9">
-        <v>0.9375</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="G45" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H45" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="J45" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K45" s="10"/>
     </row>
@@ -45122,22 +45547,24 @@
         <v>43887</v>
       </c>
       <c r="F46" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G46" s="9">
-        <v>0.95833333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H46" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.0416666666666741E-2</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="J46" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K46" s="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="str">
@@ -45157,27 +45584,25 @@
         <v>第 9 周</v>
       </c>
       <c r="E47" s="8">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="F47" s="9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="G47" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="H47" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="J47" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>102</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="10" t="str">
@@ -45197,27 +45622,25 @@
         <v>第 9 周</v>
       </c>
       <c r="E48" s="8">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="F48" s="9">
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G48" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.9375</v>
       </c>
       <c r="H48" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>142</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="J48" s="2">
-        <v>-0.43</v>
-      </c>
-      <c r="K48" s="24">
-        <v>0.57369999999999999</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="str">
@@ -45237,27 +45660,25 @@
         <v>第 9 周</v>
       </c>
       <c r="E49" s="8">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="F49" s="9">
-        <v>0.25</v>
+        <v>0.9375</v>
       </c>
       <c r="G49" s="9">
-        <v>0.25</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="H49" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J49" s="2">
         <v>0.2</v>
       </c>
-      <c r="K49" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="str">
@@ -45277,27 +45698,25 @@
         <v>第 9 周</v>
       </c>
       <c r="E50" s="8">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="F50" s="9">
-        <v>0.25</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="G50" s="9">
-        <v>0.25347222222222221</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="H50" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>3.4722222222222099E-3</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>97</v>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J50" s="2">
         <v>0.2</v>
       </c>
-      <c r="K50" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="str">
@@ -45320,23 +45739,23 @@
         <v>43888</v>
       </c>
       <c r="F51" s="9">
-        <v>0.25347222222222221</v>
+        <v>0</v>
       </c>
       <c r="G51" s="9">
-        <v>0.29722222222222222</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="H51" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.3750000000000011E-2</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J51" s="2">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -45360,23 +45779,23 @@
         <v>43888</v>
       </c>
       <c r="F52" s="9">
-        <v>0.30208333333333331</v>
+        <v>0</v>
       </c>
       <c r="G52" s="9">
-        <v>0.32291666666666669</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="H52" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>20</v>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="J52" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>72</v>
+        <v>-0.43</v>
+      </c>
+      <c r="K52" s="24">
+        <v>0.57369999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -45400,22 +45819,24 @@
         <v>43888</v>
       </c>
       <c r="F53" s="9">
-        <v>0.875</v>
+        <v>0.25</v>
       </c>
       <c r="G53" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="H53" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.166666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J53" s="2">
         <v>0.2</v>
       </c>
-      <c r="K53" s="10"/>
+      <c r="K53" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="str">
@@ -45438,22 +45859,24 @@
         <v>43888</v>
       </c>
       <c r="F54" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.25</v>
       </c>
       <c r="G54" s="9">
-        <v>0.9375</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="H54" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>23</v>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="J54" s="2">
         <v>0.2</v>
       </c>
-      <c r="K54" s="10"/>
+      <c r="K54" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="str">
@@ -45476,22 +45899,24 @@
         <v>43888</v>
       </c>
       <c r="F55" s="9">
-        <v>0.9375</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="G55" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H55" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.041666666666663E-2</v>
+        <v>4.3750000000000011E-2</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J55" s="2">
         <v>0.2</v>
       </c>
-      <c r="K55" s="10"/>
+      <c r="K55" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="str">
@@ -45514,37 +45939,39 @@
         <v>43888</v>
       </c>
       <c r="F56" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="G56" s="9">
-        <v>0.95833333333333337</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="H56" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.0416666666666741E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J56" s="2">
         <v>0.2</v>
       </c>
-      <c r="K56" s="10"/>
+      <c r="K56" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B57" s="10" t="str">
+      <c r="B57" s="8" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C57" s="10" t="str">
+      <c r="C57" s="8" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D57" s="10" t="str">
+      <c r="D57" s="8" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
@@ -45552,23 +45979,23 @@
         <v>43888</v>
       </c>
       <c r="F57" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="G57" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H57" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="J57" s="2">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -45592,219 +46019,217 @@
         <v>43888</v>
       </c>
       <c r="F58" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.875</v>
       </c>
       <c r="G58" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="H58" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="J58" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="K58" s="10"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B59" s="8" t="str">
+      <c r="B59" s="10" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C59" s="8" t="str">
+      <c r="C59" s="10" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D59" s="8" t="str">
+      <c r="D59" s="10" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
       <c r="E59" s="8">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="F59" s="9">
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G59" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.9375</v>
       </c>
       <c r="H59" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="J59" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K59" s="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="60" spans="1:11" ht="18">
+    <row r="60" spans="1:11">
       <c r="A60" s="10" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B60" s="8" t="str">
+      <c r="B60" s="10" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C60" s="8" t="str">
+      <c r="C60" s="10" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D60" s="8" t="str">
+      <c r="D60" s="10" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
       <c r="E60" s="8">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="F60" s="9">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="G60" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="H60" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="J60" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="K60" s="21" t="s">
-        <v>135</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" ht="18">
+    <row r="61" spans="1:11">
       <c r="A61" s="10" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B61" s="8" t="str">
+      <c r="B61" s="10" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C61" s="8" t="str">
+      <c r="C61" s="10" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D61" s="8" t="str">
+      <c r="D61" s="10" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
       <c r="E61" s="8">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="F61" s="9">
-        <v>0</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="G61" s="9">
-        <v>0.99930555555555556</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="H61" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="J61" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>137</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B62" s="8" t="str">
+      <c r="B62" s="10" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C62" s="8" t="str">
+      <c r="C62" s="10" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D62" s="8" t="str">
+      <c r="D62" s="10" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
       <c r="E62" s="8">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="F62" s="9">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="G62" s="9">
         <v>0.99930555555555556</v>
       </c>
       <c r="H62" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
+        <v>0</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="J62" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K62" s="10"/>
+        <v>0.09</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="10" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
       </c>
-      <c r="B63" s="8" t="str">
+      <c r="B63" s="10" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C63" s="8" t="str">
+      <c r="C63" s="10" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>2 月</v>
       </c>
-      <c r="D63" s="8" t="str">
+      <c r="D63" s="10" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 9 周</v>
       </c>
       <c r="E63" s="8">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="F63" s="9">
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="G63" s="9">
         <v>0.99930555555555556</v>
       </c>
       <c r="H63" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>142</v>
+        <v>0</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J63" s="2">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="K63" s="24">
-        <v>0.85880000000000001</v>
+        <v>0.09</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -45828,24 +46253,24 @@
         <v>43889</v>
       </c>
       <c r="F64" s="9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G64" s="9">
-        <v>0.25</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="H64" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J64" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="18">
       <c r="A65" s="10" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -45866,24 +46291,26 @@
         <v>43889</v>
       </c>
       <c r="F65" s="9">
-        <v>0.25347222222222221</v>
+        <v>0</v>
       </c>
       <c r="G65" s="9">
-        <v>0.29722222222222222</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="H65" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.3750000000000011E-2</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="J65" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="K65" s="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" ht="18">
       <c r="A66" s="10" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -45904,23 +46331,23 @@
         <v>43889</v>
       </c>
       <c r="F66" s="9">
-        <v>0.30208333333333331</v>
+        <v>0</v>
       </c>
       <c r="G66" s="9">
-        <v>0.30555555555555552</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="H66" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>3.4722222222222099E-3</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>97</v>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="J66" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>132</v>
+        <v>0.6</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -45944,20 +46371,20 @@
         <v>43889</v>
       </c>
       <c r="F67" s="9">
-        <v>0.30208333333333331</v>
+        <v>0</v>
       </c>
       <c r="G67" s="9">
-        <v>0.32291666666666669</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="H67" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.083333333333337E-2</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="J67" s="2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K67" s="10"/>
     </row>
@@ -45981,23 +46408,25 @@
       <c r="E68" s="8">
         <v>43889</v>
       </c>
-      <c r="F68" s="23">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G68" s="22">
-        <v>0.52083333333333337</v>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0.99930555555555556</v>
       </c>
       <c r="H68" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>139</v>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="J68" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="K68" s="10"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K68" s="24">
+        <v>0.85880000000000001</v>
+      </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="10" t="str">
@@ -46019,21 +46448,21 @@
       <c r="E69" s="8">
         <v>43889</v>
       </c>
-      <c r="F69" s="22">
-        <v>0.52083333333333337</v>
+      <c r="F69" s="9">
+        <v>0.25</v>
       </c>
       <c r="G69" s="9">
-        <v>0.5229166666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H69" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>2.0833333333333259E-3</v>
+        <v>0</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="J69" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K69" s="10"/>
     </row>
@@ -46057,21 +46486,21 @@
       <c r="E70" s="8">
         <v>43889</v>
       </c>
-      <c r="F70" s="22">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="G70" s="22">
-        <v>0.53125</v>
+      <c r="F70" s="9">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0.29722222222222222</v>
       </c>
       <c r="H70" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.041666666666663E-2</v>
+        <v>4.3750000000000011E-2</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="J70" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K70" s="10"/>
     </row>
@@ -46096,23 +46525,23 @@
         <v>43889</v>
       </c>
       <c r="F71" s="9">
-        <v>0.875</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="G71" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="H71" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>12</v>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="J71" s="2">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -46136,24 +46565,22 @@
         <v>43889</v>
       </c>
       <c r="F72" s="9">
-        <v>0.91666666666666663</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="G72" s="9">
-        <v>0.9375</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="H72" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J72" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="10" t="str">
@@ -46176,24 +46603,22 @@
         <v>43889</v>
       </c>
       <c r="F73" s="9">
-        <v>0.9375</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="G73" s="9">
-        <v>0.94791666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H73" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="J73" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="K73" s="10"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="10" t="str">
@@ -46215,38 +46640,823 @@
       <c r="E74" s="8">
         <v>43889</v>
       </c>
-      <c r="F74" s="9">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="G74" s="9">
-        <v>0.95833333333333337</v>
+      <c r="F74" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G74" s="22">
+        <v>0.52083333333333337</v>
       </c>
       <c r="H74" s="9">
         <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
-        <v>1.0416666666666741E-2</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="J74" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K74" s="10"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="10"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="2"/>
+      <c r="A75" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B75" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C75" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D75" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E75" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F75" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="H75" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.1</v>
+      </c>
       <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B76" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C76" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D76" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E76" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F76" s="22">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G76" s="22">
+        <v>0.53125</v>
+      </c>
+      <c r="H76" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B77" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C77" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D77" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E77" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H77" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B78" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C78" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D78" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E78" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F78" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="H78" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K78" s="10"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B79" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C79" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D79" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E79" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="H79" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B80" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C80" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D80" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E80" s="8">
+        <v>43889</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H80" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B81" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C81" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D81" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E81" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F81" s="9">
+        <v>0</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="H81" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J81" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B82" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C82" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D82" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E82" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="H82" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="K82" s="24">
+        <v>0.66790000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B83" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C83" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D83" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E83" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F83" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G83" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H83" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B84" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C84" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D84" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E84" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F84" s="9">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="G84" s="9">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="H84" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B85" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C85" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D85" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E85" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F85" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="G85" s="9">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H85" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B86" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C86" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D86" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E86" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H86" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K86" s="10"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B87" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C87" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D87" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E87" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F87" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H87" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B88" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C88" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D88" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E88" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F88" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H88" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0.39583333333333337</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B89" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C89" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D89" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E89" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H89" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K89" s="10"/>
+    </row>
+    <row r="90" spans="1:11" ht="18">
+      <c r="A90" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B90" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C90" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D90" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E90" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F90" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G90" s="9">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="H90" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="K90" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B91" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C91" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D91" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E91" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F91" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G91" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="H91" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K91" s="10"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B92" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C92" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D92" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E92" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F92" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="H92" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K92" s="10"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B93" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C93" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D93" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E93" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F93" s="9">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G93" s="9">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H93" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B94" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C94" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>2 月</v>
+      </c>
+      <c r="D94" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 9 周</v>
+      </c>
+      <c r="E94" s="8">
+        <v>43890</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="G94" s="9">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="H94" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="K94" s="10"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="10"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="10"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="10"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -46262,6 +47472,646 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A300825-7CFA-7146-9AC9-6267CAD0CB97}">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="26">
+      <c r="A1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" ht="26">
+      <c r="A2" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="J2" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="6">
+        <v>43884</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="array" ref="B4">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="array" ref="C4">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="array" ref="D4">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E4">
+        <f t="array" ref="E4">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="array" ref="F4">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>43884</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="array" ref="K4">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="array" ref="L4">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="array" ref="M4">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="N4">
+        <f t="array" ref="N4">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>-0.1</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="array" ref="O4">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="6">
+        <v>43885</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="array" ref="B5">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="array" ref="C5">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="array" ref="D5">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E5">
+        <f t="array" ref="E5">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>-0.2</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="array" ref="F5">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G4+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H4+1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>43885</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="array" ref="K5">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="L5" s="18">
+        <f t="array" ref="L5">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M5" s="18">
+        <f t="array" ref="M5">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="N5">
+        <f t="array" ref="N5">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>-0.2</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="array" ref="O5">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P5">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P4+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q4+1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="6">
+        <v>43886</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="array" ref="B6">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="array" ref="C6">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="array" ref="D6">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E6">
+        <f t="array" ref="E6">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="array" ref="F6">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G5+1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H5+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>43886</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="array" ref="K6">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="array" ref="L6">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="array" ref="M6">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="N6">
+        <f t="array" ref="N6">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="array" ref="O6">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P6">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P5+1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q5+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="6">
+        <v>43887</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="array" ref="B7">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="array" ref="C7">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="array" ref="D7">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E7">
+        <f t="array" ref="E7">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="array" ref="F7">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G6+1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H6+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>43887</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="array" ref="K7">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="array" ref="L7">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="array" ref="M7">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="N7">
+        <f t="array" ref="N7">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="array" ref="O7">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P7">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P6+1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q6+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="6">
+        <v>43888</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E8">
+        <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G8">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G7+1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H7+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>43888</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="array" ref="K8">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="array" ref="L8">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="array" ref="M8">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="N8">
+        <f t="array" ref="N8">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="array" ref="O8">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="P8">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P7+1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q7+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="6">
+        <v>43889</v>
+      </c>
+      <c r="B9" s="18">
+        <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E9">
+        <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G8+1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H8+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>43889</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="array" ref="K9">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="array" ref="L9">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="array" ref="M9">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="N9">
+        <f t="array" ref="N9">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="array" ref="O9">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P9">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P8+1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q8+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="6">
+        <v>43890</v>
+      </c>
+      <c r="B10" s="18">
+        <f t="array" ref="B10">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="array" ref="C10">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="array" ref="D10">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E10">
+        <f t="array" ref="E10">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="array" ref="F10">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G9+1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H9+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>43890</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="array" ref="K10">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="array" ref="L10">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="array" ref="M10">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="N10">
+        <f t="array" ref="N10">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="array" ref="O10">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P10">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P9+1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q9+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f t="array" ref="B11">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f t="array" ref="C11">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="array" ref="D11">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="array" ref="E11">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="array" ref="F11">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G10+1,0))</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H10+1,0))</f>
+        <v/>
+      </c>
+      <c r="J11" s="6">
+        <v>43891</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f t="array" ref="K11">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="18" t="str">
+        <f t="array" ref="L11">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="18" t="str">
+        <f t="array" ref="M11">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="array" ref="N11">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f t="array" ref="O11">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P10+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q10+1,0))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D1E0CB-D626-3946-A773-1A6D1FCBC0CB}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -46517,33 +48367,33 @@
       <c r="A9" s="6">
         <v>43890</v>
       </c>
-      <c r="B9" s="18" t="str">
+      <c r="B9" s="18">
         <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="18" t="str">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C9" s="18">
         <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="18" t="str">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D9" s="18">
         <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E9" t="str">
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E9">
         <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.2</v>
       </c>
       <c r="F9" t="str">
         <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
         <v/>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G8+1,0))</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H8+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -46591,7 +48441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A27D2B4-34E3-F54D-90AC-FBF288334EE3}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -46847,33 +48697,33 @@
       <c r="A9" s="6">
         <v>43890</v>
       </c>
-      <c r="B9" s="18" t="str">
+      <c r="B9" s="18">
         <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="18" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="C9" s="18">
         <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="18" t="str">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D9" s="18">
         <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E9" t="str">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E9">
         <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="F9" t="str">
         <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0))&amp;"","")</f>
         <v/>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <f>IF(表31_33[[#This Row],[得分]]="","",IF(表31_33[[#This Row],[得分]]&gt;0,G8+1,0))</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <f>IF(表31_33[[#This Row],[得分]]="","",IF(表31_33[[#This Row],[得分]]&lt;0,H8+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -47005,433 +48855,6 @@
       </c>
       <c r="H13" t="str">
         <f>IF(表31_33[[#This Row],[得分]]="","",IF(表31_33[[#This Row],[得分]]&lt;0,H12+1,0))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E768BF-30AF-464E-9308-F3FB1157973F}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6">
-        <v>43884</v>
-      </c>
-      <c r="B3" s="18">
-        <f t="array" ref="B3">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C3" s="18">
-        <f t="array" ref="C3">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.9375</v>
-      </c>
-      <c r="D3" s="18">
-        <f t="array" ref="D3">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E3">
-        <f t="array" ref="E3">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>-0.1</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="array" ref="F3">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6">
-        <v>43885</v>
-      </c>
-      <c r="B4" s="18">
-        <f t="array" ref="B4">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C4" s="18">
-        <f t="array" ref="C4">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.9375</v>
-      </c>
-      <c r="D4" s="18">
-        <f t="array" ref="D4">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E4">
-        <f t="array" ref="E4">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>-0.2</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="array" ref="F4">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6">
-        <v>43886</v>
-      </c>
-      <c r="B5" s="18">
-        <f t="array" ref="B5">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C5" s="18">
-        <f t="array" ref="C5">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.9375</v>
-      </c>
-      <c r="D5" s="18">
-        <f t="array" ref="D5">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E5">
-        <f t="array" ref="E5">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="array" ref="F5">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v>已连续3天，增加0.1</v>
-      </c>
-      <c r="G5">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G4+1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H4+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
-        <v>43887</v>
-      </c>
-      <c r="B6" s="18">
-        <f t="array" ref="B6">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C6" s="18">
-        <f t="array" ref="C6">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.9375</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="array" ref="D6">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E6">
-        <f t="array" ref="E6">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="array" ref="F6">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G6">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G5+1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H5+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6">
-        <v>43888</v>
-      </c>
-      <c r="B7" s="18">
-        <f t="array" ref="B7">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C7" s="18">
-        <f t="array" ref="C7">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.9375</v>
-      </c>
-      <c r="D7" s="18">
-        <f t="array" ref="D7">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E7">
-        <f t="array" ref="E7">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="array" ref="F7">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G7">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G6+1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H6+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6">
-        <v>43889</v>
-      </c>
-      <c r="B8" s="18">
-        <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C8" s="18">
-        <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.9375</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E8">
-        <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.3</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v>已连续3天，增加0.1</v>
-      </c>
-      <c r="G8">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G7+1,0))</f>
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H7+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
-        <v>43890</v>
-      </c>
-      <c r="B9" s="18" t="str">
-        <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="18" t="str">
-        <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="18" t="str">
-        <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="F9" t="str">
-        <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G9" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G8+1,0))</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H8+1,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6">
-        <v>43891</v>
-      </c>
-      <c r="B10" s="18" t="str">
-        <f t="array" ref="B10">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="18" t="str">
-        <f t="array" ref="C10">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="18" t="str">
-        <f t="array" ref="D10">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E10" t="str">
-        <f t="array" ref="E10">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="F10" t="str">
-        <f t="array" ref="F10">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G10" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G9+1,0))</f>
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H9+1,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6">
-        <v>43892</v>
-      </c>
-      <c r="B11" s="18" t="str">
-        <f t="array" ref="B11">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="18" t="str">
-        <f t="array" ref="C11">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="18" t="str">
-        <f t="array" ref="D11">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E11" t="str">
-        <f t="array" ref="E11">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="F11" t="str">
-        <f t="array" ref="F11">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G11" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G10+1,0))</f>
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H10+1,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6">
-        <v>43893</v>
-      </c>
-      <c r="B12" s="18" t="str">
-        <f t="array" ref="B12">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="18" t="str">
-        <f t="array" ref="C12">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="18" t="str">
-        <f t="array" ref="D12">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E12" t="str">
-        <f t="array" ref="E12">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="F12" t="str">
-        <f t="array" ref="F12">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G12" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G11+1,0))</f>
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H11+1,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6">
-        <v>43894</v>
-      </c>
-      <c r="B13" s="18" t="str">
-        <f t="array" ref="B13">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C13" s="18" t="str">
-        <f t="array" ref="C13">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D13" s="18" t="str">
-        <f t="array" ref="D13">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <f t="array" ref="E13">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <f t="array" ref="F13">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G13" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G12+1,0))</f>
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H12+1,0))</f>
         <v/>
       </c>
     </row>
@@ -47448,6 +48871,433 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E768BF-30AF-464E-9308-F3FB1157973F}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>43884</v>
+      </c>
+      <c r="B3" s="18">
+        <f t="array" ref="B3">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C3" s="18">
+        <f t="array" ref="C3">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D3" s="18">
+        <f t="array" ref="D3">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E3">
+        <f t="array" ref="E3">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="array" ref="F3">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>43885</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="array" ref="B4">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="array" ref="C4">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="array" ref="D4">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E4">
+        <f t="array" ref="E4">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>-0.2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="array" ref="F4">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>43886</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="array" ref="B5">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="array" ref="C5">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="array" ref="D5">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E5">
+        <f t="array" ref="E5">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="array" ref="F5">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G4+1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H4+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>43887</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="array" ref="B6">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="array" ref="C6">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="array" ref="D6">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E6">
+        <f t="array" ref="E6">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="array" ref="F6">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G5+1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H5+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>43888</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="array" ref="B7">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="array" ref="C7">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="array" ref="D7">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E7">
+        <f t="array" ref="E7">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="array" ref="F7">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G7">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G6+1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H6+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>43889</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E8">
+        <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G7+1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H7+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>43890</v>
+      </c>
+      <c r="B9" s="18">
+        <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E9">
+        <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G8+1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H8+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B10" s="18" t="str">
+        <f t="array" ref="B10">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f t="array" ref="C10">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f t="array" ref="D10">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f t="array" ref="E10">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="array" ref="F10">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G9+1,0))</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H9+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>43892</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f t="array" ref="B11">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f t="array" ref="C11">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="array" ref="D11">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="array" ref="E11">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="array" ref="F11">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G10+1,0))</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H10+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>43893</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f t="array" ref="B12">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f t="array" ref="C12">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="array" ref="D12">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="array" ref="E12">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="array" ref="F12">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G11+1,0))</f>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H11+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>43894</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f t="array" ref="B13">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f t="array" ref="C13">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="array" ref="D13">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="array" ref="E13">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="array" ref="F13">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,G12+1,0))</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,H12+1,0))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A0388C-D189-614E-8D10-ABABCA3EBD3F}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -47695,33 +49545,33 @@
       <c r="A9" s="6">
         <v>43890</v>
       </c>
-      <c r="B9" s="18" t="str">
+      <c r="B9" s="18">
         <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="18" t="str">
+        <v>0.9375</v>
+      </c>
+      <c r="C9" s="18">
         <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="18" t="str">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D9" s="18">
         <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E9" t="str">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E9">
         <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="F9" t="str">
         <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0))&amp;"","")</f>
         <v/>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <f>IF(表31_3435[[#This Row],[得分]]="","",IF(表31_3435[[#This Row],[得分]]&gt;0,G8+1,0))</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <f>IF(表31_3435[[#This Row],[得分]]="","",IF(表31_3435[[#This Row],[得分]]&lt;0,H8+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -47870,17 +49720,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B2F5E1-8034-CB43-9A05-FB941B83E585}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -48029,7 +49879,7 @@
         <v>-0.30000000000000004</v>
       </c>
       <c r="D33" s="19">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -48044,7 +49894,7 @@
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19">
-        <v>-0.22000000000000003</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -48058,7 +49908,7 @@
         <v>-0.5</v>
       </c>
       <c r="D34" s="19">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -48073,7 +49923,7 @@
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19">
-        <v>-0.42000000000000004</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -48085,7 +49935,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="D35" s="19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E35" s="19">
         <v>0.1</v>
@@ -48104,7 +49954,7 @@
         <v>0.2</v>
       </c>
       <c r="K35" s="19">
-        <v>0.60000000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19">
@@ -48122,7 +49972,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="D36" s="19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E36" s="19">
         <v>0.8</v>
@@ -48135,11 +49985,11 @@
         <v>0.2</v>
       </c>
       <c r="K36" s="19">
-        <v>0.60000000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19">
-        <v>2.9000000000000008</v>
+        <v>2.9000000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -48153,7 +50003,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="D37" s="19">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
@@ -48170,7 +50020,7 @@
         <v>0.18</v>
       </c>
       <c r="M37" s="19">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -48184,7 +50034,7 @@
         <v>0.4</v>
       </c>
       <c r="D38" s="19">
-        <v>0.38</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="E38" s="19">
         <v>0.1</v>
@@ -48199,52 +50049,85 @@
         <v>0.3</v>
       </c>
       <c r="K38" s="19">
-        <v>0.89999999999999991</v>
+        <v>0.8</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="19">
-        <v>3.84</v>
+        <v>3.9400000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="6">
+        <v>43890</v>
+      </c>
+      <c r="B39" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="K39" s="19">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L39" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="M39" s="19">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="19">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="C39" s="19">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="D39" s="19">
+      <c r="B40" s="19">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="D40" s="19">
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="E40" s="19">
+        <v>1</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J40" s="19">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="K40" s="19">
+        <v>3.6800000000000006</v>
+      </c>
+      <c r="L40" s="19">
         <v>0.48</v>
       </c>
-      <c r="E39" s="19">
-        <v>1</v>
-      </c>
-      <c r="F39" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="G39" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H39" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="I39" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="J39" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K39" s="19">
-        <v>2.7800000000000002</v>
-      </c>
-      <c r="L39" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="M39" s="19">
-        <v>9.16</v>
+      <c r="M40" s="19">
+        <v>12.94</v>
       </c>
     </row>
   </sheetData>
@@ -48268,7 +50151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A54492-8537-E549-970D-B51F225FB432}">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -48439,137 +50322,137 @@
       </c>
       <c r="B3">
         <f>SUMIF(records[日期],表6_11[[#This Row],[日期]],records[得分])</f>
-        <v>-0.22000000000000003</v>
+        <v>-0.32</v>
       </c>
       <c r="D3" s="6">
         <f>A3</f>
         <v>43884</v>
       </c>
       <c r="E3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!E2,'records'!F5:F94, "&lt;" &amp; day!F2)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!F2,'records'!F5:F94, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!G2,'records'!F5:F94, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!H2,'records'!F5:F94, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!I2,'records'!F5:F94, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!J2,'records'!F5:F94, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!K2,'records'!F5:F94, "&lt;" &amp; day!L2)</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="L3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
-        <v>-0.1</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!L2,'records'!F5:F94, "&lt;" &amp; day!M2)</f>
+        <v>-0.2</v>
       </c>
       <c r="M3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!M2,'records'!F5:F94, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!N2,'records'!F5:F94, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!O2,'records'!F5:F94, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!P2,'records'!F5:F94, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!Q2,'records'!F5:F94, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!R2,'records'!F5:F94, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!S2,'records'!F5:F94, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!T2,'records'!F5:F94, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!U2,'records'!F5:F94, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!V2,'records'!F5:F94, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!W2,'records'!F5:F94, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!X2,'records'!F5:F94, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!Y2,'records'!F5:F94, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!Z2,'records'!F5:F94, "&lt;" &amp; day!AA2)</f>
         <v>0.1</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!AA2,'records'!F5:F94, "&lt;" &amp; day!AB2)</f>
         <v>0.08</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94, "&gt;=" &amp; day!AB2,'records'!F5:F94, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D3, 'records'!F5:F74,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D3, 'records'!F5:F94,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
         <v>43884</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A3, 'records'!I5:I94, day!AF2)</f>
         <v>-0.1</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A3, 'records'!I5:I94, day!AG2)</f>
         <v>-0.1</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A3, 'records'!I5:I94, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A3, 'records'!I5:I94, day!AI2)</f>
         <v>0.1</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A3, 'records'!I5:I94, day!AJ2)</f>
         <v>0.1</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A3, 'records'!I5:I74, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A3, 'records'!I5:I94, day!AK2)</f>
         <v>0.08</v>
       </c>
     </row>
@@ -48579,137 +50462,137 @@
       </c>
       <c r="B4">
         <f>SUMIF(records[日期],表6_11[[#This Row],[日期]],records[得分])</f>
-        <v>-0.42000000000000015</v>
+        <v>-0.62000000000000011</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D9" si="0">A4</f>
         <v>43885</v>
       </c>
       <c r="E4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!E2,'records'!F5:F94, "&lt;" &amp; day!F2)</f>
         <v>0.18</v>
       </c>
       <c r="F4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!F2,'records'!F5:F94, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!G2,'records'!F5:F94, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!H2,'records'!F5:F94, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!I2,'records'!F5:F94, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!J2,'records'!F5:F94, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!K2,'records'!F5:F94, "&lt;" &amp; day!L2)</f>
         <v>-0.5</v>
       </c>
       <c r="L4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
-        <v>-0.2</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!L2,'records'!F5:F94, "&lt;" &amp; day!M2)</f>
+        <v>-0.4</v>
       </c>
       <c r="M4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!M2,'records'!F5:F94, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!N2,'records'!F5:F94, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!O2,'records'!F5:F94, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!P2,'records'!F5:F94, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!Q2,'records'!F5:F94, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!R2,'records'!F5:F94, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!S2,'records'!F5:F94, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!T2,'records'!F5:F94, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!U2,'records'!F5:F94, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!V2,'records'!F5:F94, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!W2,'records'!F5:F94, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!X2,'records'!F5:F94, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!Y2,'records'!F5:F94, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!Z2,'records'!F5:F94, "&lt;" &amp; day!AA2)</f>
         <v>0.1</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!AA2,'records'!F5:F94, "&lt;" &amp; day!AB2)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94, "&gt;=" &amp; day!AB2,'records'!F5:F94, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D4, 'records'!F5:F74,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D4, 'records'!F5:F94,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="6">
         <v>43885</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A4, 'records'!I5:I94, day!AF2)</f>
         <v>-0.2</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A4, 'records'!I5:I94, day!AG2)</f>
         <v>-0.2</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A4, 'records'!I5:I94, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A4, 'records'!I5:I94, day!AI2)</f>
         <v>0.1</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A4, 'records'!I5:I94, day!AJ2)</f>
         <v>0.1</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A4, 'records'!I5:I74, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A4, 'records'!I5:I94, day!AK2)</f>
         <v>0.1</v>
       </c>
     </row>
@@ -48719,137 +50602,137 @@
       </c>
       <c r="B5">
         <f>SUMIF(records[日期],表6_11[[#This Row],[日期]],records[得分])</f>
-        <v>1.6999999999999997</v>
+        <v>1.7</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>43886</v>
       </c>
       <c r="E5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!E2,'records'!F5:F94, "&lt;" &amp; day!F2)</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!F2,'records'!F5:F94, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!G2,'records'!F5:F94, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!H2,'records'!F5:F94, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!I2,'records'!F5:F94, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!J2,'records'!F5:F94, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!K2,'records'!F5:F94, "&lt;" &amp; day!L2)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="L5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!L2,'records'!F5:F94, "&lt;" &amp; day!M2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!M2,'records'!F5:F94, "&lt;" &amp; day!N2)</f>
         <v>0.1</v>
       </c>
-      <c r="M5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
+      <c r="N5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!N2,'records'!F5:F94, "&lt;" &amp; day!O2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="O5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!O2,'records'!F5:F94, "&lt;" &amp; day!P2)</f>
         <v>0.1</v>
       </c>
-      <c r="N5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
+      <c r="P5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!P2,'records'!F5:F94, "&lt;" &amp; day!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!Q2,'records'!F5:F94, "&lt;" &amp; day!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!R2,'records'!F5:F94, "&lt;" &amp; day!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!S2,'records'!F5:F94, "&lt;" &amp; day!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!T2,'records'!F5:F94, "&lt;" &amp; day!U2)</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!U2,'records'!F5:F94, "&lt;" &amp; day!V2)</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!V2,'records'!F5:F94, "&lt;" &amp; day!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!W2,'records'!F5:F94, "&lt;" &amp; day!X2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="X5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!X2,'records'!F5:F94, "&lt;" &amp; day!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!Y2,'records'!F5:F94, "&lt;" &amp; day!Z2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!Z2,'records'!F5:F94, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
-      <c r="O5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="P5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="X5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
-        <v>0.2</v>
-      </c>
       <c r="AA5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
-        <v>0.60000000000000009</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!AA2,'records'!F5:F94, "&lt;" &amp; day!AB2)</f>
+        <v>0.5</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94, "&gt;=" &amp; day!AB2,'records'!F5:F94, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D5, 'records'!F5:F74,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D5, 'records'!F5:F94,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="6">
         <v>43886</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A5, 'records'!I5:I94, day!AF2)</f>
         <v>0.1</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A5, 'records'!I5:I94, day!AG2)</f>
         <v>0.1</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A5, 'records'!I5:I94, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A5, 'records'!I5:I94, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A5, 'records'!I5:I94, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A5, 'records'!I5:I74, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A5, 'records'!I5:I94, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -48859,137 +50742,137 @@
       </c>
       <c r="B6">
         <f>SUMIF(records[日期],表6_11[[#This Row],[日期]],records[得分])</f>
-        <v>2.9000000000000012</v>
+        <v>2.9000000000000008</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>43887</v>
       </c>
       <c r="E6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!E2,'records'!F5:F94, "&lt;" &amp; day!F2)</f>
         <v>0.9</v>
       </c>
       <c r="F6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!F2,'records'!F5:F94, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!G2,'records'!F5:F94, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!H2,'records'!F5:F94, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!I2,'records'!F5:F94, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!J2,'records'!F5:F94, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!K2,'records'!F5:F94, "&lt;" &amp; day!L2)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="L6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
-        <v>0.1</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!L2,'records'!F5:F94, "&lt;" &amp; day!M2)</f>
+        <v>0.2</v>
       </c>
       <c r="M6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!M2,'records'!F5:F94, "&lt;" &amp; day!N2)</f>
         <v>0.8</v>
       </c>
       <c r="N6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!N2,'records'!F5:F94, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!O2,'records'!F5:F94, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!P2,'records'!F5:F94, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!Q2,'records'!F5:F94, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!R2,'records'!F5:F94, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!S2,'records'!F5:F94, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!T2,'records'!F5:F94, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!U2,'records'!F5:F94, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!V2,'records'!F5:F94, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!W2,'records'!F5:F94, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!X2,'records'!F5:F94, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!Y2,'records'!F5:F94, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!Z2,'records'!F5:F94, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
-        <v>0.60000000000000009</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!AA2,'records'!F5:F94, "&lt;" &amp; day!AB2)</f>
+        <v>0.5</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94, "&gt;=" &amp; day!AB2,'records'!F5:F94, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D6, 'records'!F5:F74,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D6, 'records'!F5:F94,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="6">
         <v>43887</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A6, 'records'!I5:I94, day!AF2)</f>
         <v>0.1</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A6, 'records'!I5:I94, day!AG2)</f>
         <v>0.1</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A6, 'records'!I5:I94, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A6, 'records'!I5:I94, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A6, 'records'!I5:I94, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A6, 'records'!I5:I74, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A6, 'records'!I5:I94, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -48999,137 +50882,137 @@
       </c>
       <c r="B7">
         <f>SUMIF(records[日期],表6_11[[#This Row],[日期]],records[得分])</f>
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>43888</v>
       </c>
       <c r="E7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!E2,'records'!F5:F94, "&lt;" &amp; day!F2)</f>
         <v>-0.42</v>
       </c>
       <c r="F7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!F2,'records'!F5:F94, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!G2,'records'!F5:F94, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!H2,'records'!F5:F94, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!I2,'records'!F5:F94, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!J2,'records'!F5:F94, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!K2,'records'!F5:F94, "&lt;" &amp; day!L2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="L7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!L2,'records'!F5:F94, "&lt;" &amp; day!M2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!M2,'records'!F5:F94, "&lt;" &amp; day!N2)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!N2,'records'!F5:F94, "&lt;" &amp; day!O2)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!O2,'records'!F5:F94, "&lt;" &amp; day!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!P2,'records'!F5:F94, "&lt;" &amp; day!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!Q2,'records'!F5:F94, "&lt;" &amp; day!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!R2,'records'!F5:F94, "&lt;" &amp; day!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!S2,'records'!F5:F94, "&lt;" &amp; day!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!T2,'records'!F5:F94, "&lt;" &amp; day!U2)</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!U2,'records'!F5:F94, "&lt;" &amp; day!V2)</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!V2,'records'!F5:F94, "&lt;" &amp; day!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!W2,'records'!F5:F94, "&lt;" &amp; day!X2)</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!X2,'records'!F5:F94, "&lt;" &amp; day!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!Y2,'records'!F5:F94, "&lt;" &amp; day!Z2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!Z2,'records'!F5:F94, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
-      <c r="M7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
-        <v>0.2</v>
-      </c>
       <c r="AA7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!AA2,'records'!F5:F94, "&lt;" &amp; day!AB2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94, "&gt;=" &amp; day!AB2,'records'!F5:F94, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D7, 'records'!F5:F74,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D7, 'records'!F5:F94,day!AC2)</f>
         <v>0.18</v>
       </c>
       <c r="AE7" s="6">
         <v>43888</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A7, 'records'!I5:I94, day!AF2)</f>
         <v>0.2</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A7, 'records'!I5:I94, day!AG2)</f>
         <v>0.2</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A7, 'records'!I5:I94, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A7, 'records'!I5:I94, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A7, 'records'!I5:I94, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A7, 'records'!I5:I74, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A7, 'records'!I5:I94, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -49139,137 +51022,137 @@
       </c>
       <c r="B8">
         <f>SUMIF(records[日期],表6_11[[#This Row],[日期]],records[得分])</f>
-        <v>3.84</v>
+        <v>3.9400000000000004</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>43889</v>
       </c>
       <c r="E8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!E2,'records'!F5:F94, "&lt;" &amp; day!F2)</f>
         <v>1.56</v>
       </c>
       <c r="F8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!F2,'records'!F5:F94, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!G2,'records'!F5:F94, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!H2,'records'!F5:F94, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!I2,'records'!F5:F94, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!J2,'records'!F5:F94, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!K2,'records'!F5:F94, "&lt;" &amp; day!L2)</f>
         <v>0.4</v>
       </c>
       <c r="L8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
-        <v>0.38</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!L2,'records'!F5:F94, "&lt;" &amp; day!M2)</f>
+        <v>0.58000000000000007</v>
       </c>
       <c r="M8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!M2,'records'!F5:F94, "&lt;" &amp; day!N2)</f>
         <v>0.1</v>
       </c>
       <c r="N8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!N2,'records'!F5:F94, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!O2,'records'!F5:F94, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!P2,'records'!F5:F94, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!Q2,'records'!F5:F94, "&lt;" &amp; day!R2)</f>
         <v>0.2</v>
       </c>
       <c r="R8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!R2,'records'!F5:F94, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!S2,'records'!F5:F94, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!T2,'records'!F5:F94, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!U2,'records'!F5:F94, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!V2,'records'!F5:F94, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!W2,'records'!F5:F94, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!X2,'records'!F5:F94, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!Y2,'records'!F5:F94, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!Z2,'records'!F5:F94, "&lt;" &amp; day!AA2)</f>
         <v>0.3</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
-        <v>0.89999999999999991</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!AA2,'records'!F5:F94, "&lt;" &amp; day!AB2)</f>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94, "&gt;=" &amp; day!AB2,'records'!F5:F94, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D8, 'records'!F5:F74,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D8, 'records'!F5:F94,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="6">
         <v>43889</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A8, 'records'!I5:I94, day!AF2)</f>
         <v>0.2</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A8, 'records'!I5:I94, day!AG2)</f>
         <v>0.2</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A8, 'records'!I5:I94, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A8, 'records'!I5:I94, day!AI2)</f>
         <v>0.3</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A8, 'records'!I5:I94, day!AJ2)</f>
         <v>0.3</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A8, 'records'!I5:I74, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A8, 'records'!I5:I94, day!AK2)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -49279,138 +51162,138 @@
       </c>
       <c r="B9">
         <f>SUMIF(records[日期],表6_11[[#This Row],[日期]],records[得分])</f>
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>43890</v>
       </c>
       <c r="E9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!E2,'records'!F5:F74, "&lt;" &amp; day!F2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!E2,'records'!F5:F94, "&lt;" &amp; day!F2)</f>
+        <v>0.23</v>
       </c>
       <c r="F9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!F2,'records'!F5:F74, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!F2,'records'!F5:F94, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!G2,'records'!F5:F74, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!G2,'records'!F5:F94, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!H2,'records'!F5:F74, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!H2,'records'!F5:F94, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!I2,'records'!F5:F74, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!I2,'records'!F5:F94, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!J2,'records'!F5:F74, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!J2,'records'!F5:F94, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!K2,'records'!F5:F74, "&lt;" &amp; day!L2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!K2,'records'!F5:F94, "&lt;" &amp; day!L2)</f>
+        <v>0.4</v>
       </c>
       <c r="L9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!L2,'records'!F5:F74, "&lt;" &amp; day!M2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!L2,'records'!F5:F94, "&lt;" &amp; day!M2)</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!M2,'records'!F5:F74, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!M2,'records'!F5:F94, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!N2,'records'!F5:F74, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!N2,'records'!F5:F94, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!O2,'records'!F5:F74, "&lt;" &amp; day!P2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!O2,'records'!F5:F94, "&lt;" &amp; day!P2)</f>
+        <v>0.75</v>
       </c>
       <c r="P9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!P2,'records'!F5:F74, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!P2,'records'!F5:F94, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!Q2,'records'!F5:F74, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!Q2,'records'!F5:F94, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!R2,'records'!F5:F74, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!R2,'records'!F5:F94, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!S2,'records'!F5:F74, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!S2,'records'!F5:F94, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!T2,'records'!F5:F74, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!T2,'records'!F5:F94, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!U2,'records'!F5:F74, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!U2,'records'!F5:F94, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!V2,'records'!F5:F74, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!V2,'records'!F5:F94, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!W2,'records'!F5:F74, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!W2,'records'!F5:F94, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!X2,'records'!F5:F74, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!X2,'records'!F5:F94, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!Y2,'records'!F5:F74, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!Y2,'records'!F5:F94, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!Z2,'records'!F5:F74, "&lt;" &amp; day!AA2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!Z2,'records'!F5:F94, "&lt;" &amp; day!AA2)</f>
+        <v>0.3</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!AA2,'records'!F5:F74, "&lt;" &amp; day!AB2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!AA2,'records'!F5:F94, "&lt;" &amp; day!AB2)</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74, "&gt;=" &amp; day!AB2,'records'!F5:F74, "&lt;" &amp; day!AC2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94, "&gt;=" &amp; day!AB2,'records'!F5:F94, "&lt;" &amp; day!AC2)</f>
+        <v>0.3</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!D9, 'records'!F5:F74,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!D9, 'records'!F5:F94,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="6">
         <v>43890</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AF2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A9, 'records'!I5:I94, day!AF2)</f>
+        <v>0.2</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AG2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A9, 'records'!I5:I94, day!AG2)</f>
+        <v>0.2</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A9, 'records'!I5:I94, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AI2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A9, 'records'!I5:I94, day!AI2)</f>
+        <v>0.3</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AJ2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A9, 'records'!I5:I94, day!AJ2)</f>
+        <v>0.3</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS('records'!J5:J74,'records'!E5:E74,day!A9, 'records'!I5:I74, day!AK2)</f>
-        <v>0</v>
+        <f>SUMIFS('records'!J5:J94,'records'!E5:E94,day!A9, 'records'!I5:I94, day!AK2)</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -53908,7 +55791,7 @@
       </c>
       <c r="B3">
         <f>SUMIFS(records[得分],records[日期],search!A3)</f>
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
@@ -53938,7 +55821,7 @@
       </c>
       <c r="C7">
         <f>SUMIFS(records[得分],records[日期],"&gt;="&amp;search!A7,records[日期],"&lt;="&amp;search!B7)</f>
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -54051,7 +55934,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -54337,33 +56220,33 @@
       <c r="A9" s="6">
         <v>43890</v>
       </c>
-      <c r="B9" s="18" t="str">
+      <c r="B9" s="18">
         <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="18" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="18">
         <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="18" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="18">
         <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.2</v>
       </c>
       <c r="F9" t="str">
         <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0))&amp;"","")</f>
         <v/>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&gt;0,G8+1,0))</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&lt;0,H8+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="9"/>

--- a/source/excel/Score.xlsx
+++ b/source/excel/Score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7058EAB0-E10A-CB4D-A549-997F6B0E5D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75B9B4F-0A06-CD40-A5B3-B1B54A2499AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="12" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="search" sheetId="5" r:id="rId7"/>
     <sheet name="charts" sheetId="13" r:id="rId8"/>
     <sheet name="getupearly" sheetId="14" r:id="rId9"/>
-    <sheet name="breakfast" sheetId="21" r:id="rId10"/>
-    <sheet name="reading" sheetId="19" r:id="rId11"/>
+    <sheet name="reading" sheetId="19" r:id="rId10"/>
+    <sheet name="breakfast" sheetId="21" r:id="rId11"/>
     <sheet name="exercise" sheetId="15" r:id="rId12"/>
     <sheet name="schedule" sheetId="20" r:id="rId13"/>
   </sheets>
@@ -43,7 +43,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="198">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,89 @@
   </si>
   <si>
     <t>20时</t>
+  </si>
+  <si>
+    <t>完成度20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度：30%，效率：50%，行动力：10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日日程归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将【目标】类型全部改为【活动】类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将时间段固定的周期性活动的颜色改成另一种颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复Schedule.md中的情况处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家人聊天，给爸妈买车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认真思考森林+庄园的日程值不值得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日评分归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃午饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理pocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划谷歌日历API学习计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Google Calendar API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考人生目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度：30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看RM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度：40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突发事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19时</t>
   </si>
 </sst>
 </file>
@@ -43283,7 +43366,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gzhennaxia@163.com" refreshedDate="43892.629634143515" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="114" xr:uid="{9C136832-FF93-3F47-9AFE-E34173B60C69}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="gzhennaxia@163.com" refreshedDate="43892.987268055556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="141" xr:uid="{9C136832-FF93-3F47-9AFE-E34173B60C69}">
   <cacheSource type="worksheet">
     <worksheetSource name="records"/>
   </cacheSource>
@@ -43306,13 +43389,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="周次" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="3">
         <s v="第 8 周"/>
         <s v="第 9 周"/>
+        <s v="第 10 周"/>
       </sharedItems>
     </cacheField>
     <cacheField name="日期" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-23T00:00:00" maxDate="2020-03-02T00:00:00" count="8">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-02-23T00:00:00" maxDate="2020-03-03T00:00:00" count="9">
         <d v="2020-02-23T00:00:00"/>
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
@@ -43321,10 +43405,11 @@
         <d v="2020-02-28T00:00:00"/>
         <d v="2020-02-29T00:00:00"/>
         <d v="2020-03-01T00:00:00"/>
+        <d v="2020-03-02T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="开始时刻" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:59:00" count="27">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:59:00" count="40">
         <d v="1899-12-30T06:00:00"/>
         <d v="1899-12-30T06:05:00"/>
         <d v="1899-12-30T07:15:00"/>
@@ -43352,6 +43437,19 @@
         <d v="1899-12-30T17:00:00"/>
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T20:00:00"/>
+        <d v="1899-12-30T07:04:00"/>
+        <d v="1899-12-30T07:10:00"/>
+        <d v="1899-12-30T08:40:00"/>
+        <d v="1899-12-30T08:45:00"/>
+        <d v="1899-12-30T08:50:00"/>
+        <d v="1899-12-30T09:30:00"/>
+        <d v="1899-12-30T12:00:00"/>
+        <d v="1899-12-30T13:30:00"/>
+        <d v="1899-12-30T14:30:00"/>
+        <d v="1899-12-30T15:40:00"/>
+        <d v="1899-12-30T19:30:00"/>
+        <d v="1899-12-30T22:40:00"/>
+        <d v="1899-12-30T22:50:00"/>
       </sharedItems>
       <fieldGroup par="11" base="5">
         <rangePr groupBy="minutes" startDate="1899-12-30T00:00:00" endDate="1899-12-30T23:59:00"/>
@@ -43422,7 +43520,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="结束时刻" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T06:00:00" maxDate="1899-12-30T23:59:00" count="32">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T06:00:00" maxDate="1899-12-30T23:59:00" count="45">
         <d v="1899-12-30T06:00:00"/>
         <d v="1899-12-30T06:05:00"/>
         <d v="1899-12-30T07:08:00"/>
@@ -43455,6 +43553,19 @@
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T21:00:00"/>
+        <d v="1899-12-30T07:04:00"/>
+        <d v="1899-12-30T07:10:00"/>
+        <d v="1899-12-30T08:40:00"/>
+        <d v="1899-12-30T08:45:00"/>
+        <d v="1899-12-30T08:50:00"/>
+        <d v="1899-12-30T12:00:00"/>
+        <d v="1899-12-30T13:30:00"/>
+        <d v="1899-12-30T14:15:00"/>
+        <d v="1899-12-30T15:45:00"/>
+        <d v="1899-12-30T16:30:00"/>
+        <d v="1899-12-30T18:15:00"/>
+        <d v="1899-12-30T19:30:00"/>
+        <d v="1899-12-30T22:40:00"/>
       </sharedItems>
       <fieldGroup par="12" base="6">
         <rangePr groupBy="minutes" startDate="1899-12-30T06:00:00" endDate="1899-12-30T23:59:00"/>
@@ -43525,7 +43636,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="持续时间" numFmtId="20">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00" count="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-31T00:00:00" count="18">
         <d v="1899-12-30T00:00:00"/>
         <d v="1899-12-30T00:05:00"/>
         <d v="1899-12-30T01:03:00"/>
@@ -43540,10 +43651,14 @@
         <d v="1899-12-30T02:00:00"/>
         <d v="1899-12-30T00:40:00"/>
         <d v="1899-12-30T00:50:00"/>
+        <d v="1899-12-30T00:06:00"/>
+        <d v="1899-12-30T00:10:00"/>
+        <d v="1899-12-30T01:30:00"/>
+        <d v="1899-12-30T00:45:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="名称" numFmtId="0">
-      <sharedItems count="47">
+      <sharedItems count="61">
         <s v="早起"/>
         <s v="刷牙洗脸"/>
         <s v="阅读"/>
@@ -43588,6 +43703,20 @@
         <s v="做晚饭"/>
         <s v="吃晚饭"/>
         <s v="今日日程评分"/>
+        <s v="将【目标】类型全部改为【活动】类型"/>
+        <s v="将时间段固定的周期性活动的颜色改成另一种颜色"/>
+        <s v="修复Schedule.md中的情况处理"/>
+        <s v="家人聊天，给爸妈买车票"/>
+        <s v="认真思考森林+庄园的日程值不值得"/>
+        <s v="昨日评分归档"/>
+        <s v="吃午饭"/>
+        <s v="午睡"/>
+        <s v="昨日日报"/>
+        <s v="清理pocket"/>
+        <s v="规划谷歌日历API学习计划"/>
+        <s v="学习Google Calendar API"/>
+        <s v="思考人生目标"/>
+        <s v="今日日程归档"/>
         <s v="制定明日计划" u="1"/>
         <s v="整体情况" u="1"/>
         <s v="明日计划" u="1"/>
@@ -43597,7 +43726,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.43" maxValue="0.9"/>
     </cacheField>
     <cacheField name="备注" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.57369999999999999" maxValue="0.85880000000000001" count="20">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.57369999999999999" maxValue="0.85880000000000001" count="26">
         <m/>
         <s v="爸妈主动联系我了，没能主动联系父母，得一半的分数+0.05"/>
         <s v="列出了清单，但没能将价格信息标明白。完成度40%"/>
@@ -43618,6 +43747,12 @@
         <s v="已连续1周，增加0.2"/>
         <s v="晚上才洗的，没洗午休枕，完成度：60%"/>
         <n v="0.81384000000000001"/>
+        <s v="突发事件"/>
+        <s v="完成度：30%"/>
+        <s v="看RM"/>
+        <s v="完成度20%"/>
+        <s v="完成度：40%"/>
+        <s v="完成度：30%，效率：50%，行动力：10%"/>
       </sharedItems>
     </cacheField>
     <cacheField name="小时" numFmtId="0" databaseField="0">
@@ -43696,7 +43831,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="114">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="141">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -45179,12 +45314,363 @@
     <n v="0"/>
     <x v="0"/>
   </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="27"/>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.5"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="27"/>
+    <x v="33"/>
+    <x v="14"/>
+    <x v="1"/>
+    <n v="0.5"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="34"/>
+    <x v="12"/>
+    <x v="3"/>
+    <n v="0.5"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="44"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="29"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="0.5"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="30"/>
+    <x v="36"/>
+    <x v="1"/>
+    <x v="45"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="31"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="46"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="32"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="47"/>
+    <n v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="22"/>
+    <x v="3"/>
+    <x v="48"/>
+    <n v="0.03"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="18"/>
+    <x v="23"/>
+    <x v="3"/>
+    <x v="49"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="19"/>
+    <x v="37"/>
+    <x v="3"/>
+    <x v="34"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="33"/>
+    <x v="38"/>
+    <x v="16"/>
+    <x v="50"/>
+    <n v="0.1"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="34"/>
+    <x v="39"/>
+    <x v="17"/>
+    <x v="51"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="35"/>
+    <x v="26"/>
+    <x v="3"/>
+    <x v="52"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="22"/>
+    <x v="40"/>
+    <x v="17"/>
+    <x v="53"/>
+    <n v="0.02"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="36"/>
+    <x v="41"/>
+    <x v="13"/>
+    <x v="54"/>
+    <n v="0.04"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="24"/>
+    <x v="29"/>
+    <x v="5"/>
+    <x v="41"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="25"/>
+    <x v="42"/>
+    <x v="4"/>
+    <x v="42"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="43"/>
+    <x v="5"/>
+    <x v="55"/>
+    <n v="1.4999999999999999E-2"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="37"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="56"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="26"/>
+    <x v="31"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="0.6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="0.6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="44"/>
+    <x v="15"/>
+    <x v="43"/>
+    <n v="0.6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="38"/>
+    <x v="19"/>
+    <x v="15"/>
+    <x v="8"/>
+    <n v="0.6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="39"/>
+    <x v="8"/>
+    <x v="15"/>
+    <x v="57"/>
+    <n v="0.1"/>
+    <x v="0"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAF7BE93-F9E8-8947-87E2-E18A326332D6}" name="数据透视表1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A28:T41" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BAF7BE93-F9E8-8947-87E2-E18A326332D6}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A28:U42" firstHeaderRow="1" firstDataRow="5" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0">
       <items count="2">
@@ -45207,14 +45693,15 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0">
-      <items count="3">
+      <items count="4">
+        <item x="2"/>
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -45223,6 +45710,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -45361,17 +45849,21 @@
       </items>
     </pivotField>
     <pivotField compact="0" numFmtId="20" outline="0" showAll="0">
-      <items count="15">
+      <items count="19">
         <item x="0"/>
         <item x="8"/>
         <item x="1"/>
+        <item x="14"/>
+        <item x="15"/>
         <item x="4"/>
         <item x="10"/>
         <item x="3"/>
         <item x="12"/>
+        <item x="17"/>
         <item x="13"/>
         <item x="5"/>
         <item x="2"/>
+        <item x="16"/>
         <item x="11"/>
         <item x="7"/>
         <item x="9"/>
@@ -45380,44 +45872,56 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0">
-      <items count="48">
+      <items count="62">
         <item x="24"/>
         <item x="25"/>
         <item x="29"/>
         <item x="42"/>
+        <item x="50"/>
         <item x="35"/>
         <item x="4"/>
         <item x="13"/>
         <item x="5"/>
         <item x="37"/>
+        <item x="54"/>
         <item x="28"/>
         <item x="18"/>
+        <item x="47"/>
+        <item x="44"/>
         <item x="16"/>
+        <item x="45"/>
+        <item x="57"/>
         <item x="43"/>
         <item x="9"/>
         <item x="15"/>
         <item x="14"/>
-        <item m="1" x="46"/>
+        <item m="1" x="60"/>
         <item x="10"/>
         <item x="8"/>
         <item x="38"/>
         <item x="17"/>
+        <item x="53"/>
+        <item x="48"/>
         <item x="7"/>
         <item x="39"/>
         <item x="23"/>
         <item x="32"/>
         <item x="1"/>
+        <item x="56"/>
         <item x="31"/>
+        <item x="51"/>
         <item x="36"/>
         <item x="33"/>
         <item x="30"/>
         <item x="6"/>
+        <item x="46"/>
         <item x="22"/>
+        <item x="55"/>
         <item x="2"/>
         <item x="0"/>
         <item x="12"/>
-        <item m="1" x="45"/>
-        <item m="1" x="44"/>
+        <item m="1" x="59"/>
+        <item m="1" x="58"/>
         <item x="11"/>
         <item x="27"/>
         <item x="20"/>
@@ -45425,6 +45929,8 @@
         <item x="21"/>
         <item x="40"/>
         <item x="19"/>
+        <item x="49"/>
+        <item x="52"/>
         <item x="41"/>
         <item x="34"/>
         <item x="3"/>
@@ -45433,7 +45939,7 @@
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0">
-      <items count="21">
+      <items count="27">
         <item x="8"/>
         <item x="15"/>
         <item x="19"/>
@@ -45443,10 +45949,16 @@
         <item x="1"/>
         <item x="3"/>
         <item x="10"/>
+        <item x="22"/>
         <item x="2"/>
         <item x="13"/>
         <item x="9"/>
+        <item x="20"/>
         <item x="16"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
         <item x="18"/>
         <item x="11"/>
         <item x="14"/>
@@ -45523,7 +46035,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -45548,6 +46060,9 @@
     <i>
       <x v="7"/>
     </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -45558,7 +46073,7 @@
     <field x="12"/>
     <field x="6"/>
   </colFields>
-  <colItems count="19">
+  <colItems count="20">
     <i>
       <x v="1"/>
     </i>
@@ -45602,6 +46117,9 @@
       <x v="19"/>
     </i>
     <i>
+      <x v="20"/>
+    </i>
+    <i>
       <x v="21"/>
     </i>
     <i>
@@ -45639,17 +46157,21 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="14">
+      <items count="18">
         <i x="0" s="1"/>
         <i x="8" s="1"/>
         <i x="1" s="1"/>
+        <i x="14" s="1"/>
+        <i x="15" s="1"/>
         <i x="4" s="1"/>
         <i x="10" s="1"/>
         <i x="3" s="1"/>
         <i x="12" s="1"/>
+        <i x="17" s="1"/>
         <i x="13" s="1"/>
         <i x="5" s="1"/>
         <i x="2" s="1"/>
+        <i x="16" s="1"/>
         <i x="11" s="1"/>
         <i x="7" s="1"/>
         <i x="9" s="1"/>
@@ -45712,7 +46234,7 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="20">
+      <items count="26">
         <i x="8" s="1"/>
         <i x="15" s="1"/>
         <i x="19" s="1"/>
@@ -45722,10 +46244,16 @@
         <i x="1" s="1"/>
         <i x="3" s="1"/>
         <i x="10" s="1"/>
+        <i x="22" s="1"/>
         <i x="2" s="1"/>
         <i x="13" s="1"/>
         <i x="9" s="1"/>
+        <i x="20" s="1"/>
         <i x="16" s="1"/>
+        <i x="21" s="1"/>
+        <i x="25" s="1"/>
+        <i x="24" s="1"/>
+        <i x="23" s="1"/>
         <i x="18" s="1"/>
         <i x="11" s="1"/>
         <i x="14" s="1"/>
@@ -45793,7 +46321,8 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="2">
+      <items count="3">
+        <i x="2" s="1"/>
         <i x="0" s="1"/>
         <i x="1" s="1"/>
       </items>
@@ -45809,7 +46338,7 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="8">
+      <items count="9">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
@@ -45818,6 +46347,7 @@
         <i x="5" s="1"/>
         <i x="6" s="1"/>
         <i x="7" s="1"/>
+        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -45910,10 +46440,13 @@
       <items count="62">
         <i x="1" s="1"/>
         <i x="11" s="1"/>
+        <i x="16" s="1"/>
         <i x="21" s="1"/>
         <i x="31" s="1"/>
         <i x="34" s="1"/>
+        <i x="41" s="1"/>
         <i x="46" s="1"/>
+        <i x="5" s="1"/>
         <i x="51" s="1"/>
         <i x="60" s="1"/>
         <i x="6" s="1"/>
@@ -45924,7 +46457,6 @@
         <i x="13" s="1" nd="1"/>
         <i x="14" s="1" nd="1"/>
         <i x="15" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
         <i x="17" s="1" nd="1"/>
         <i x="18" s="1" nd="1"/>
         <i x="19" s="1" nd="1"/>
@@ -45949,7 +46481,6 @@
         <i x="39" s="1" nd="1"/>
         <i x="40" s="1" nd="1"/>
         <i x="4" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
         <i x="42" s="1" nd="1"/>
         <i x="43" s="1" nd="1"/>
         <i x="44" s="1" nd="1"/>
@@ -45958,7 +46489,6 @@
         <i x="48" s="1" nd="1"/>
         <i x="49" s="1" nd="1"/>
         <i x="50" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
         <i x="52" s="1" nd="1"/>
         <i x="53" s="1" nd="1"/>
         <i x="54" s="1" nd="1"/>
@@ -45988,19 +46518,25 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="624362989">
-      <items count="47">
+      <items count="61">
         <i x="24" s="1"/>
         <i x="25" s="1"/>
         <i x="29" s="1"/>
         <i x="42" s="1"/>
+        <i x="50" s="1"/>
         <i x="35" s="1"/>
         <i x="4" s="1"/>
         <i x="13" s="1"/>
         <i x="5" s="1"/>
         <i x="37" s="1"/>
+        <i x="54" s="1"/>
         <i x="28" s="1"/>
         <i x="18" s="1"/>
+        <i x="47" s="1"/>
+        <i x="44" s="1"/>
         <i x="16" s="1"/>
+        <i x="45" s="1"/>
+        <i x="57" s="1"/>
         <i x="43" s="1"/>
         <i x="9" s="1"/>
         <i x="15" s="1"/>
@@ -46009,17 +46545,23 @@
         <i x="8" s="1"/>
         <i x="38" s="1"/>
         <i x="17" s="1"/>
+        <i x="53" s="1"/>
+        <i x="48" s="1"/>
         <i x="7" s="1"/>
         <i x="39" s="1"/>
         <i x="23" s="1"/>
         <i x="32" s="1"/>
         <i x="1" s="1"/>
+        <i x="56" s="1"/>
         <i x="31" s="1"/>
+        <i x="51" s="1"/>
         <i x="36" s="1"/>
         <i x="33" s="1"/>
         <i x="30" s="1"/>
         <i x="6" s="1"/>
+        <i x="46" s="1"/>
         <i x="22" s="1"/>
+        <i x="55" s="1"/>
         <i x="2" s="1"/>
         <i x="0" s="1"/>
         <i x="12" s="1"/>
@@ -46030,12 +46572,14 @@
         <i x="21" s="1"/>
         <i x="40" s="1"/>
         <i x="19" s="1"/>
+        <i x="49" s="1"/>
+        <i x="52" s="1"/>
         <i x="41" s="1"/>
         <i x="34" s="1"/>
         <i x="3" s="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -46060,6 +46604,7 @@
         <i x="17" s="1"/>
         <i x="18" s="1"/>
         <i x="19" s="1"/>
+        <i x="20" s="1"/>
         <i x="21" s="1"/>
         <i x="22" s="1"/>
         <i x="23" s="1"/>
@@ -46070,7 +46615,6 @@
         <i x="10" s="1"/>
         <i x="0" s="1" nd="1"/>
         <i x="25" s="1" nd="1"/>
-        <i x="20" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
         <i x="3" s="1" nd="1"/>
         <i x="4" s="1" nd="1"/>
@@ -46105,9 +46649,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:K118" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
-  <autoFilter ref="A4:K118" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:K145" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
+  <autoFilter ref="A4:K145" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K145">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
     <sortCondition ref="G5:G58"/>
@@ -46698,8 +47242,8 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{5A954375-5C20-B54E-8F3A-0FFEE02FD940}" name="表31" displayName="表31" ref="A2:H10" totalsRowShown="0">
-  <autoFilter ref="A2:H10" xr:uid="{1EFA4EEC-822A-7449-9A8A-23DC41ABE02C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{5A954375-5C20-B54E-8F3A-0FFEE02FD940}" name="表31" displayName="表31" ref="A2:H14" totalsRowShown="0">
+  <autoFilter ref="A2:H14" xr:uid="{1EFA4EEC-822A-7449-9A8A-23DC41ABE02C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4E7CE900-22DD-714B-B734-45A4D027E774}" name="日期" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{7A3991ED-B9BD-9843-8E68-4D51B39BE365}" name="开始时刻" dataDxfId="30"/>
@@ -46723,8 +47267,8 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{36B40F93-07EC-744A-8F6C-8DE3C55EEE00}" name="表31_38" displayName="表31_38" ref="J2:Q10" totalsRowShown="0">
-  <autoFilter ref="J2:Q10" xr:uid="{F44BE8BC-C58C-ED4C-A1A9-44E9FB8A8AF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{36B40F93-07EC-744A-8F6C-8DE3C55EEE00}" name="表31_38" displayName="表31_38" ref="J2:Q14" totalsRowShown="0">
+  <autoFilter ref="J2:Q14" xr:uid="{F44BE8BC-C58C-ED4C-A1A9-44E9FB8A8AF0}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6717EC18-DC1A-8D4D-95D3-34CA5A45CE00}" name="日期" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{09742971-AED2-444A-A80A-0B45357F85CC}" name="开始时刻" dataDxfId="26">
@@ -46750,17 +47294,44 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{31D7E7A6-DC60-4140-8077-68B159687F28}" name="表31_36" displayName="表31_36" ref="A3:H11" totalsRowShown="0">
-  <autoFilter ref="A3:H11" xr:uid="{848BBEB5-DCCD-3F4F-91E3-D2E7646FEA92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5E103895-A410-B44F-A0FD-679C7AE85807}" name="表31_24" displayName="表31_24" ref="A2:H26" totalsRowShown="0">
+  <autoFilter ref="A2:H26" xr:uid="{6223C41C-E09C-5647-9085-4FB0A0D87DF6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3F343841-4748-8D4D-A46F-B6C820F737BE}" name="日期" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{029A3E6A-7D34-7446-8082-76E9CEF6555A}" name="开始时刻" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{08DDE9E8-C3CA-564D-96B2-42423AC6ECAD}" name="日期" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{0E12D098-272F-A34E-81B5-FD12721FBCCC}" name="开始时刻" dataDxfId="22">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3097AD64-9998-934C-B24E-1B3BFD76821C}" name="结束时刻" dataDxfId="21">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{02D01728-6FAF-1040-A7AC-D8FC877EC5FF}" name="持续时间" dataDxfId="20">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{6BE882FF-E7A6-7146-B199-C5B245C99458}" name="得分">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B8DB8AC3-836A-6347-B8A8-A681E13C2FB6}" name="得分备注">
+      <calculatedColumnFormula array="1">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{6C026AEE-0200-A542-BCE4-8F4126527DB9}" name="正连续天数2"/>
+    <tableColumn id="6" xr3:uid="{AD05FEBB-6EC5-9B48-A556-403822196682}" name="负连续天数"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{31D7E7A6-DC60-4140-8077-68B159687F28}" name="表31_36" displayName="表31_36" ref="A3:H23" totalsRowShown="0">
+  <autoFilter ref="A3:H23" xr:uid="{848BBEB5-DCCD-3F4F-91E3-D2E7646FEA92}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3F343841-4748-8D4D-A46F-B6C820F737BE}" name="日期" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{029A3E6A-7D34-7446-8082-76E9CEF6555A}" name="开始时刻" dataDxfId="18">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9477B905-F312-5B40-84B9-D68CB70074CF}" name="结束时刻" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{9477B905-F312-5B40-84B9-D68CB70074CF}" name="结束时刻" dataDxfId="17">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D806ACC-0B7B-C844-92EA-E5D9A2E20181}" name="持续时间" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{0D806ACC-0B7B-C844-92EA-E5D9A2E20181}" name="持续时间" dataDxfId="16">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{28890857-70F5-2445-9F43-D6D84A3722BB}" name="得分">
@@ -46776,18 +47347,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E6B38119-3623-6244-9EAF-E485055F1811}" name="表31_3637" displayName="表31_3637" ref="J3:Q11" totalsRowShown="0">
-  <autoFilter ref="J3:Q11" xr:uid="{EB3CB43A-2FEC-5A4C-8A58-585136EBE8C8}"/>
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E6B38119-3623-6244-9EAF-E485055F1811}" name="表31_3637" displayName="表31_3637" ref="J3:Q23" totalsRowShown="0">
+  <autoFilter ref="J3:Q23" xr:uid="{EB3CB43A-2FEC-5A4C-8A58-585136EBE8C8}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8F4FD686-4CFB-E94D-A26A-8911EC02B20B}" name="日期" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{48F65186-1E24-DB4E-86BF-56A24822844D}" name="开始时刻" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{8F4FD686-4CFB-E94D-A26A-8911EC02B20B}" name="日期" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{48F65186-1E24-DB4E-86BF-56A24822844D}" name="开始时刻" dataDxfId="14">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{45F0A9DE-7326-A042-B3F8-EE6D252AC3D7}" name="结束时刻" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{45F0A9DE-7326-A042-B3F8-EE6D252AC3D7}" name="结束时刻" dataDxfId="13">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8521E60A-5547-1E44-88DA-B20BBC60E089}" name="持续时间" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{8521E60A-5547-1E44-88DA-B20BBC60E089}" name="持续时间" dataDxfId="12">
       <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{B8917C9C-1D30-8243-902F-74E256FFDCB4}" name="得分">
@@ -46798,33 +47369,6 @@
     </tableColumn>
     <tableColumn id="5" xr3:uid="{4BF5A52B-EE10-AC40-86F0-2AB79D9304AD}" name="正连续天数2"/>
     <tableColumn id="6" xr3:uid="{0FB5252E-1FB9-4744-91F1-C3A5CCA43FA9}" name="负连续天数"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{5E103895-A410-B44F-A0FD-679C7AE85807}" name="表31_24" displayName="表31_24" ref="A2:H10" totalsRowShown="0">
-  <autoFilter ref="A2:H10" xr:uid="{6223C41C-E09C-5647-9085-4FB0A0D87DF6}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{08DDE9E8-C3CA-564D-96B2-42423AC6ECAD}" name="日期" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{0E12D098-272F-A34E-81B5-FD12721FBCCC}" name="开始时刻" dataDxfId="14">
-      <calculatedColumnFormula array="1">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{3097AD64-9998-934C-B24E-1B3BFD76821C}" name="结束时刻" dataDxfId="13">
-      <calculatedColumnFormula array="1">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{02D01728-6FAF-1040-A7AC-D8FC877EC5FF}" name="持续时间" dataDxfId="12">
-      <calculatedColumnFormula array="1">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{6BE882FF-E7A6-7146-B199-C5B245C99458}" name="得分">
-      <calculatedColumnFormula array="1">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{B8DB8AC3-836A-6347-B8A8-A681E13C2FB6}" name="得分备注">
-      <calculatedColumnFormula array="1">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{6C026AEE-0200-A542-BCE4-8F4126527DB9}" name="正连续天数2"/>
-    <tableColumn id="6" xr3:uid="{AD05FEBB-6EC5-9B48-A556-403822196682}" name="负连续天数"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -47343,10 +47887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:O134"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51882,212 +52426,1060 @@
       <c r="K118" s="10"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="10"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="10"/>
+      <c r="A119" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B119" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C119" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D119" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E119" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F119" s="9">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="H119" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J119" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="10"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="10"/>
+      <c r="A120" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B120" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C120" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D120" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E120" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F120" s="9">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="G120" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="H120" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J120" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="10"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="10"/>
+      <c r="A121" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B121" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C121" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D121" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E121" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F121" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="G121" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H121" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="10"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="10"/>
+      <c r="A122" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B122" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C122" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D122" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E122" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F122" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G122" s="9">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="H122" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="10"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="25"/>
+      <c r="A123" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B123" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C123" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D123" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E123" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F123" s="9">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G123" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H123" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J123" s="25">
+        <v>0.1</v>
+      </c>
       <c r="K123" s="10"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="10"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="10"/>
+      <c r="A124" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B124" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C124" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D124" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E124" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F124" s="9">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G124" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="H124" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J124" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="10"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="25"/>
+      <c r="A125" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B125" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C125" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D125" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E125" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F125" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="G125" s="9">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="H125" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J125" s="25">
+        <v>0.1</v>
+      </c>
       <c r="K125" s="10"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="10"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="25"/>
+      <c r="A126" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B126" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C126" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D126" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E126" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F126" s="9">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="G126" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="H126" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J126" s="25">
+        <v>0.1</v>
+      </c>
       <c r="K126" s="10"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="10"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="10"/>
+      <c r="A127" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B127" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C127" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D127" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E127" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F127" s="9">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G127" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H127" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I127" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J127" s="25">
+        <v>0</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="10"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="10"/>
+      <c r="A128" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B128" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C128" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D128" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E128" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F128" s="9">
+        <v>0.4375</v>
+      </c>
+      <c r="G128" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H128" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J128" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="10"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="25"/>
+      <c r="A129" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B129" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C129" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D129" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E129" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F129" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H129" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I129" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J129" s="25">
+        <v>0.1</v>
+      </c>
       <c r="K129" s="10"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="10"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="25"/>
+      <c r="A130" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B130" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C130" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D130" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E130" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F130" s="9">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G130" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H130" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="I130" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J130" s="25">
+        <v>0.1</v>
+      </c>
       <c r="K130" s="10"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="10"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="10"/>
+      <c r="A131" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B131" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C131" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D131" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E131" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F131" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0.5625</v>
+      </c>
+      <c r="H131" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I131" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J131" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="10"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="25"/>
+      <c r="A132" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B132" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C132" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D132" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E132" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F132" s="9">
+        <v>0.5625</v>
+      </c>
+      <c r="G132" s="9">
+        <v>0.59375</v>
+      </c>
+      <c r="H132" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I132" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J132" s="25">
+        <v>0.1</v>
+      </c>
       <c r="K132" s="10"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="10"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="25"/>
+      <c r="A133" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B133" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C133" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D133" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E133" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F133" s="9">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G133" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="H133" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I133" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J133" s="25">
+        <v>0.1</v>
+      </c>
       <c r="K133" s="10"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="10"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="10"/>
+      <c r="A134" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B134" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C134" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D134" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E134" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F134" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0.65625</v>
+      </c>
+      <c r="H134" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I134" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J134" s="25">
+        <v>0.02</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B135" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C135" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D135" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E135" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F135" s="9">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G135" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="H135" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J135" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="K135" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B136" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C136" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D136" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E136" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F136" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G136" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H136" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I136" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="J136" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K136" s="10"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B137" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C137" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D137" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E137" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F137" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="G137" s="9">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="H137" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="I137" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="J137" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K137" s="10"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B138" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C138" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D138" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E138" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F138" s="9">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G138" s="9">
+        <v>0.8125</v>
+      </c>
+      <c r="H138" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J138" s="25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B139" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C139" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D139" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E139" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F139" s="9">
+        <v>0.8125</v>
+      </c>
+      <c r="G139" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H139" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J139" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K139" s="10"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B140" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C140" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D140" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E140" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F140" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G140" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="H140" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I140" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K140" s="10"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B141" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C141" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D141" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E141" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F141" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="G141" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H141" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="I141" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J141" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="K141" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B142" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C142" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D142" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E142" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F142" s="9">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G142" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="H142" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I142" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J142" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B143" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C143" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D143" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E143" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F143" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="G143" s="9">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="H143" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J143" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="K143" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B144" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C144" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D144" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E144" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F144" s="9">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="G144" s="9">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H144" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="I144" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J144" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="10" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B145" s="8" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 2 季度</v>
+      </c>
+      <c r="C145" s="8" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>3 月</v>
+      </c>
+      <c r="D145" s="8" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 10 周</v>
+      </c>
+      <c r="E145" s="8">
+        <v>43892</v>
+      </c>
+      <c r="F145" s="9">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="G145" s="9">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H145" s="9">
+        <f>records[[#This Row],[结束时刻]]-records[[#This Row],[开始时刻]]</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="I145" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J145" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="K145" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -52103,11 +53495,869 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A300825-7CFA-7146-9AC9-6267CAD0CB97}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D1E0CB-D626-3946-A773-1A6D1FCBC0CB}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>43884</v>
+      </c>
+      <c r="B3" s="18">
+        <f t="array" ref="B3">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C3" s="18">
+        <f t="array" ref="C3">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D3" s="18">
+        <f t="array" ref="D3">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E3">
+        <f t="array" ref="E3">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>-0.1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="array" ref="F3">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>43885</v>
+      </c>
+      <c r="B4" s="18">
+        <f t="array" ref="B4">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="array" ref="C4">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="array" ref="D4">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E4">
+        <f t="array" ref="E4">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>-0.2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="array" ref="F4">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G3+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H3+1,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>43886</v>
+      </c>
+      <c r="B5" s="18">
+        <f t="array" ref="B5">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="array" ref="C5">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="array" ref="D5">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E5">
+        <f t="array" ref="E5">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="array" ref="F5">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G4+1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H4+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>43887</v>
+      </c>
+      <c r="B6" s="18">
+        <f t="array" ref="B6">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="array" ref="C6">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="array" ref="D6">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E6">
+        <f t="array" ref="E6">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="array" ref="F6">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G5+1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H5+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>43888</v>
+      </c>
+      <c r="B7" s="18">
+        <f t="array" ref="B7">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="array" ref="C7">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="array" ref="D7">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E7">
+        <f t="array" ref="E7">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="array" ref="F7">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G7">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G6+1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H6+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>43889</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E8">
+        <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G7+1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H7+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>43890</v>
+      </c>
+      <c r="B9" s="18">
+        <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E9">
+        <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G8+1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H8+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B10" s="18">
+        <f t="array" ref="B10">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="array" ref="C10">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="array" ref="D10">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.3750000000000011E-2</v>
+      </c>
+      <c r="E10">
+        <f t="array" ref="E10">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="array" ref="F10">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G10">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G9+1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H9+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>43892</v>
+      </c>
+      <c r="B11" s="18">
+        <f t="array" ref="B11">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="array" ref="C11">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="array" ref="D11">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="E11">
+        <f t="array" ref="E11">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="array" ref="F11">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续1周，增加0.2</v>
+      </c>
+      <c r="G11">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G10+1,0))</f>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H10+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>43893</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f t="array" ref="B12">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f t="array" ref="C12">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="array" ref="D12">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="array" ref="E12">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="array" ref="F12">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G11+1,0))</f>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H11+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>43894</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f t="array" ref="B13">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f t="array" ref="C13">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="array" ref="D13">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="array" ref="E13">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="array" ref="F13">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G12+1,0))</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H12+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>43895</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f t="array" ref="B14">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f t="array" ref="C14">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f t="array" ref="D14">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="array" ref="E14">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="array" ref="F14">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G13+1,0))</f>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H13+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>43896</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f t="array" ref="B15">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f t="array" ref="C15">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f t="array" ref="D15">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="array" ref="E15">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="array" ref="F15">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G14+1,0))</f>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H14+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>43897</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f t="array" ref="B16">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f t="array" ref="C16">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f t="array" ref="D16">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="array" ref="E16">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="array" ref="F16">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G15+1,0))</f>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H15+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>43898</v>
+      </c>
+      <c r="B17" s="18" t="str">
+        <f t="array" ref="B17">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f t="array" ref="C17">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f t="array" ref="D17">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="array" ref="E17">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="array" ref="F17">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G16+1,0))</f>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H16+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>43899</v>
+      </c>
+      <c r="B18" s="18" t="str">
+        <f t="array" ref="B18">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f t="array" ref="C18">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f t="array" ref="D18">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="array" ref="E18">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="array" ref="F18">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G17+1,0))</f>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H17+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>43900</v>
+      </c>
+      <c r="B19" s="18" t="str">
+        <f t="array" ref="B19">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f t="array" ref="C19">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="18" t="str">
+        <f t="array" ref="D19">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="array" ref="E19">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="array" ref="F19">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G18+1,0))</f>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H18+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>43901</v>
+      </c>
+      <c r="B20" s="18" t="str">
+        <f t="array" ref="B20">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f t="array" ref="C20">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f t="array" ref="D20">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="array" ref="E20">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="array" ref="F20">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G19+1,0))</f>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H19+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>43902</v>
+      </c>
+      <c r="B21" s="18" t="str">
+        <f t="array" ref="B21">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f t="array" ref="C21">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D21" s="18" t="str">
+        <f t="array" ref="D21">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f t="array" ref="E21">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="array" ref="F21">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G20+1,0))</f>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H20+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>43903</v>
+      </c>
+      <c r="B22" s="18" t="str">
+        <f t="array" ref="B22">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f t="array" ref="C22">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f t="array" ref="D22">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f t="array" ref="E22">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="array" ref="F22">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G21+1,0))</f>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H21+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>43904</v>
+      </c>
+      <c r="B23" s="18" t="str">
+        <f t="array" ref="B23">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f t="array" ref="C23">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f t="array" ref="D23">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f t="array" ref="E23">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="array" ref="F23">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G22+1,0))</f>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H22+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>43905</v>
+      </c>
+      <c r="B24" s="18" t="str">
+        <f t="array" ref="B24">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f t="array" ref="C24">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f t="array" ref="D24">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <f t="array" ref="E24">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="array" ref="F24">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G23+1,0))</f>
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H23+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6">
+        <v>43906</v>
+      </c>
+      <c r="B25" s="18" t="str">
+        <f t="array" ref="B25">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f t="array" ref="C25">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f t="array" ref="D25">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <f t="array" ref="E25">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="array" ref="F25">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G24+1,0))</f>
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H24+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
+        <v>43907</v>
+      </c>
+      <c r="B26" s="18" t="str">
+        <f t="array" ref="B26">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f t="array" ref="C26">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f t="array" ref="D26">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f t="array" ref="E26">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f t="array" ref="F26">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G25+1,0))</f>
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H25+1,0))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A300825-7CFA-7146-9AC9-6267CAD0CB97}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -52727,6 +54977,774 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="6">
+        <v>43892</v>
+      </c>
+      <c r="B12" s="18">
+        <f t="array" ref="B12">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="array" ref="C12">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="array" ref="D12">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E12">
+        <f t="array" ref="E12">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="array" ref="F12">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续1周，增加0.2</v>
+      </c>
+      <c r="G12">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G11+1,0))</f>
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H11+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>43892</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="array" ref="K12">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="array" ref="L12">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.375</v>
+      </c>
+      <c r="M12" s="18">
+        <f t="array" ref="M12">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="N12">
+        <f t="array" ref="N12">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="array" ref="O12">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续1周，增加0.2</v>
+      </c>
+      <c r="P12">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P11+1,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q11+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="6">
+        <v>43893</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f t="array" ref="B13">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f t="array" ref="C13">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="array" ref="D13">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="array" ref="E13">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="array" ref="F13">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G12+1,0))</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H12+1,0))</f>
+        <v/>
+      </c>
+      <c r="J13" s="6">
+        <v>43893</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f t="array" ref="K13">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="18" t="str">
+        <f t="array" ref="L13">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="18" t="str">
+        <f t="array" ref="M13">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="array" ref="N13">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f t="array" ref="O13">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P12+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q12+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="6">
+        <v>43894</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f t="array" ref="B14">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f t="array" ref="C14">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f t="array" ref="D14">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="array" ref="E14">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="array" ref="F14">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G13+1,0))</f>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H13+1,0))</f>
+        <v/>
+      </c>
+      <c r="J14" s="6">
+        <v>43894</v>
+      </c>
+      <c r="K14" s="18" t="str">
+        <f t="array" ref="K14">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="18" t="str">
+        <f t="array" ref="L14">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="18" t="str">
+        <f t="array" ref="M14">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="array" ref="N14">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f t="array" ref="O14">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P13+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q13+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="6">
+        <v>43895</v>
+      </c>
+      <c r="B15" s="18" t="str">
+        <f t="array" ref="B15">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f t="array" ref="C15">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f t="array" ref="D15">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <f t="array" ref="E15">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="array" ref="F15">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G14+1,0))</f>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H14+1,0))</f>
+        <v/>
+      </c>
+      <c r="J15" s="6">
+        <v>43895</v>
+      </c>
+      <c r="K15" s="18" t="str">
+        <f t="array" ref="K15">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="18" t="str">
+        <f t="array" ref="L15">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="18" t="str">
+        <f t="array" ref="M15">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f t="array" ref="N15">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f t="array" ref="O15">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P14+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q14+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="6">
+        <v>43896</v>
+      </c>
+      <c r="B16" s="18" t="str">
+        <f t="array" ref="B16">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f t="array" ref="C16">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f t="array" ref="D16">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f t="array" ref="E16">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="array" ref="F16">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G15+1,0))</f>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H15+1,0))</f>
+        <v/>
+      </c>
+      <c r="J16" s="6">
+        <v>43896</v>
+      </c>
+      <c r="K16" s="18" t="str">
+        <f t="array" ref="K16">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L16" s="18" t="str">
+        <f t="array" ref="L16">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="18" t="str">
+        <f t="array" ref="M16">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f t="array" ref="N16">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f t="array" ref="O16">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P15+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q15+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="6">
+        <v>43897</v>
+      </c>
+      <c r="B17" s="18" t="str">
+        <f t="array" ref="B17">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f t="array" ref="C17">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f t="array" ref="D17">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="array" ref="E17">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="array" ref="F17">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G16+1,0))</f>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H16+1,0))</f>
+        <v/>
+      </c>
+      <c r="J17" s="6">
+        <v>43897</v>
+      </c>
+      <c r="K17" s="18" t="str">
+        <f t="array" ref="K17">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="18" t="str">
+        <f t="array" ref="L17">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="18" t="str">
+        <f t="array" ref="M17">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f t="array" ref="N17">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f t="array" ref="O17">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P16+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q16+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="6">
+        <v>43898</v>
+      </c>
+      <c r="B18" s="18" t="str">
+        <f t="array" ref="B18">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f t="array" ref="C18">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f t="array" ref="D18">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <f t="array" ref="E18">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="array" ref="F18">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G17+1,0))</f>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H17+1,0))</f>
+        <v/>
+      </c>
+      <c r="J18" s="6">
+        <v>43898</v>
+      </c>
+      <c r="K18" s="18" t="str">
+        <f t="array" ref="K18">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="18" t="str">
+        <f t="array" ref="L18">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="18" t="str">
+        <f t="array" ref="M18">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f t="array" ref="N18">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f t="array" ref="O18">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P17+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q17+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="6">
+        <v>43899</v>
+      </c>
+      <c r="B19" s="18" t="str">
+        <f t="array" ref="B19">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f t="array" ref="C19">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="18" t="str">
+        <f t="array" ref="D19">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <f t="array" ref="E19">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="array" ref="F19">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G18+1,0))</f>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H18+1,0))</f>
+        <v/>
+      </c>
+      <c r="J19" s="6">
+        <v>43899</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f t="array" ref="K19">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="18" t="str">
+        <f t="array" ref="L19">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="18" t="str">
+        <f t="array" ref="M19">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f t="array" ref="N19">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f t="array" ref="O19">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P18+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q18+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="6">
+        <v>43900</v>
+      </c>
+      <c r="B20" s="18" t="str">
+        <f t="array" ref="B20">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f t="array" ref="C20">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f t="array" ref="D20">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f t="array" ref="E20">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="array" ref="F20">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G19+1,0))</f>
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H19+1,0))</f>
+        <v/>
+      </c>
+      <c r="J20" s="6">
+        <v>43900</v>
+      </c>
+      <c r="K20" s="18" t="str">
+        <f t="array" ref="K20">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L20" s="18" t="str">
+        <f t="array" ref="L20">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="18" t="str">
+        <f t="array" ref="M20">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f t="array" ref="N20">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f t="array" ref="O20">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P19+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q19+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="6">
+        <v>43901</v>
+      </c>
+      <c r="B21" s="18" t="str">
+        <f t="array" ref="B21">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f t="array" ref="C21">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D21" s="18" t="str">
+        <f t="array" ref="D21">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <f t="array" ref="E21">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="array" ref="F21">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G20+1,0))</f>
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H20+1,0))</f>
+        <v/>
+      </c>
+      <c r="J21" s="6">
+        <v>43901</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f t="array" ref="K21">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="18" t="str">
+        <f t="array" ref="L21">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="18" t="str">
+        <f t="array" ref="M21">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="array" ref="N21">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="array" ref="O21">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P20+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q20+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="6">
+        <v>43902</v>
+      </c>
+      <c r="B22" s="18" t="str">
+        <f t="array" ref="B22">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f t="array" ref="C22">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f t="array" ref="D22">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f t="array" ref="E22">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="array" ref="F22">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G21+1,0))</f>
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H21+1,0))</f>
+        <v/>
+      </c>
+      <c r="J22" s="6">
+        <v>43902</v>
+      </c>
+      <c r="K22" s="18" t="str">
+        <f t="array" ref="K22">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="18" t="str">
+        <f t="array" ref="L22">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="18" t="str">
+        <f t="array" ref="M22">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="array" ref="N22">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O22" t="str">
+        <f t="array" ref="O22">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P21+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q22" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q21+1,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="6">
+        <v>43903</v>
+      </c>
+      <c r="B23" s="18" t="str">
+        <f t="array" ref="B23">IFERROR(INDEX(records[开始时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f t="array" ref="C23">IFERROR(INDEX(records[结束时刻],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f t="array" ref="D23">IFERROR(INDEX(records[持续时间],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f t="array" ref="E23">IFERROR(INDEX(records[得分],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="array" ref="F23">IFERROR(INDEX(records[备注],MATCH(表31_36[[#This Row],[日期]]&amp;"做早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&gt;0,G22+1,0))</f>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(表31_36[[#This Row],[得分]]="","",IF(表31_36[[#This Row],[得分]]&lt;0,H22+1,0))</f>
+        <v/>
+      </c>
+      <c r="J23" s="6">
+        <v>43903</v>
+      </c>
+      <c r="K23" s="18" t="str">
+        <f t="array" ref="K23">IFERROR(INDEX(records[开始时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="18" t="str">
+        <f t="array" ref="L23">IFERROR(INDEX(records[结束时刻],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="18" t="str">
+        <f t="array" ref="M23">IFERROR(INDEX(records[持续时间],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f t="array" ref="N23">IFERROR(INDEX(records[得分],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <f t="array" ref="O23">IFERROR(INDEX(records[备注],MATCH(表31_3637[[#This Row],[日期]]&amp;"吃早餐",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&gt;0,P22+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q23" t="str">
+        <f>IF(表31_3637[[#This Row],[得分]]="","",IF(表31_3637[[#This Row],[得分]]&lt;0,Q22+1,0))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:H2"/>
@@ -52738,336 +55756,6 @@
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D1E0CB-D626-3946-A773-1A6D1FCBC0CB}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6">
-        <v>43884</v>
-      </c>
-      <c r="B3" s="18">
-        <f t="array" ref="B3">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="C3" s="18">
-        <f t="array" ref="C3">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D3" s="18">
-        <f t="array" ref="D3">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="E3">
-        <f t="array" ref="E3">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>-0.1</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="array" ref="F3">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6">
-        <v>43885</v>
-      </c>
-      <c r="B4" s="18">
-        <f t="array" ref="B4">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="C4" s="18">
-        <f t="array" ref="C4">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D4" s="18">
-        <f t="array" ref="D4">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="E4">
-        <f t="array" ref="E4">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>-0.2</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="array" ref="F4">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G4">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G3+1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H3+1,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6">
-        <v>43886</v>
-      </c>
-      <c r="B5" s="18">
-        <f t="array" ref="B5">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="C5" s="18">
-        <f t="array" ref="C5">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D5" s="18">
-        <f t="array" ref="D5">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="E5">
-        <f t="array" ref="E5">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.1</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="array" ref="F5">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G5">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G4+1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H4+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
-        <v>43887</v>
-      </c>
-      <c r="B6" s="18">
-        <f t="array" ref="B6">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="C6" s="18">
-        <f t="array" ref="C6">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D6" s="18">
-        <f t="array" ref="D6">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="E6">
-        <f t="array" ref="E6">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.1</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="array" ref="F6">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G6">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G5+1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H5+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6">
-        <v>43888</v>
-      </c>
-      <c r="B7" s="18">
-        <f t="array" ref="B7">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="C7" s="18">
-        <f t="array" ref="C7">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D7" s="18">
-        <f t="array" ref="D7">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="E7">
-        <f t="array" ref="E7">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="array" ref="F7">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v>已连续3天，增加0.1</v>
-      </c>
-      <c r="G7">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G6+1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H6+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6">
-        <v>43889</v>
-      </c>
-      <c r="B8" s="18">
-        <f t="array" ref="B8">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="C8" s="18">
-        <f t="array" ref="C8">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="array" ref="D8">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="E8">
-        <f t="array" ref="E8">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="array" ref="F8">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G8">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G7+1,0))</f>
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H7+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
-        <v>43890</v>
-      </c>
-      <c r="B9" s="18">
-        <f t="array" ref="B9">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="C9" s="18">
-        <f t="array" ref="C9">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D9" s="18">
-        <f t="array" ref="D9">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="E9">
-        <f t="array" ref="E9">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="array" ref="F9">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G9">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G8+1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H8+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6">
-        <v>43891</v>
-      </c>
-      <c r="B10" s="18">
-        <f t="array" ref="B10">IFERROR(INDEX(records[开始时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.25347222222222221</v>
-      </c>
-      <c r="C10" s="18">
-        <f t="array" ref="C10">IFERROR(INDEX(records[结束时刻],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.29722222222222222</v>
-      </c>
-      <c r="D10" s="18">
-        <f t="array" ref="D10">IFERROR(INDEX(records[持续时间],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>4.3750000000000011E-2</v>
-      </c>
-      <c r="E10">
-        <f t="array" ref="E10">IFERROR(INDEX(records[得分],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0)),"")</f>
-        <v>0.3</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="array" ref="F10">IFERROR(INDEX(records[备注],MATCH(表31_24[[#This Row],[日期]]&amp;"阅读",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v>已连续3天，增加0.1</v>
-      </c>
-      <c r="G10">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&gt;0,G9+1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <f>IF(表31_24[[#This Row],[得分]]="","",IF(表31_24[[#This Row],[得分]]&lt;0,H9+1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -53672,64 +56360,64 @@
       <c r="A11" s="6">
         <v>43892</v>
       </c>
-      <c r="B11" s="18" t="str">
+      <c r="B11" s="18">
         <f t="array" ref="B11">IFERROR(INDEX(records[开始时刻],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="18" t="str">
+        <v>0.875</v>
+      </c>
+      <c r="C11" s="18">
         <f t="array" ref="C11">IFERROR(INDEX(records[结束时刻],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="18" t="str">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D11" s="18">
         <f t="array" ref="D11">IFERROR(INDEX(records[持续时间],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E11" t="str">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E11">
         <f t="array" ref="E11">IFERROR(INDEX(records[得分],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.6</v>
       </c>
       <c r="F11" t="str">
         <f t="array" ref="F11">IFERROR(INDEX(records[备注],MATCH(表31_33[[#This Row],[日期]]&amp;"锻炼",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G11" t="str">
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G11">
         <f>IF(表31_33[[#This Row],[得分]]="","",IF(表31_33[[#This Row],[得分]]&gt;0,G10+1,0))</f>
-        <v/>
-      </c>
-      <c r="H11" t="str">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <f>IF(表31_33[[#This Row],[得分]]="","",IF(表31_33[[#This Row],[得分]]&lt;0,H10+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J11" s="6">
         <v>43892</v>
       </c>
-      <c r="K11" s="18" t="str">
+      <c r="K11" s="18">
         <f t="array" ref="K11">IFERROR(INDEX(records[开始时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="18" t="str">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L11" s="18">
         <f t="array" ref="L11">IFERROR(INDEX(records[结束时刻],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="18" t="str">
+        <v>0.9375</v>
+      </c>
+      <c r="M11" s="18">
         <f t="array" ref="M11">IFERROR(INDEX(records[持续时间],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="N11" t="str">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="N11">
         <f t="array" ref="N11">IFERROR(INDEX(records[得分],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.6</v>
       </c>
       <c r="O11" t="str">
         <f t="array" ref="O11">IFERROR(INDEX(records[备注],MATCH(表31_34[[#This Row],[日期]]&amp;"洗澡",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="P11" t="str">
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="P11">
         <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&gt;0,P10+1,0))</f>
-        <v/>
-      </c>
-      <c r="Q11" t="str">
+        <v>7</v>
+      </c>
+      <c r="Q11">
         <f>IF(表31_34[[#This Row],[得分]]="","",IF(表31_34[[#This Row],[得分]]&lt;0,Q10+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -53878,7 +56566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A0388C-D189-614E-8D10-ABABCA3EBD3F}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -54188,33 +56876,33 @@
       <c r="A11" s="6">
         <v>43892</v>
       </c>
-      <c r="B11" s="18" t="str">
+      <c r="B11" s="18">
         <f t="array" ref="B11">IFERROR(INDEX(records[开始时刻],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="18" t="str">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C11" s="18">
         <f t="array" ref="C11">IFERROR(INDEX(records[结束时刻],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="18" t="str">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D11" s="18">
         <f t="array" ref="D11">IFERROR(INDEX(records[持续时间],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
-      </c>
-      <c r="E11" t="str">
+        <v>6.9444444444443088E-3</v>
+      </c>
+      <c r="E11">
         <f t="array" ref="E11">IFERROR(INDEX(records[得分],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0)),"")</f>
-        <v/>
+        <v>0.6</v>
       </c>
       <c r="F11" t="str">
         <f t="array" ref="F11">IFERROR(INDEX(records[备注],MATCH(表31_3435[[#This Row],[日期]]&amp;"明日日程安排",records[日期]&amp;records[名称],0))&amp;"","")</f>
-        <v/>
-      </c>
-      <c r="G11" t="str">
+        <v>已连续3天，增加0.1</v>
+      </c>
+      <c r="G11">
         <f>IF(表31_3435[[#This Row],[得分]]="","",IF(表31_3435[[#This Row],[得分]]&gt;0,G10+1,0))</f>
-        <v/>
-      </c>
-      <c r="H11" t="str">
+        <v>9</v>
+      </c>
+      <c r="H11">
         <f>IF(表31_3435[[#This Row],[得分]]="","",IF(表31_3435[[#This Row],[得分]]&lt;0,H10+1,0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -54297,18 +56985,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B2F5E1-8034-CB43-9A05-FB941B83E585}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="19.1640625" bestFit="1" customWidth="1"/>
@@ -54381,7 +57068,7 @@
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" s="20" t="s">
         <v>118</v>
       </c>
@@ -54398,7 +57085,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="B29" t="s">
         <v>108</v>
       </c>
@@ -54442,27 +57129,30 @@
         <v>114</v>
       </c>
       <c r="P29" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q29" t="s">
         <v>176</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>115</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>116</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>117</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" s="6">
         <v>43884</v>
       </c>
@@ -54485,18 +57175,19 @@
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="19">
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19">
         <v>0.1</v>
       </c>
-      <c r="R33" s="19">
+      <c r="S33" s="19">
         <v>0.08</v>
       </c>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19">
+      <c r="T33" s="19"/>
+      <c r="U33" s="19">
         <v>-0.32</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" s="6">
         <v>43885</v>
       </c>
@@ -54521,18 +57212,19 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
-      <c r="Q34" s="19">
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19">
         <v>0.1</v>
       </c>
-      <c r="R34" s="19">
-        <v>0</v>
-      </c>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19">
+      <c r="S34" s="19">
+        <v>0</v>
+      </c>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19">
         <v>-0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" s="6">
         <v>43886</v>
       </c>
@@ -54563,18 +57255,19 @@
         <v>0.1</v>
       </c>
       <c r="P35" s="19"/>
-      <c r="Q35" s="19">
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19">
         <v>0.2</v>
       </c>
-      <c r="R35" s="19">
+      <c r="S35" s="19">
         <v>0.5</v>
       </c>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19">
+      <c r="T35" s="19"/>
+      <c r="U35" s="19">
         <v>1.7</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" s="6">
         <v>43887</v>
       </c>
@@ -54601,18 +57294,19 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
-      <c r="Q36" s="19">
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19">
         <v>0.2</v>
       </c>
-      <c r="R36" s="19">
+      <c r="S36" s="19">
         <v>0.5</v>
       </c>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19">
+      <c r="T36" s="19"/>
+      <c r="U36" s="19">
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" s="6">
         <v>43888</v>
       </c>
@@ -54637,20 +57331,21 @@
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
-      <c r="Q37" s="19">
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19">
         <v>0.2</v>
       </c>
-      <c r="R37" s="19">
+      <c r="S37" s="19">
         <v>0.60000000000000009</v>
       </c>
-      <c r="S37" s="19">
+      <c r="T37" s="19">
         <v>0.18</v>
       </c>
-      <c r="T37" s="19">
+      <c r="U37" s="19">
         <v>1.56</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" s="6">
         <v>43889</v>
       </c>
@@ -54679,18 +57374,19 @@
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
-      <c r="Q38" s="19">
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19">
         <v>0.3</v>
       </c>
-      <c r="R38" s="19">
+      <c r="S38" s="19">
         <v>0.8</v>
       </c>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19">
+      <c r="T38" s="19"/>
+      <c r="U38" s="19">
         <v>3.9400000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" s="6">
         <v>43890</v>
       </c>
@@ -54717,20 +57413,21 @@
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
-      <c r="Q39" s="19">
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19">
         <v>0.5</v>
       </c>
-      <c r="R39" s="19">
+      <c r="S39" s="19">
         <v>1.4000000000000001</v>
       </c>
-      <c r="S39" s="19">
+      <c r="T39" s="19">
         <v>0.3</v>
       </c>
-      <c r="T39" s="19">
+      <c r="U39" s="19">
         <v>4.18</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" s="6">
         <v>43891</v>
       </c>
@@ -54774,49 +57471,46 @@
       <c r="O40" s="19">
         <v>0.2</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19">
         <v>0.1</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="R40" s="19">
         <v>0.5</v>
       </c>
-      <c r="R40" s="19">
+      <c r="S40" s="19">
         <v>0.9</v>
       </c>
-      <c r="S40" s="19">
-        <v>0</v>
-      </c>
       <c r="T40" s="19">
+        <v>0</v>
+      </c>
+      <c r="U40" s="19">
         <v>4.1880000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="19">
-        <v>2.5310000000000001</v>
-      </c>
-      <c r="C41" s="19">
-        <v>1.8000000000000003</v>
-      </c>
+    <row r="41" spans="1:21">
+      <c r="A41" s="6">
+        <v>43892</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="19">
-        <v>2.2800000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E41" s="19">
-        <v>1.0640000000000001</v>
+        <v>1.3000000000000003</v>
       </c>
       <c r="F41" s="19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G41" s="19">
-        <v>0.89300000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="H41" s="19">
         <v>0.2</v>
       </c>
       <c r="I41" s="19">
-        <v>0.30000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="J41" s="19">
         <v>0.1</v>
@@ -54825,31 +57519,95 @@
         <v>0.1</v>
       </c>
       <c r="L41" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="M41" s="19">
-        <v>0.1</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="M41" s="19"/>
       <c r="N41" s="19">
         <v>0.1</v>
       </c>
       <c r="O41" s="19">
-        <v>0.30000000000000004</v>
+        <v>0.115</v>
       </c>
       <c r="P41" s="19">
         <v>0.1</v>
       </c>
       <c r="Q41" s="19">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="R41" s="19">
-        <v>4.7800000000000011</v>
+        <v>0.6</v>
       </c>
       <c r="S41" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19">
+        <v>6.3050000000000015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="19">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="D42" s="19">
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="E42" s="19">
+        <v>2.3640000000000003</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J42" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0.16</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="N42" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="O42" s="19">
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="P42" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="R42" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="S42" s="19">
+        <v>6.6800000000000015</v>
+      </c>
+      <c r="T42" s="19">
         <v>0.48</v>
       </c>
-      <c r="T41" s="19">
-        <v>17.527999999999999</v>
+      <c r="U42" s="19">
+        <v>23.832999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -55051,130 +57809,130 @@
         <v>43885</v>
       </c>
       <c r="E3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!E2,'records'!F5:F118, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!E2,'records'!F5:F145, "&lt;" &amp; day!F2)</f>
         <v>0.18</v>
       </c>
       <c r="F3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!F2,'records'!F5:F118, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!F2,'records'!F5:F145, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!G2,'records'!F5:F118, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!G2,'records'!F5:F145, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!H2,'records'!F5:F118, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!H2,'records'!F5:F145, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!I2,'records'!F5:F118, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!I2,'records'!F5:F145, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!J2,'records'!F5:F118, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!J2,'records'!F5:F145, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!K2,'records'!F5:F118, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!K2,'records'!F5:F145, "&lt;" &amp; day!L2)</f>
         <v>-0.5</v>
       </c>
       <c r="L3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!L2,'records'!F5:F118, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!L2,'records'!F5:F145, "&lt;" &amp; day!M2)</f>
         <v>-0.4</v>
       </c>
       <c r="M3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!M2,'records'!F5:F118, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!M2,'records'!F5:F145, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!N2,'records'!F5:F118, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!N2,'records'!F5:F145, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!O2,'records'!F5:F118, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!O2,'records'!F5:F145, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!P2,'records'!F5:F118, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!P2,'records'!F5:F145, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!Q2,'records'!F5:F118, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!Q2,'records'!F5:F145, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!R2,'records'!F5:F118, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!R2,'records'!F5:F145, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!S2,'records'!F5:F118, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!S2,'records'!F5:F145, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!T2,'records'!F5:F118, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!T2,'records'!F5:F145, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!U2,'records'!F5:F118, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!U2,'records'!F5:F145, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!V2,'records'!F5:F118, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!V2,'records'!F5:F145, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!W2,'records'!F5:F118, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!W2,'records'!F5:F145, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!X2,'records'!F5:F118, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!X2,'records'!F5:F145, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!Y2,'records'!F5:F118, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!Y2,'records'!F5:F145, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!Z2,'records'!F5:F118, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!Z2,'records'!F5:F145, "&lt;" &amp; day!AA2)</f>
         <v>0.1</v>
       </c>
       <c r="AA3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!AA2,'records'!F5:F118, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!AA2,'records'!F5:F145, "&lt;" &amp; day!AB2)</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118, "&gt;=" &amp; day!AB2,'records'!F5:F118, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145, "&gt;=" &amp; day!AB2,'records'!F5:F145, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D3, 'records'!F5:F118,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D3, 'records'!F5:F145,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
         <v>43884</v>
       </c>
       <c r="AF3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A3, 'records'!I5:I118, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A3, 'records'!I5:I145, day!AF2)</f>
         <v>-0.2</v>
       </c>
       <c r="AG3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A3, 'records'!I5:I118, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A3, 'records'!I5:I145, day!AG2)</f>
         <v>-0.2</v>
       </c>
       <c r="AH3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A3, 'records'!I5:I118, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A3, 'records'!I5:I145, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A3, 'records'!I5:I118, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A3, 'records'!I5:I145, day!AI2)</f>
         <v>0.1</v>
       </c>
       <c r="AJ3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A3, 'records'!I5:I118, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A3, 'records'!I5:I145, day!AJ2)</f>
         <v>0.1</v>
       </c>
       <c r="AK3">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A3, 'records'!I5:I118, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A3, 'records'!I5:I145, day!AK2)</f>
         <v>0.1</v>
       </c>
     </row>
@@ -55191,130 +57949,130 @@
         <v>43886</v>
       </c>
       <c r="E4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!E2,'records'!F5:F118, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!E2,'records'!F5:F145, "&lt;" &amp; day!F2)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!F2,'records'!F5:F118, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!F2,'records'!F5:F145, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!G2,'records'!F5:F118, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!G2,'records'!F5:F145, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!H2,'records'!F5:F118, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!H2,'records'!F5:F145, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!I2,'records'!F5:F118, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!I2,'records'!F5:F145, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!J2,'records'!F5:F118, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!J2,'records'!F5:F145, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!K2,'records'!F5:F118, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!K2,'records'!F5:F145, "&lt;" &amp; day!L2)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="L4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!L2,'records'!F5:F118, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!L2,'records'!F5:F145, "&lt;" &amp; day!M2)</f>
         <v>0.2</v>
       </c>
       <c r="M4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!M2,'records'!F5:F118, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!M2,'records'!F5:F145, "&lt;" &amp; day!N2)</f>
         <v>0.1</v>
       </c>
       <c r="N4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!N2,'records'!F5:F118, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!N2,'records'!F5:F145, "&lt;" &amp; day!O2)</f>
         <v>0.2</v>
       </c>
       <c r="O4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!O2,'records'!F5:F118, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!O2,'records'!F5:F145, "&lt;" &amp; day!P2)</f>
         <v>0.1</v>
       </c>
       <c r="P4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!P2,'records'!F5:F118, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!P2,'records'!F5:F145, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!Q2,'records'!F5:F118, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!Q2,'records'!F5:F145, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!R2,'records'!F5:F118, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!R2,'records'!F5:F145, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!S2,'records'!F5:F118, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!S2,'records'!F5:F145, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!T2,'records'!F5:F118, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!T2,'records'!F5:F145, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!U2,'records'!F5:F118, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!U2,'records'!F5:F145, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!V2,'records'!F5:F118, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!V2,'records'!F5:F145, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!W2,'records'!F5:F118, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!W2,'records'!F5:F145, "&lt;" &amp; day!X2)</f>
         <v>0.1</v>
       </c>
       <c r="X4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!X2,'records'!F5:F118, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!X2,'records'!F5:F145, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!Y2,'records'!F5:F118, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!Y2,'records'!F5:F145, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!Z2,'records'!F5:F118, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!Z2,'records'!F5:F145, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
       <c r="AA4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!AA2,'records'!F5:F118, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!AA2,'records'!F5:F145, "&lt;" &amp; day!AB2)</f>
         <v>0.5</v>
       </c>
       <c r="AB4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118, "&gt;=" &amp; day!AB2,'records'!F5:F118, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145, "&gt;=" &amp; day!AB2,'records'!F5:F145, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D4, 'records'!F5:F118,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D4, 'records'!F5:F145,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="6">
         <v>43885</v>
       </c>
       <c r="AF4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A4, 'records'!I5:I118, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A4, 'records'!I5:I145, day!AF2)</f>
         <v>0.1</v>
       </c>
       <c r="AG4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A4, 'records'!I5:I118, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A4, 'records'!I5:I145, day!AG2)</f>
         <v>0.1</v>
       </c>
       <c r="AH4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A4, 'records'!I5:I118, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A4, 'records'!I5:I145, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A4, 'records'!I5:I118, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A4, 'records'!I5:I145, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A4, 'records'!I5:I118, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A4, 'records'!I5:I145, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK4">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A4, 'records'!I5:I118, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A4, 'records'!I5:I145, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -55331,130 +58089,130 @@
         <v>43887</v>
       </c>
       <c r="E5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!E2,'records'!F5:F118, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!E2,'records'!F5:F145, "&lt;" &amp; day!F2)</f>
         <v>0.9</v>
       </c>
       <c r="F5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!F2,'records'!F5:F118, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!F2,'records'!F5:F145, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!G2,'records'!F5:F118, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!G2,'records'!F5:F145, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!H2,'records'!F5:F118, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!H2,'records'!F5:F145, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!I2,'records'!F5:F118, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!I2,'records'!F5:F145, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!J2,'records'!F5:F118, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!J2,'records'!F5:F145, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!K2,'records'!F5:F118, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!K2,'records'!F5:F145, "&lt;" &amp; day!L2)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="L5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!L2,'records'!F5:F118, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!L2,'records'!F5:F145, "&lt;" &amp; day!M2)</f>
         <v>0.2</v>
       </c>
       <c r="M5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!M2,'records'!F5:F118, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!M2,'records'!F5:F145, "&lt;" &amp; day!N2)</f>
         <v>0.8</v>
       </c>
       <c r="N5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!N2,'records'!F5:F118, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!N2,'records'!F5:F145, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!O2,'records'!F5:F118, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!O2,'records'!F5:F145, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!P2,'records'!F5:F118, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!P2,'records'!F5:F145, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!Q2,'records'!F5:F118, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!Q2,'records'!F5:F145, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!R2,'records'!F5:F118, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!R2,'records'!F5:F145, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!S2,'records'!F5:F118, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!S2,'records'!F5:F145, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!T2,'records'!F5:F118, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!T2,'records'!F5:F145, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!U2,'records'!F5:F118, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!U2,'records'!F5:F145, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!V2,'records'!F5:F118, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!V2,'records'!F5:F145, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!W2,'records'!F5:F118, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!W2,'records'!F5:F145, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!X2,'records'!F5:F118, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!X2,'records'!F5:F145, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!Y2,'records'!F5:F118, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!Y2,'records'!F5:F145, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!Z2,'records'!F5:F118, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!Z2,'records'!F5:F145, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
       <c r="AA5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!AA2,'records'!F5:F118, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!AA2,'records'!F5:F145, "&lt;" &amp; day!AB2)</f>
         <v>0.5</v>
       </c>
       <c r="AB5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118, "&gt;=" &amp; day!AB2,'records'!F5:F118, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145, "&gt;=" &amp; day!AB2,'records'!F5:F145, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D5, 'records'!F5:F118,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D5, 'records'!F5:F145,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="6">
         <v>43886</v>
       </c>
       <c r="AF5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A5, 'records'!I5:I118, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A5, 'records'!I5:I145, day!AF2)</f>
         <v>0.1</v>
       </c>
       <c r="AG5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A5, 'records'!I5:I118, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A5, 'records'!I5:I145, day!AG2)</f>
         <v>0.1</v>
       </c>
       <c r="AH5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A5, 'records'!I5:I118, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A5, 'records'!I5:I145, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A5, 'records'!I5:I118, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A5, 'records'!I5:I145, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A5, 'records'!I5:I118, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A5, 'records'!I5:I145, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK5">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A5, 'records'!I5:I118, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A5, 'records'!I5:I145, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -55471,130 +58229,130 @@
         <v>43888</v>
       </c>
       <c r="E6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!E2,'records'!F5:F118, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!E2,'records'!F5:F145, "&lt;" &amp; day!F2)</f>
         <v>-0.42</v>
       </c>
       <c r="F6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!F2,'records'!F5:F118, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!F2,'records'!F5:F145, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!G2,'records'!F5:F118, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!G2,'records'!F5:F145, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!H2,'records'!F5:F118, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!H2,'records'!F5:F145, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!I2,'records'!F5:F118, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!I2,'records'!F5:F145, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!J2,'records'!F5:F118, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!J2,'records'!F5:F145, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!K2,'records'!F5:F118, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!K2,'records'!F5:F145, "&lt;" &amp; day!L2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="L6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!L2,'records'!F5:F118, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!L2,'records'!F5:F145, "&lt;" &amp; day!M2)</f>
         <v>0.4</v>
       </c>
       <c r="M6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!M2,'records'!F5:F118, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!M2,'records'!F5:F145, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!N2,'records'!F5:F118, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!N2,'records'!F5:F145, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!O2,'records'!F5:F118, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!O2,'records'!F5:F145, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!P2,'records'!F5:F118, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!P2,'records'!F5:F145, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!Q2,'records'!F5:F118, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!Q2,'records'!F5:F145, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!R2,'records'!F5:F118, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!R2,'records'!F5:F145, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!S2,'records'!F5:F118, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!S2,'records'!F5:F145, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!T2,'records'!F5:F118, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!T2,'records'!F5:F145, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!U2,'records'!F5:F118, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!U2,'records'!F5:F145, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!V2,'records'!F5:F118, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!V2,'records'!F5:F145, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!W2,'records'!F5:F118, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!W2,'records'!F5:F145, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!X2,'records'!F5:F118, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!X2,'records'!F5:F145, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!Y2,'records'!F5:F118, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!Y2,'records'!F5:F145, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!Z2,'records'!F5:F118, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!Z2,'records'!F5:F145, "&lt;" &amp; day!AA2)</f>
         <v>0.2</v>
       </c>
       <c r="AA6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!AA2,'records'!F5:F118, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!AA2,'records'!F5:F145, "&lt;" &amp; day!AB2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="AB6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118, "&gt;=" &amp; day!AB2,'records'!F5:F118, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145, "&gt;=" &amp; day!AB2,'records'!F5:F145, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D6, 'records'!F5:F118,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D6, 'records'!F5:F145,day!AC2)</f>
         <v>0.18</v>
       </c>
       <c r="AE6" s="6">
         <v>43887</v>
       </c>
       <c r="AF6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A6, 'records'!I5:I118, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A6, 'records'!I5:I145, day!AF2)</f>
         <v>0.2</v>
       </c>
       <c r="AG6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A6, 'records'!I5:I118, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A6, 'records'!I5:I145, day!AG2)</f>
         <v>0.2</v>
       </c>
       <c r="AH6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A6, 'records'!I5:I118, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A6, 'records'!I5:I145, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A6, 'records'!I5:I118, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A6, 'records'!I5:I145, day!AI2)</f>
         <v>0.2</v>
       </c>
       <c r="AJ6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A6, 'records'!I5:I118, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A6, 'records'!I5:I145, day!AJ2)</f>
         <v>0.2</v>
       </c>
       <c r="AK6">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A6, 'records'!I5:I118, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A6, 'records'!I5:I145, day!AK2)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -55611,130 +58369,130 @@
         <v>43889</v>
       </c>
       <c r="E7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!E2,'records'!F5:F118, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!E2,'records'!F5:F145, "&lt;" &amp; day!F2)</f>
         <v>1.56</v>
       </c>
       <c r="F7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!F2,'records'!F5:F118, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!F2,'records'!F5:F145, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!G2,'records'!F5:F118, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!G2,'records'!F5:F145, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!H2,'records'!F5:F118, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!H2,'records'!F5:F145, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!I2,'records'!F5:F118, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!I2,'records'!F5:F145, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!J2,'records'!F5:F118, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!J2,'records'!F5:F145, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!K2,'records'!F5:F118, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!K2,'records'!F5:F145, "&lt;" &amp; day!L2)</f>
         <v>0.4</v>
       </c>
       <c r="L7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!L2,'records'!F5:F118, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!L2,'records'!F5:F145, "&lt;" &amp; day!M2)</f>
         <v>0.58000000000000007</v>
       </c>
       <c r="M7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!M2,'records'!F5:F118, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!M2,'records'!F5:F145, "&lt;" &amp; day!N2)</f>
         <v>0.1</v>
       </c>
       <c r="N7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!N2,'records'!F5:F118, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!N2,'records'!F5:F145, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!O2,'records'!F5:F118, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!O2,'records'!F5:F145, "&lt;" &amp; day!P2)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!P2,'records'!F5:F118, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!P2,'records'!F5:F145, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!Q2,'records'!F5:F118, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!Q2,'records'!F5:F145, "&lt;" &amp; day!R2)</f>
         <v>0.2</v>
       </c>
       <c r="R7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!R2,'records'!F5:F118, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!R2,'records'!F5:F145, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!S2,'records'!F5:F118, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!S2,'records'!F5:F145, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!T2,'records'!F5:F118, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!T2,'records'!F5:F145, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!U2,'records'!F5:F118, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!U2,'records'!F5:F145, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!V2,'records'!F5:F118, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!V2,'records'!F5:F145, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!W2,'records'!F5:F118, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!W2,'records'!F5:F145, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!X2,'records'!F5:F118, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!X2,'records'!F5:F145, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!Y2,'records'!F5:F118, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!Y2,'records'!F5:F145, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!Z2,'records'!F5:F118, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!Z2,'records'!F5:F145, "&lt;" &amp; day!AA2)</f>
         <v>0.3</v>
       </c>
       <c r="AA7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!AA2,'records'!F5:F118, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!AA2,'records'!F5:F145, "&lt;" &amp; day!AB2)</f>
         <v>0.8</v>
       </c>
       <c r="AB7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118, "&gt;=" &amp; day!AB2,'records'!F5:F118, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145, "&gt;=" &amp; day!AB2,'records'!F5:F145, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D7, 'records'!F5:F118,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D7, 'records'!F5:F145,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE7" s="6">
         <v>43888</v>
       </c>
       <c r="AF7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A7, 'records'!I5:I118, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A7, 'records'!I5:I145, day!AF2)</f>
         <v>0.2</v>
       </c>
       <c r="AG7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A7, 'records'!I5:I118, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A7, 'records'!I5:I145, day!AG2)</f>
         <v>0.2</v>
       </c>
       <c r="AH7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A7, 'records'!I5:I118, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A7, 'records'!I5:I145, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A7, 'records'!I5:I118, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A7, 'records'!I5:I145, day!AI2)</f>
         <v>0.3</v>
       </c>
       <c r="AJ7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A7, 'records'!I5:I118, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A7, 'records'!I5:I145, day!AJ2)</f>
         <v>0.3</v>
       </c>
       <c r="AK7">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A7, 'records'!I5:I118, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A7, 'records'!I5:I145, day!AK2)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -55751,130 +58509,130 @@
         <v>43890</v>
       </c>
       <c r="E8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!E2,'records'!F5:F118, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!E2,'records'!F5:F145, "&lt;" &amp; day!F2)</f>
         <v>0.23</v>
       </c>
       <c r="F8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!F2,'records'!F5:F118, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!F2,'records'!F5:F145, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!G2,'records'!F5:F118, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!G2,'records'!F5:F145, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!H2,'records'!F5:F118, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!H2,'records'!F5:F145, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!I2,'records'!F5:F118, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!I2,'records'!F5:F145, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!J2,'records'!F5:F118, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!J2,'records'!F5:F145, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!K2,'records'!F5:F118, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!K2,'records'!F5:F145, "&lt;" &amp; day!L2)</f>
         <v>0.4</v>
       </c>
       <c r="L8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!L2,'records'!F5:F118, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!L2,'records'!F5:F145, "&lt;" &amp; day!M2)</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="M8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!M2,'records'!F5:F118, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!M2,'records'!F5:F145, "&lt;" &amp; day!N2)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!N2,'records'!F5:F118, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!N2,'records'!F5:F145, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!O2,'records'!F5:F118, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!O2,'records'!F5:F145, "&lt;" &amp; day!P2)</f>
         <v>0.75</v>
       </c>
       <c r="P8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!P2,'records'!F5:F118, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!P2,'records'!F5:F145, "&lt;" &amp; day!Q2)</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!Q2,'records'!F5:F118, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!Q2,'records'!F5:F145, "&lt;" &amp; day!R2)</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!R2,'records'!F5:F118, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!R2,'records'!F5:F145, "&lt;" &amp; day!S2)</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!S2,'records'!F5:F118, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!S2,'records'!F5:F145, "&lt;" &amp; day!T2)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!T2,'records'!F5:F118, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!T2,'records'!F5:F145, "&lt;" &amp; day!U2)</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!U2,'records'!F5:F118, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!U2,'records'!F5:F145, "&lt;" &amp; day!V2)</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!V2,'records'!F5:F118, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!V2,'records'!F5:F145, "&lt;" &amp; day!W2)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!W2,'records'!F5:F118, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!W2,'records'!F5:F145, "&lt;" &amp; day!X2)</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!X2,'records'!F5:F118, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!X2,'records'!F5:F145, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!Y2,'records'!F5:F118, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!Y2,'records'!F5:F145, "&lt;" &amp; day!Z2)</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!Z2,'records'!F5:F118, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!Z2,'records'!F5:F145, "&lt;" &amp; day!AA2)</f>
         <v>0.5</v>
       </c>
       <c r="AA8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!AA2,'records'!F5:F118, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!AA2,'records'!F5:F145, "&lt;" &amp; day!AB2)</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="AB8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118, "&gt;=" &amp; day!AB2,'records'!F5:F118, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145, "&gt;=" &amp; day!AB2,'records'!F5:F145, "&lt;" &amp; day!AC2)</f>
         <v>0.3</v>
       </c>
       <c r="AC8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D8, 'records'!F5:F118,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D8, 'records'!F5:F145,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="6">
         <v>43889</v>
       </c>
       <c r="AF8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A8, 'records'!I5:I118, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A8, 'records'!I5:I145, day!AF2)</f>
         <v>0.2</v>
       </c>
       <c r="AG8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A8, 'records'!I5:I118, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A8, 'records'!I5:I145, day!AG2)</f>
         <v>0.2</v>
       </c>
       <c r="AH8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A8, 'records'!I5:I118, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A8, 'records'!I5:I145, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A8, 'records'!I5:I118, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A8, 'records'!I5:I145, day!AI2)</f>
         <v>0.5</v>
       </c>
       <c r="AJ8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A8, 'records'!I5:I118, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A8, 'records'!I5:I145, day!AJ2)</f>
         <v>0.3</v>
       </c>
       <c r="AK8">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A8, 'records'!I5:I118, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A8, 'records'!I5:I145, day!AK2)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -55891,130 +58649,130 @@
         <v>43891</v>
       </c>
       <c r="E9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!E2,'records'!F5:F118, "&lt;" &amp; day!F2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!E2,'records'!F5:F145, "&lt;" &amp; day!F2)</f>
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="F9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!F2,'records'!F5:F118, "&lt;" &amp; day!G2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!F2,'records'!F5:F145, "&lt;" &amp; day!G2)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!G2,'records'!F5:F118, "&lt;" &amp; day!H2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!G2,'records'!F5:F145, "&lt;" &amp; day!H2)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!H2,'records'!F5:F118, "&lt;" &amp; day!I2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!H2,'records'!F5:F145, "&lt;" &amp; day!I2)</f>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!I2,'records'!F5:F118, "&lt;" &amp; day!J2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!I2,'records'!F5:F145, "&lt;" &amp; day!J2)</f>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!J2,'records'!F5:F118, "&lt;" &amp; day!K2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!J2,'records'!F5:F145, "&lt;" &amp; day!K2)</f>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!K2,'records'!F5:F118, "&lt;" &amp; day!L2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!K2,'records'!F5:F145, "&lt;" &amp; day!L2)</f>
         <v>0.6</v>
       </c>
       <c r="L9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!L2,'records'!F5:F118, "&lt;" &amp; day!M2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!L2,'records'!F5:F145, "&lt;" &amp; day!M2)</f>
         <v>0.89999999999999991</v>
       </c>
       <c r="M9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!M2,'records'!F5:F118, "&lt;" &amp; day!N2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!M2,'records'!F5:F145, "&lt;" &amp; day!N2)</f>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="N9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!N2,'records'!F5:F118, "&lt;" &amp; day!O2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!N2,'records'!F5:F145, "&lt;" &amp; day!O2)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!O2,'records'!F5:F118, "&lt;" &amp; day!P2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!O2,'records'!F5:F145, "&lt;" &amp; day!P2)</f>
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="P9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!P2,'records'!F5:F118, "&lt;" &amp; day!Q2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!P2,'records'!F5:F145, "&lt;" &amp; day!Q2)</f>
         <v>0.2</v>
       </c>
       <c r="Q9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!Q2,'records'!F5:F118, "&lt;" &amp; day!R2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!Q2,'records'!F5:F145, "&lt;" &amp; day!R2)</f>
         <v>0.1</v>
       </c>
       <c r="R9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!R2,'records'!F5:F118, "&lt;" &amp; day!S2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!R2,'records'!F5:F145, "&lt;" &amp; day!S2)</f>
         <v>0.1</v>
       </c>
       <c r="S9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!S2,'records'!F5:F118, "&lt;" &amp; day!T2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!S2,'records'!F5:F145, "&lt;" &amp; day!T2)</f>
         <v>0.1</v>
       </c>
       <c r="T9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!T2,'records'!F5:F118, "&lt;" &amp; day!U2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!T2,'records'!F5:F145, "&lt;" &amp; day!U2)</f>
         <v>0.1</v>
       </c>
       <c r="U9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!U2,'records'!F5:F118, "&lt;" &amp; day!V2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!U2,'records'!F5:F145, "&lt;" &amp; day!V2)</f>
         <v>0.1</v>
       </c>
       <c r="V9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!V2,'records'!F5:F118, "&lt;" &amp; day!W2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!V2,'records'!F5:F145, "&lt;" &amp; day!W2)</f>
         <v>0.1</v>
       </c>
       <c r="W9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!W2,'records'!F5:F118, "&lt;" &amp; day!X2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!W2,'records'!F5:F145, "&lt;" &amp; day!X2)</f>
         <v>0.2</v>
       </c>
       <c r="X9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!X2,'records'!F5:F118, "&lt;" &amp; day!Y2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!X2,'records'!F5:F145, "&lt;" &amp; day!Y2)</f>
         <v>0</v>
       </c>
       <c r="Y9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!Y2,'records'!F5:F118, "&lt;" &amp; day!Z2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!Y2,'records'!F5:F145, "&lt;" &amp; day!Z2)</f>
         <v>0.1</v>
       </c>
       <c r="Z9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!Z2,'records'!F5:F118, "&lt;" &amp; day!AA2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!Z2,'records'!F5:F145, "&lt;" &amp; day!AA2)</f>
         <v>0.5</v>
       </c>
       <c r="AA9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!AA2,'records'!F5:F118, "&lt;" &amp; day!AB2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!AA2,'records'!F5:F145, "&lt;" &amp; day!AB2)</f>
         <v>0.9</v>
       </c>
       <c r="AB9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118, "&gt;=" &amp; day!AB2,'records'!F5:F118, "&lt;" &amp; day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145, "&gt;=" &amp; day!AB2,'records'!F5:F145, "&lt;" &amp; day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AC9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!D9, 'records'!F5:F118,day!AC2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!D9, 'records'!F5:F145,day!AC2)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="6">
         <v>43890</v>
       </c>
       <c r="AF9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A9, 'records'!I5:I118, day!AF2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A9, 'records'!I5:I145, day!AF2)</f>
         <v>0.3</v>
       </c>
       <c r="AG9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A9, 'records'!I5:I118, day!AG2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A9, 'records'!I5:I145, day!AG2)</f>
         <v>0.4</v>
       </c>
       <c r="AH9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A9, 'records'!I5:I118, day!AH2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A9, 'records'!I5:I145, day!AH2)</f>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A9, 'records'!I5:I118, day!AI2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A9, 'records'!I5:I145, day!AI2)</f>
         <v>0.5</v>
       </c>
       <c r="AJ9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A9, 'records'!I5:I118, day!AJ2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A9, 'records'!I5:I145, day!AJ2)</f>
         <v>0</v>
       </c>
       <c r="AK9">
-        <f>SUMIFS('records'!J5:J118,'records'!E5:E118,day!A9, 'records'!I5:I118, day!AK2)</f>
+        <f>SUMIFS('records'!J5:J145,'records'!E5:E145,day!A9, 'records'!I5:I145, day!AK2)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -60692,7 +63450,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -61310,38 +64068,260 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="6"/>
-      <c r="B11" s="18"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="A11" s="6">
+        <v>43892</v>
+      </c>
+      <c r="B11" s="18">
+        <f t="array" ref="B11">IFERROR(INDEX(records[开始时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="array" ref="C11">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="array" ref="D11">IFERROR(INDEX(records[持续时间],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="array" ref="E11">IFERROR(INDEX(records[得分],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="array" ref="F11">IFERROR(INDEX(records[备注],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续1周，增加0.2</v>
+      </c>
+      <c r="G11">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&gt;0,G10+1,0))</f>
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&lt;0,H10+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>43892</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="array" ref="K11">IFERROR(INDEX(records[开始时刻],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="array" ref="L11">IFERROR(INDEX(records[结束时刻],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="array" ref="M11">IFERROR(INDEX(records[持续时间],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="N11">
+        <f t="array" ref="N11">IFERROR(INDEX(records[得分],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="array" ref="O11">IFERROR(INDEX(records[备注],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v>已连续1周，增加0.2</v>
+      </c>
+      <c r="P11">
+        <f>IF(表31_38[[#This Row],[得分]]="","",IF(表31_38[[#This Row],[得分]]&gt;0,P10+1,0))</f>
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f>IF(表31_38[[#This Row],[得分]]="","",IF(表31_38[[#This Row],[得分]]&lt;0,Q10+1,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="6"/>
-      <c r="B12" s="18"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="A12" s="6">
+        <v>43893</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f t="array" ref="B12">IFERROR(INDEX(records[开始时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f t="array" ref="C12">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="array" ref="D12">IFERROR(INDEX(records[持续时间],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="array" ref="E12">IFERROR(INDEX(records[得分],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="array" ref="F12">IFERROR(INDEX(records[备注],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&gt;0,G11+1,0))</f>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&lt;0,H11+1,0))</f>
+        <v/>
+      </c>
+      <c r="J12" s="6">
+        <v>43893</v>
+      </c>
+      <c r="K12" s="18" t="str">
+        <f t="array" ref="K12">IFERROR(INDEX(records[开始时刻],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L12" s="18" t="str">
+        <f t="array" ref="L12">IFERROR(INDEX(records[结束时刻],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="18" t="str">
+        <f t="array" ref="M12">IFERROR(INDEX(records[持续时间],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="array" ref="N12">IFERROR(INDEX(records[得分],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f t="array" ref="O12">IFERROR(INDEX(records[备注],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f>IF(表31_38[[#This Row],[得分]]="","",IF(表31_38[[#This Row],[得分]]&gt;0,P11+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f>IF(表31_38[[#This Row],[得分]]="","",IF(表31_38[[#This Row],[得分]]&lt;0,Q11+1,0))</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="6"/>
-      <c r="B13" s="18"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="A13" s="6">
+        <v>43894</v>
+      </c>
+      <c r="B13" s="18" t="str">
+        <f t="array" ref="B13">IFERROR(INDEX(records[开始时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f t="array" ref="C13">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="array" ref="D13">IFERROR(INDEX(records[持续时间],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="array" ref="E13">IFERROR(INDEX(records[得分],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="array" ref="F13">IFERROR(INDEX(records[备注],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&gt;0,G12+1,0))</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&lt;0,H12+1,0))</f>
+        <v/>
+      </c>
+      <c r="J13" s="6">
+        <v>43894</v>
+      </c>
+      <c r="K13" s="18" t="str">
+        <f t="array" ref="K13">IFERROR(INDEX(records[开始时刻],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="18" t="str">
+        <f t="array" ref="L13">IFERROR(INDEX(records[结束时刻],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="18" t="str">
+        <f t="array" ref="M13">IFERROR(INDEX(records[持续时间],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="array" ref="N13">IFERROR(INDEX(records[得分],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f t="array" ref="O13">IFERROR(INDEX(records[备注],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(表31_38[[#This Row],[得分]]="","",IF(表31_38[[#This Row],[得分]]&gt;0,P12+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(表31_38[[#This Row],[得分]]="","",IF(表31_38[[#This Row],[得分]]&lt;0,Q12+1,0))</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="A14" s="6">
+        <v>43895</v>
+      </c>
+      <c r="B14" s="18" t="str">
+        <f t="array" ref="B14">IFERROR(INDEX(records[开始时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f t="array" ref="C14">IFERROR(INDEX(records[结束时刻],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f t="array" ref="D14">IFERROR(INDEX(records[持续时间],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f t="array" ref="E14">IFERROR(INDEX(records[得分],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="array" ref="F14">IFERROR(INDEX(records[备注],MATCH(表31[[#This Row],[日期]]&amp;"早起",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&gt;0,G13+1,0))</f>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(表31[[#This Row],[得分]]="","",IF(表31[[#This Row],[得分]]&lt;0,H13+1,0))</f>
+        <v/>
+      </c>
+      <c r="J14" s="6">
+        <v>43895</v>
+      </c>
+      <c r="K14" s="18" t="str">
+        <f t="array" ref="K14">IFERROR(INDEX(records[开始时刻],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="18" t="str">
+        <f t="array" ref="L14">IFERROR(INDEX(records[结束时刻],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="18" t="str">
+        <f t="array" ref="M14">IFERROR(INDEX(records[持续时间],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="array" ref="N14">IFERROR(INDEX(records[得分],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0)),"")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f t="array" ref="O14">IFERROR(INDEX(records[备注],MATCH(表31_38[[#This Row],[日期]]&amp;"刷牙洗脸",records[日期]&amp;records[名称],0))&amp;"","")</f>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f>IF(表31_38[[#This Row],[得分]]="","",IF(表31_38[[#This Row],[得分]]&gt;0,P13+1,0))</f>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF(表31_38[[#This Row],[得分]]="","",IF(表31_38[[#This Row],[得分]]&lt;0,Q13+1,0))</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:19">
       <c r="M15" s="8"/>
